--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16458F37-B0B6-4944-B68D-9CD676EF444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5771B58A-FE60-4B38-AA0B-012A8A3636F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>Nombre</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Referido</t>
+  </si>
+  <si>
+    <t>motomel</t>
   </si>
 </sst>
 </file>
@@ -452,59 +455,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -542,6 +502,48 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -701,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:A17" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status"/>
@@ -721,7 +723,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:A22" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel"/>
@@ -731,7 +733,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B1:B18" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli"/>
@@ -741,7 +743,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="C1:C5" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki"/>
@@ -751,7 +753,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="D1:D7" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS"/>
@@ -761,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="E1:E3" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM"/>
@@ -771,7 +773,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="F1:F4" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway"/>
@@ -781,7 +783,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3CA73C0-8BC4-41A2-B284-8CF0C62EEEEE}" name="Teknial" displayName="Teknial" ref="G1:G3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3CA73C0-8BC4-41A2-B284-8CF0C62EEEEE}" name="Teknial" displayName="Teknial" ref="G1:G3" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="G1:G3" xr:uid="{A3CA73C0-8BC4-41A2-B284-8CF0C62EEEEE}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{507FD7E5-A77C-419E-A6D4-31BC48988694}" name="Teknial"/>
@@ -791,10 +793,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A11" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,28 +1202,28 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5491159911742</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -1233,7 +1235,7 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>111</v>
       </c>
       <c r="M2" t="s">
@@ -1253,859 +1255,856 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241" s="3"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="3"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247" s="3"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250" s="3"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252" s="3"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253" s="3"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254" s="3"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255" s="3"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256" s="3"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257" s="3"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258" s="3"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259" s="3"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260" s="3"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261" s="3"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262" s="3"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263" s="3"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264" s="3"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265" s="3"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266" s="3"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267" s="3"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268" s="3"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269" s="3"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270" s="3"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271" s="3"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B272" s="3"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B273" s="3"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B274" s="3"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B275" s="3"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B276" s="3"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B277" s="3"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B278" s="3"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B279" s="3"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B280" s="3"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B281" s="3"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B282" s="3"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B283" s="3"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B284" s="3"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B285" s="3"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B286" s="3"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B287" s="3"/>
+      <c r="B287" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2118,30 +2117,24 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Estado inválido" error="Selecciona un estado válido de la lista." xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Status Válidos'!$A$2:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C200</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3549D3F-429C-4C73-998E-C29628B9B3A7}">
-          <x14:formula1>
-            <xm:f>Marcas!$A$1:$G$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F200</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF5FFD52-20A2-4D93-BEEA-F807D1F4E15F}">
-          <x14:formula1>
-            <xm:f>Vendedores!$A$2:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L200</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8A399FD-7D6F-4797-8536-D6706E68183D}">
           <x14:formula1>
-            <xm:f>Orígen!$A$2:$A$4</xm:f>
+            <xm:f>INDIRECT(Orígen!$A$1:$A$4)</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O201</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BCB8FC9-61F6-41C8-842E-A129A55E84E9}">
+          <x14:formula1>
+            <xm:f>INDIRECT('Status Válidos'!$A$1:$A$17)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C201</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A077BF2-BE33-4B6F-B16C-DE621198E58D}">
+          <x14:formula1>
+            <xm:f>INDIRECT(Vendedores!$A$1:$A$11)</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2261,7 +2254,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2540,52 +2533,52 @@
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
     </row>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5771B58A-FE60-4B38-AA0B-012A8A3636F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0035D1D-F0A4-4722-947B-2F083B558E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>Nombre</t>
   </si>
@@ -384,16 +384,13 @@
   </si>
   <si>
     <t>Referido</t>
-  </si>
-  <si>
-    <t>motomel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,16 +418,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -451,20 +468,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -671,24 +890,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -703,7 +904,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:A17" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status"/>
@@ -713,6 +914,16 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:A11" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A1:A4" totalsRowShown="0">
   <autoFilter ref="A1:A4" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}"/>
   <tableColumns count="1">
@@ -723,7 +934,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:A22" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel"/>
@@ -733,7 +944,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B1:B18" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli"/>
@@ -743,7 +954,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="C1:C5" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki"/>
@@ -753,7 +964,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="D1:D7" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS"/>
@@ -763,7 +974,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="E1:E3" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM"/>
@@ -773,7 +984,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F1:F4" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway"/>
@@ -783,20 +994,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3CA73C0-8BC4-41A2-B284-8CF0C62EEEEE}" name="Teknial" displayName="Teknial" ref="G1:G3" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="G1:G3" xr:uid="{A3CA73C0-8BC4-41A2-B284-8CF0C62EEEEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G1:G8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="7">
+  <autoFilter ref="G1:G8" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{507FD7E5-A77C-419E-A6D4-31BC48988694}" name="Teknial"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A11" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H1:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="3">
+  <autoFilter ref="H1:H8" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q287"/>
+  <dimension ref="A1:AF287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1359,7 @@
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1253,44 +1464,64 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Z2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Z4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
@@ -2108,37 +2339,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="1">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
       <formula1>INDIRECT(F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6CDAF01B-F445-4E94-939C-DE3C30974269}">
+      <formula1>INDIRECT($Z$2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
+      <formula1>INDIRECT($Z$3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+      <formula1>INDIRECT($Z$4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
+      <formula1>INDIRECT("orígen")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8A399FD-7D6F-4797-8536-D6706E68183D}">
-          <x14:formula1>
-            <xm:f>INDIRECT(Orígen!$A$1:$A$4)</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:O201</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BCB8FC9-61F6-41C8-842E-A129A55E84E9}">
-          <x14:formula1>
-            <xm:f>INDIRECT('Status Válidos'!$A$1:$A$17)</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C201</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A077BF2-BE33-4B6F-B16C-DE621198E58D}">
-          <x14:formula1>
-            <xm:f>INDIRECT(Vendedores!$A$1:$A$11)</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L201</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2251,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9285CA4-E8DB-44F5-9704-AF6AF747F2C9}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2267,7 +2486,7 @@
     <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,11 +2505,14 @@
       <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2309,11 +2531,14 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2332,11 +2557,14 @@
       <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2352,8 +2580,12 @@
       <c r="F4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2366,8 +2598,12 @@
       <c r="D5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2377,8 +2613,12 @@
       <c r="D6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2388,16 +2628,24 @@
       <c r="D7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2413,7 +2661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2421,7 +2669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2437,7 +2685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2445,7 +2693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2453,7 +2701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2502,7 +2750,7 @@
     <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2510,6 +2758,7 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0035D1D-F0A4-4722-947B-2F083B558E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DAF116-600C-4124-93B3-8B25B59CA17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Orígen" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
   <si>
     <t>Nombre</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Referido</t>
+  </si>
+  <si>
+    <t>Otros Modelos</t>
   </si>
 </sst>
 </file>
@@ -486,204 +489,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -763,6 +576,196 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -914,10 +917,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A11" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -994,20 +997,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G1:G8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G1:G8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="G1:G8" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H1:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H1:H8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="H1:H8" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1335,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF287"/>
+  <dimension ref="A1:AG287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,15 +1354,16 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,34 +1389,37 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1437,91 +1444,91 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21480915</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>111</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>113</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="Z3" s="1" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AA3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
@@ -2338,21 +2345,21 @@
       <c r="B287" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6CDAF01B-F445-4E94-939C-DE3C30974269}">
-      <formula1>INDIRECT($Z$2)</formula1>
+      <formula1>INDIRECT($AA$2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
-      <formula1>INDIRECT($Z$3)</formula1>
+      <formula1>INDIRECT($AA$3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
-      <formula1>INDIRECT($Z$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+      <formula1>INDIRECT($AA$4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
       <formula1>INDIRECT("orígen")</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DAF116-600C-4124-93B3-8B25B59CA17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0013BD-8427-4F63-9DA7-BD7DE7E569F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>Nombre</t>
   </si>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,6 +1488,9 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
       <c r="AA4" t="s">
         <v>104</v>
       </c>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0013BD-8427-4F63-9DA7-BD7DE7E569F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F426D-A517-4982-BA1C-C20C6734A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
   <si>
     <t>Nombre</t>
   </si>
@@ -80,15 +80,9 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Gustavo Glunz</t>
-  </si>
-  <si>
     <t>vendedor</t>
   </si>
   <si>
-    <t>25/01/2025, 12:50:11 p. m.</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -98,18 +92,6 @@
     <t>GN125</t>
   </si>
   <si>
-    <t>3.306.555</t>
-  </si>
-  <si>
-    <t>Efectivo, Transferencia o Tarjeta de Débito, Préstamo Personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/01/2025, 12:50:11 p. m. - Status: contactado. 25/01/2025, 12:50:14 p. m. - Status: enviado. 25/01/2025, 12:50:16 p. m. - Status: contactado. 25/01/2025, 12:54:23 p. m. - Status: esperando. 25/01/2025, 01:00:19 p. m. - Status: vendedor. </t>
-  </si>
-  <si>
-    <t>21cecc218-6342-43a3-9173-46b5684794cb</t>
-  </si>
-  <si>
     <t>contactado</t>
   </si>
   <si>
@@ -387,6 +369,9 @@
   </si>
   <si>
     <t>Otros Modelos</t>
+  </si>
+  <si>
+    <t>NO BORRAR</t>
   </si>
 </sst>
 </file>
@@ -430,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +432,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -484,14 +475,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,1015 +1348,971 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="1" max="1" width="20" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10" style="8" customWidth="1"/>
+    <col min="12" max="15" width="20" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="8" customWidth="1"/>
+    <col min="18" max="18" width="10" style="8" customWidth="1"/>
+    <col min="19" max="26" width="8.7265625" style="8"/>
+    <col min="27" max="27" width="10.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="AA1" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5491159911742</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>21480915</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>101</v>
+      <c r="B2" s="9"/>
+      <c r="R2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>104</v>
+      <c r="B4" s="9"/>
+      <c r="AA4" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="AA5" t="s">
-        <v>40</v>
+      <c r="B5" s="9"/>
+      <c r="AA5" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="2"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="2"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="2"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="2"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="2"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="2"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="2"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="2"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="2"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="2"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="2"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="2"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="2"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="2"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="2"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="2"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="2"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="2"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="2"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="2"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="2"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="2"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="2"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="2"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="2"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="2"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="2"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="2"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="2"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="2"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="2"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="2"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="2"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="2"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="2"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="2"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="2"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="2"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="2"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="2"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="2"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="2"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="2"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="2"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="2"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="2"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="2"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="2"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="2"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="2"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="2"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="2"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="2"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="2"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="2"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="2"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="2"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="2"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="2"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="2"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="2"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="2"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="2"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="2"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="2"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="2"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="2"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137" s="2"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="2"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139" s="2"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="2"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141" s="2"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="2"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="2"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="2"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="2"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="2"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="2"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="2"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="2"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="2"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="2"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="2"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="2"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="2"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="2"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="2"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="2"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="2"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="2"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="2"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="2"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="2"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="2"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="2"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="2"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="2"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="2"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="2"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="2"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="2"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="2"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="2"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="2"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="2"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="2"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="2"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178" s="2"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179" s="2"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180" s="2"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181" s="2"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182" s="2"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183" s="2"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184" s="2"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185" s="2"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186" s="2"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187" s="2"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188" s="2"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189" s="2"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190" s="2"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191" s="2"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192" s="2"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193" s="2"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194" s="2"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195" s="2"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196" s="2"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197" s="2"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198" s="2"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199" s="2"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200" s="2"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201" s="2"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202" s="2"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203" s="2"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204" s="2"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205" s="2"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206" s="2"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207" s="2"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208" s="2"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B209" s="2"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B210" s="2"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B211" s="2"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B212" s="2"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B213" s="2"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B214" s="2"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B215" s="2"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B216" s="2"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B217" s="2"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B218" s="2"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B219" s="2"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B220" s="2"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B221" s="2"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B222" s="2"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B223" s="2"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B224" s="2"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B225" s="2"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B226" s="2"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B227" s="2"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B228" s="2"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B229" s="2"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B230" s="2"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231" s="2"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232" s="2"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233" s="2"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234" s="2"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235" s="2"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236" s="2"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237" s="2"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238" s="2"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239" s="2"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240" s="2"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241" s="2"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242" s="2"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243" s="2"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="2"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="2"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246" s="2"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247" s="2"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248" s="2"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249" s="2"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250" s="2"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251" s="2"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252" s="2"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253" s="2"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254" s="2"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255" s="2"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256" s="2"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257" s="2"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258" s="2"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259" s="2"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260" s="2"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261" s="2"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262" s="2"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263" s="2"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264" s="2"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265" s="2"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266" s="2"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267" s="2"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268" s="2"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269" s="2"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270" s="2"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271" s="2"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B272" s="2"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B273" s="2"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B274" s="2"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B275" s="2"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B276" s="2"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B277" s="2"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B278" s="2"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B279" s="2"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B280" s="2"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B281" s="2"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B282" s="2"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B283" s="2"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B284" s="2"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B285" s="2"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B286" s="2"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B287" s="2"/>
+      <c r="B287" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
       <formula1>INDIRECT(F2)</formula1>
@@ -2386,87 +2350,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2447,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2498,261 +2462,261 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>42</v>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2788,57 +2752,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2862,22 +2826,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F426D-A517-4982-BA1C-C20C6734A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6DB9C-D9F1-4C0A-AF1D-B1FD13CFCA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,7 +916,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:A17" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status"/>
   </tableColumns>
@@ -926,7 +925,6 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A11" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
   </tableColumns>
@@ -936,7 +934,6 @@
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Orígen"/>
   </tableColumns>
@@ -946,7 +943,6 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:A22" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel"/>
   </tableColumns>
@@ -956,7 +952,6 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B1:B18" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli"/>
   </tableColumns>
@@ -966,7 +961,6 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="C1:C5" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki"/>
   </tableColumns>
@@ -976,7 +970,6 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="D1:D7" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS"/>
   </tableColumns>
@@ -986,7 +979,6 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="E1:E3" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM"/>
   </tableColumns>
@@ -996,7 +988,6 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="F1:F4" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway"/>
   </tableColumns>
@@ -1006,7 +997,6 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G1:G8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="G1:G8" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" dataDxfId="7"/>
   </tableColumns>
@@ -1016,7 +1006,6 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H1:H8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="H1:H8" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" dataDxfId="3"/>
   </tableColumns>
@@ -1349,7 +1338,7 @@
   <dimension ref="A1:AG287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2323,7 +2312,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
       <formula1>INDIRECT($AA$3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M4:M201 M3" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
       <formula1>INDIRECT($AA$4)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
@@ -2339,9 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2447,7 +2434,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2741,9 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA047D9D-19AB-47C2-AB7E-C4F46EFA7C95}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2818,9 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B879536B-7A8E-409A-869D-4DE2F1AC2847}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6DB9C-D9F1-4C0A-AF1D-B1FD13CFCA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD6158-DE2F-46D1-A5BD-F2448F3315B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -483,9 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,988 +1344,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG287"/>
+  <dimension ref="A1:AA287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10" style="8" customWidth="1"/>
-    <col min="12" max="15" width="20" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="8" customWidth="1"/>
-    <col min="18" max="18" width="10" style="8" customWidth="1"/>
-    <col min="19" max="26" width="8.7265625" style="8"/>
-    <col min="27" max="27" width="10.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10" style="7" customWidth="1"/>
+    <col min="12" max="15" width="20" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="7" customWidth="1"/>
+    <col min="18" max="18" width="10" style="7" customWidth="1"/>
+    <col min="19" max="20" width="8.7265625" style="7"/>
+    <col min="21" max="21" width="10.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="V1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B2" s="8"/>
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AA3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="AA4" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="AA5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="9"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="9"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="9"/>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="9"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="9"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="9"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="9"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="9"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="9"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="9"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="9"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="9"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="9"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="9"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="9"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="9"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137" s="9"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="9"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="9"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="9"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="9"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="9"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="9"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="9"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="9"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="9"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="9"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="9"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="9"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="9"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="9"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="9"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="9"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="9"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="9"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="9"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="9"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="9"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="9"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="9"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="9"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="9"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="9"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="9"/>
+      <c r="B168" s="8"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="9"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="9"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="9"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="9"/>
+      <c r="B172" s="8"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="9"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="9"/>
+      <c r="B174" s="8"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="9"/>
+      <c r="B175" s="8"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="9"/>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="9"/>
+      <c r="B177" s="8"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178" s="9"/>
+      <c r="B178" s="8"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179" s="9"/>
+      <c r="B179" s="8"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180" s="9"/>
+      <c r="B180" s="8"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181" s="9"/>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182" s="9"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183" s="9"/>
+      <c r="B183" s="8"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184" s="9"/>
+      <c r="B184" s="8"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185" s="9"/>
+      <c r="B185" s="8"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186" s="9"/>
+      <c r="B186" s="8"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187" s="9"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188" s="9"/>
+      <c r="B188" s="8"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189" s="9"/>
+      <c r="B189" s="8"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190" s="9"/>
+      <c r="B190" s="8"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191" s="9"/>
+      <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192" s="9"/>
+      <c r="B192" s="8"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193" s="9"/>
+      <c r="B193" s="8"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194" s="9"/>
+      <c r="B194" s="8"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195" s="9"/>
+      <c r="B195" s="8"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196" s="9"/>
+      <c r="B196" s="8"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197" s="9"/>
+      <c r="B197" s="8"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198" s="9"/>
+      <c r="B198" s="8"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199" s="9"/>
+      <c r="B199" s="8"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200" s="9"/>
+      <c r="B200" s="8"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201" s="9"/>
+      <c r="B201" s="8"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202" s="9"/>
+      <c r="B202" s="8"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203" s="9"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204" s="9"/>
+      <c r="B204" s="8"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205" s="9"/>
+      <c r="B205" s="8"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206" s="9"/>
+      <c r="B206" s="8"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207" s="9"/>
+      <c r="B207" s="8"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208" s="9"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B209" s="9"/>
+      <c r="B209" s="8"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B210" s="9"/>
+      <c r="B210" s="8"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B211" s="9"/>
+      <c r="B211" s="8"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B212" s="9"/>
+      <c r="B212" s="8"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B213" s="9"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B214" s="9"/>
+      <c r="B214" s="8"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B215" s="9"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B216" s="9"/>
+      <c r="B216" s="8"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B217" s="9"/>
+      <c r="B217" s="8"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B218" s="9"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B219" s="9"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B220" s="9"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B221" s="9"/>
+      <c r="B221" s="8"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B222" s="9"/>
+      <c r="B222" s="8"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B223" s="9"/>
+      <c r="B223" s="8"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B226" s="9"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B227" s="9"/>
+      <c r="B227" s="8"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B228" s="9"/>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B229" s="9"/>
+      <c r="B229" s="8"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B230" s="9"/>
+      <c r="B230" s="8"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231" s="9"/>
+      <c r="B231" s="8"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232" s="9"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233" s="9"/>
+      <c r="B233" s="8"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234" s="9"/>
+      <c r="B234" s="8"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235" s="9"/>
+      <c r="B235" s="8"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236" s="9"/>
+      <c r="B236" s="8"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237" s="9"/>
+      <c r="B237" s="8"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238" s="9"/>
+      <c r="B238" s="8"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239" s="9"/>
+      <c r="B239" s="8"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240" s="9"/>
+      <c r="B240" s="8"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241" s="9"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242" s="9"/>
+      <c r="B242" s="8"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243" s="9"/>
+      <c r="B243" s="8"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="9"/>
+      <c r="B244" s="8"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="9"/>
+      <c r="B245" s="8"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246" s="9"/>
+      <c r="B246" s="8"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247" s="9"/>
+      <c r="B247" s="8"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248" s="9"/>
+      <c r="B248" s="8"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249" s="9"/>
+      <c r="B249" s="8"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250" s="9"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251" s="9"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252" s="9"/>
+      <c r="B252" s="8"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253" s="9"/>
+      <c r="B253" s="8"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254" s="9"/>
+      <c r="B254" s="8"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255" s="9"/>
+      <c r="B255" s="8"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256" s="9"/>
+      <c r="B256" s="8"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257" s="9"/>
+      <c r="B257" s="8"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258" s="9"/>
+      <c r="B258" s="8"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259" s="9"/>
+      <c r="B259" s="8"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260" s="9"/>
+      <c r="B260" s="8"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261" s="9"/>
+      <c r="B261" s="8"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262" s="9"/>
+      <c r="B262" s="8"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263" s="9"/>
+      <c r="B263" s="8"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264" s="9"/>
+      <c r="B264" s="8"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265" s="9"/>
+      <c r="B265" s="8"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266" s="9"/>
+      <c r="B266" s="8"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267" s="9"/>
+      <c r="B267" s="8"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268" s="9"/>
+      <c r="B268" s="8"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269" s="9"/>
+      <c r="B269" s="8"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270" s="9"/>
+      <c r="B270" s="8"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271" s="9"/>
+      <c r="B271" s="8"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B272" s="9"/>
+      <c r="B272" s="8"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B273" s="9"/>
+      <c r="B273" s="8"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B274" s="9"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B275" s="9"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B276" s="9"/>
+      <c r="B276" s="8"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B277" s="9"/>
+      <c r="B277" s="8"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B278" s="9"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B279" s="9"/>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B280" s="9"/>
+      <c r="B280" s="8"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B281" s="9"/>
+      <c r="B281" s="8"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B282" s="9"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B283" s="9"/>
+      <c r="B283" s="8"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B284" s="9"/>
+      <c r="B284" s="8"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B285" s="9"/>
+      <c r="B285" s="8"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B286" s="9"/>
+      <c r="B286" s="8"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B287" s="9"/>
+      <c r="B287" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
+      <formula1>INDIRECT("orígen")</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6CDAF01B-F445-4E94-939C-DE3C30974269}">
-      <formula1>INDIRECT($AA$2)</formula1>
+      <formula1>INDIRECT($V$1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
-      <formula1>INDIRECT($AA$3)</formula1>
+      <formula1>INDIRECT($W$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M4:M201 M3" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
-      <formula1>INDIRECT($AA$4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
-      <formula1>INDIRECT("orígen")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+      <formula1>INDIRECT($X$1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2728,7 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA047D9D-19AB-47C2-AB7E-C4F46EFA7C95}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD6158-DE2F-46D1-A5BD-F2448F3315B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB9D0F-985B-4351-A174-5C5CAFB34A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -507,6 +507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA287"/>
+  <dimension ref="A1:AA508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1445,11 +1448,15 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="H3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -1459,856 +1466,2207 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
+      <c r="H8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
+      <c r="H9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
+      <c r="H10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
+      <c r="H11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
+      <c r="H12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
+      <c r="H13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H55" s="13"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H57" s="13"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H58" s="13"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H59" s="13"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H60" s="13"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H61" s="13"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H62" s="13"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H63" s="13"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H64" s="13"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H65" s="13"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H66" s="13"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H67" s="13"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H68" s="13"/>
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H69" s="13"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H70" s="13"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H73" s="13"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H75" s="13"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H76" s="13"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H77" s="13"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H79" s="13"/>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H80" s="13"/>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H81" s="13"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H82" s="13"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H83" s="13"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H84" s="13"/>
+      <c r="K84" s="13"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H87" s="13"/>
+      <c r="K87" s="13"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H88" s="13"/>
+      <c r="K88" s="13"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H89" s="13"/>
+      <c r="K89" s="13"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H90" s="13"/>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H91" s="13"/>
+      <c r="K91" s="13"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H92" s="13"/>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H93" s="13"/>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H94" s="13"/>
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H95" s="13"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H96" s="13"/>
+      <c r="K96" s="13"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H97" s="13"/>
+      <c r="K97" s="13"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H98" s="13"/>
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H99" s="13"/>
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H100" s="13"/>
+      <c r="K100" s="13"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H101" s="13"/>
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H102" s="13"/>
+      <c r="K102" s="13"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H103" s="13"/>
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H104" s="13"/>
+      <c r="K104" s="13"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H105" s="13"/>
+      <c r="K105" s="13"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H106" s="13"/>
+      <c r="K106" s="13"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H107" s="13"/>
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H108" s="13"/>
+      <c r="K108" s="13"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H109" s="13"/>
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H110" s="13"/>
+      <c r="K110" s="13"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H111" s="13"/>
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H112" s="13"/>
+      <c r="K112" s="13"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H113" s="13"/>
+      <c r="K113" s="13"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H114" s="13"/>
+      <c r="K114" s="13"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H115" s="13"/>
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H116" s="13"/>
+      <c r="K116" s="13"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H117" s="13"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H118" s="13"/>
+      <c r="K118" s="13"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H119" s="13"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B120" s="8"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H120" s="13"/>
+      <c r="K120" s="13"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B121" s="8"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H121" s="13"/>
+      <c r="K121" s="13"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H122" s="13"/>
+      <c r="K122" s="13"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H123" s="13"/>
+      <c r="K123" s="13"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H124" s="13"/>
+      <c r="K124" s="13"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H125" s="13"/>
+      <c r="K125" s="13"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H126" s="13"/>
+      <c r="K126" s="13"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H127" s="13"/>
+      <c r="K127" s="13"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B128" s="8"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H128" s="13"/>
+      <c r="K128" s="13"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B129" s="8"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H129" s="13"/>
+      <c r="K129" s="13"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B130" s="8"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H130" s="13"/>
+      <c r="K130" s="13"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B131" s="8"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H131" s="13"/>
+      <c r="K131" s="13"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B132" s="8"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H132" s="13"/>
+      <c r="K132" s="13"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B133" s="8"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H133" s="13"/>
+      <c r="K133" s="13"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B134" s="8"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H134" s="13"/>
+      <c r="K134" s="13"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B135" s="8"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H135" s="13"/>
+      <c r="K135" s="13"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B136" s="8"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H136" s="13"/>
+      <c r="K136" s="13"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B137" s="8"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H137" s="13"/>
+      <c r="K137" s="13"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H138" s="13"/>
+      <c r="K138" s="13"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B139" s="8"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H139" s="13"/>
+      <c r="K139" s="13"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B140" s="8"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H140" s="13"/>
+      <c r="K140" s="13"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B141" s="8"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H141" s="13"/>
+      <c r="K141" s="13"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B142" s="8"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H142" s="13"/>
+      <c r="K142" s="13"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B143" s="8"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H143" s="13"/>
+      <c r="K143" s="13"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B144" s="8"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H144" s="13"/>
+      <c r="K144" s="13"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B145" s="8"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H145" s="13"/>
+      <c r="K145" s="13"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B146" s="8"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H146" s="13"/>
+      <c r="K146" s="13"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B147" s="8"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H147" s="13"/>
+      <c r="K147" s="13"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B148" s="8"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H148" s="13"/>
+      <c r="K148" s="13"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B149" s="8"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H149" s="13"/>
+      <c r="K149" s="13"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B150" s="8"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H150" s="13"/>
+      <c r="K150" s="13"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B151" s="8"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H151" s="13"/>
+      <c r="K151" s="13"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B152" s="8"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H152" s="13"/>
+      <c r="K152" s="13"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B153" s="8"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H153" s="13"/>
+      <c r="K153" s="13"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B154" s="8"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H154" s="13"/>
+      <c r="K154" s="13"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B155" s="8"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H155" s="13"/>
+      <c r="K155" s="13"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B156" s="8"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H156" s="13"/>
+      <c r="K156" s="13"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B157" s="8"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H157" s="13"/>
+      <c r="K157" s="13"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B158" s="8"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H158" s="13"/>
+      <c r="K158" s="13"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B159" s="8"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H159" s="13"/>
+      <c r="K159" s="13"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B160" s="8"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H160" s="13"/>
+      <c r="K160" s="13"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B161" s="8"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H161" s="13"/>
+      <c r="K161" s="13"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B162" s="8"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H162" s="13"/>
+      <c r="K162" s="13"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B163" s="8"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H163" s="13"/>
+      <c r="K163" s="13"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B164" s="8"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H164" s="13"/>
+      <c r="K164" s="13"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B165" s="8"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H165" s="13"/>
+      <c r="K165" s="13"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B166" s="8"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H166" s="13"/>
+      <c r="K166" s="13"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H167" s="13"/>
+      <c r="K167" s="13"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B168" s="8"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H168" s="13"/>
+      <c r="K168" s="13"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B169" s="8"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H169" s="13"/>
+      <c r="K169" s="13"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B170" s="8"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H170" s="13"/>
+      <c r="K170" s="13"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B171" s="8"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H171" s="13"/>
+      <c r="K171" s="13"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B172" s="8"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H172" s="13"/>
+      <c r="K172" s="13"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B173" s="8"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H173" s="13"/>
+      <c r="K173" s="13"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B174" s="8"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H174" s="13"/>
+      <c r="K174" s="13"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B175" s="8"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H175" s="13"/>
+      <c r="K175" s="13"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H176" s="13"/>
+      <c r="K176" s="13"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B177" s="8"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H177" s="13"/>
+      <c r="K177" s="13"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B178" s="8"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H178" s="13"/>
+      <c r="K178" s="13"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B179" s="8"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H179" s="13"/>
+      <c r="K179" s="13"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B180" s="8"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H180" s="13"/>
+      <c r="K180" s="13"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B181" s="8"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H181" s="13"/>
+      <c r="K181" s="13"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B182" s="8"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H182" s="13"/>
+      <c r="K182" s="13"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B183" s="8"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H183" s="13"/>
+      <c r="K183" s="13"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B184" s="8"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H184" s="13"/>
+      <c r="K184" s="13"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B185" s="8"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H185" s="13"/>
+      <c r="K185" s="13"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B186" s="8"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H186" s="13"/>
+      <c r="K186" s="13"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B187" s="8"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H187" s="13"/>
+      <c r="K187" s="13"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B188" s="8"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H188" s="13"/>
+      <c r="K188" s="13"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B189" s="8"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H189" s="13"/>
+      <c r="K189" s="13"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B190" s="8"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H190" s="13"/>
+      <c r="K190" s="13"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B191" s="8"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H191" s="13"/>
+      <c r="K191" s="13"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B192" s="8"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H192" s="13"/>
+      <c r="K192" s="13"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B193" s="8"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H193" s="13"/>
+      <c r="K193" s="13"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B194" s="8"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H194" s="13"/>
+      <c r="K194" s="13"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B195" s="8"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H195" s="13"/>
+      <c r="K195" s="13"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B196" s="8"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H196" s="13"/>
+      <c r="K196" s="13"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B197" s="8"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H197" s="13"/>
+      <c r="K197" s="13"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B198" s="8"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H198" s="13"/>
+      <c r="K198" s="13"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B199" s="8"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H199" s="13"/>
+      <c r="K199" s="13"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B200" s="8"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H200" s="13"/>
+      <c r="K200" s="13"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B201" s="8"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H201" s="13"/>
+      <c r="K201" s="13"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B202" s="8"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H202" s="13"/>
+      <c r="K202" s="13"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B203" s="8"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H203" s="13"/>
+      <c r="K203" s="13"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B204" s="8"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H204" s="13"/>
+      <c r="K204" s="13"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B205" s="8"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H205" s="13"/>
+      <c r="K205" s="13"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B206" s="8"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H206" s="13"/>
+      <c r="K206" s="13"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B207" s="8"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H207" s="13"/>
+      <c r="K207" s="13"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B208" s="8"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H208" s="13"/>
+      <c r="K208" s="13"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B209" s="8"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H209" s="13"/>
+      <c r="K209" s="13"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B210" s="8"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H210" s="13"/>
+      <c r="K210" s="13"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B211" s="8"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H211" s="13"/>
+      <c r="K211" s="13"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B212" s="8"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H212" s="13"/>
+      <c r="K212" s="13"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B213" s="8"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H213" s="13"/>
+      <c r="K213" s="13"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B214" s="8"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H214" s="13"/>
+      <c r="K214" s="13"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B215" s="8"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H215" s="13"/>
+      <c r="K215" s="13"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B216" s="8"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H216" s="13"/>
+      <c r="K216" s="13"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B217" s="8"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H217" s="13"/>
+      <c r="K217" s="13"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B218" s="8"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H218" s="13"/>
+      <c r="K218" s="13"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B219" s="8"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H219" s="13"/>
+      <c r="K219" s="13"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B220" s="8"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H220" s="13"/>
+      <c r="K220" s="13"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B221" s="8"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H221" s="13"/>
+      <c r="K221" s="13"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B222" s="8"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H222" s="13"/>
+      <c r="K222" s="13"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B223" s="8"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H223" s="13"/>
+      <c r="K223" s="13"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B224" s="8"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H224" s="13"/>
+      <c r="K224" s="13"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B225" s="8"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H225" s="13"/>
+      <c r="K225" s="13"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B226" s="8"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H226" s="13"/>
+      <c r="K226" s="13"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B227" s="8"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H227" s="13"/>
+      <c r="K227" s="13"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B228" s="8"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H228" s="13"/>
+      <c r="K228" s="13"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B229" s="8"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H229" s="13"/>
+      <c r="K229" s="13"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B230" s="8"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H230" s="13"/>
+      <c r="K230" s="13"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B231" s="8"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H231" s="13"/>
+      <c r="K231" s="13"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B232" s="8"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H232" s="13"/>
+      <c r="K232" s="13"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B233" s="8"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H233" s="13"/>
+      <c r="K233" s="13"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B234" s="8"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H234" s="13"/>
+      <c r="K234" s="13"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B235" s="8"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H235" s="13"/>
+      <c r="K235" s="13"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H236" s="13"/>
+      <c r="K236" s="13"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H237" s="13"/>
+      <c r="K237" s="13"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B238" s="8"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H238" s="13"/>
+      <c r="K238" s="13"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B239" s="8"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H239" s="13"/>
+      <c r="K239" s="13"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B240" s="8"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H240" s="13"/>
+      <c r="K240" s="13"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B241" s="8"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H241" s="13"/>
+      <c r="K241" s="13"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B242" s="8"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H242" s="13"/>
+      <c r="K242" s="13"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B243" s="8"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H243" s="13"/>
+      <c r="K243" s="13"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B244" s="8"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H244" s="13"/>
+      <c r="K244" s="13"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B245" s="8"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H245" s="13"/>
+      <c r="K245" s="13"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B246" s="8"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H246" s="13"/>
+      <c r="K246" s="13"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B247" s="8"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H247" s="13"/>
+      <c r="K247" s="13"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B248" s="8"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H248" s="13"/>
+      <c r="K248" s="13"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B249" s="8"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H249" s="13"/>
+      <c r="K249" s="13"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B250" s="8"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H250" s="13"/>
+      <c r="K250" s="13"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B251" s="8"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H251" s="13"/>
+      <c r="K251" s="13"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B252" s="8"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H252" s="13"/>
+      <c r="K252" s="13"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B253" s="8"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H253" s="13"/>
+      <c r="K253" s="13"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B254" s="8"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H254" s="13"/>
+      <c r="K254" s="13"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B255" s="8"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H255" s="13"/>
+      <c r="K255" s="13"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B256" s="8"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H256" s="13"/>
+      <c r="K256" s="13"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B257" s="8"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H257" s="13"/>
+      <c r="K257" s="13"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B258" s="8"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H258" s="13"/>
+      <c r="K258" s="13"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B259" s="8"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H259" s="13"/>
+      <c r="K259" s="13"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B260" s="8"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H260" s="13"/>
+      <c r="K260" s="13"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B261" s="8"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H261" s="13"/>
+      <c r="K261" s="13"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B262" s="8"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H262" s="13"/>
+      <c r="K262" s="13"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B263" s="8"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H263" s="13"/>
+      <c r="K263" s="13"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B264" s="8"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H264" s="13"/>
+      <c r="K264" s="13"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B265" s="8"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H265" s="13"/>
+      <c r="K265" s="13"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B266" s="8"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H266" s="13"/>
+      <c r="K266" s="13"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B267" s="8"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H267" s="13"/>
+      <c r="K267" s="13"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B268" s="8"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H268" s="13"/>
+      <c r="K268" s="13"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B269" s="8"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H269" s="13"/>
+      <c r="K269" s="13"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B270" s="8"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H270" s="13"/>
+      <c r="K270" s="13"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B271" s="8"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H271" s="13"/>
+      <c r="K271" s="13"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B272" s="8"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H272" s="13"/>
+      <c r="K272" s="13"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H273" s="13"/>
+      <c r="K273" s="13"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H274" s="13"/>
+      <c r="K274" s="13"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H275" s="13"/>
+      <c r="K275" s="13"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H276" s="13"/>
+      <c r="K276" s="13"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B277" s="8"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H277" s="13"/>
+      <c r="K277" s="13"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B278" s="8"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H278" s="13"/>
+      <c r="K278" s="13"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B279" s="8"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H279" s="13"/>
+      <c r="K279" s="13"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B280" s="8"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H280" s="13"/>
+      <c r="K280" s="13"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B281" s="8"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H281" s="13"/>
+      <c r="K281" s="13"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B282" s="8"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H282" s="13"/>
+      <c r="K282" s="13"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B283" s="8"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H283" s="13"/>
+      <c r="K283" s="13"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B284" s="8"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H284" s="13"/>
+      <c r="K284" s="13"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B285" s="8"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H285" s="13"/>
+      <c r="K285" s="13"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B286" s="8"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="H286" s="13"/>
+      <c r="K286" s="13"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B287" s="8"/>
+      <c r="H287" s="13"/>
+      <c r="K287" s="13"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H288" s="13"/>
+      <c r="K288" s="13"/>
+    </row>
+    <row r="289" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H289" s="13"/>
+      <c r="K289" s="13"/>
+    </row>
+    <row r="290" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H290" s="13"/>
+      <c r="K290" s="13"/>
+    </row>
+    <row r="291" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H291" s="13"/>
+      <c r="K291" s="13"/>
+    </row>
+    <row r="292" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H292" s="13"/>
+      <c r="K292" s="13"/>
+    </row>
+    <row r="293" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H293" s="13"/>
+      <c r="K293" s="13"/>
+    </row>
+    <row r="294" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H294" s="13"/>
+      <c r="K294" s="13"/>
+    </row>
+    <row r="295" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H295" s="13"/>
+      <c r="K295" s="13"/>
+    </row>
+    <row r="296" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H296" s="13"/>
+      <c r="K296" s="13"/>
+    </row>
+    <row r="297" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H297" s="13"/>
+      <c r="K297" s="13"/>
+    </row>
+    <row r="298" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H298" s="13"/>
+      <c r="K298" s="13"/>
+    </row>
+    <row r="299" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H299" s="13"/>
+      <c r="K299" s="13"/>
+    </row>
+    <row r="300" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H300" s="13"/>
+      <c r="K300" s="13"/>
+    </row>
+    <row r="301" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H301" s="13"/>
+      <c r="K301" s="13"/>
+    </row>
+    <row r="302" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H302" s="13"/>
+      <c r="K302" s="13"/>
+    </row>
+    <row r="303" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H303" s="13"/>
+      <c r="K303" s="13"/>
+    </row>
+    <row r="304" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H304" s="13"/>
+      <c r="K304" s="13"/>
+    </row>
+    <row r="305" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H305" s="13"/>
+      <c r="K305" s="13"/>
+    </row>
+    <row r="306" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H306" s="13"/>
+      <c r="K306" s="13"/>
+    </row>
+    <row r="307" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H307" s="13"/>
+      <c r="K307" s="13"/>
+    </row>
+    <row r="308" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H308" s="13"/>
+      <c r="K308" s="13"/>
+    </row>
+    <row r="309" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H309" s="13"/>
+      <c r="K309" s="13"/>
+    </row>
+    <row r="310" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H310" s="13"/>
+      <c r="K310" s="13"/>
+    </row>
+    <row r="311" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H311" s="13"/>
+      <c r="K311" s="13"/>
+    </row>
+    <row r="312" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H312" s="13"/>
+      <c r="K312" s="13"/>
+    </row>
+    <row r="313" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H313" s="13"/>
+      <c r="K313" s="13"/>
+    </row>
+    <row r="314" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H314" s="13"/>
+      <c r="K314" s="13"/>
+    </row>
+    <row r="315" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H315" s="13"/>
+      <c r="K315" s="13"/>
+    </row>
+    <row r="316" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H316" s="13"/>
+      <c r="K316" s="13"/>
+    </row>
+    <row r="317" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H317" s="13"/>
+      <c r="K317" s="13"/>
+    </row>
+    <row r="318" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H318" s="13"/>
+      <c r="K318" s="13"/>
+    </row>
+    <row r="319" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H319" s="13"/>
+      <c r="K319" s="13"/>
+    </row>
+    <row r="320" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H320" s="13"/>
+      <c r="K320" s="13"/>
+    </row>
+    <row r="321" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H321" s="13"/>
+      <c r="K321" s="13"/>
+    </row>
+    <row r="322" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H322" s="13"/>
+      <c r="K322" s="13"/>
+    </row>
+    <row r="323" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H323" s="13"/>
+      <c r="K323" s="13"/>
+    </row>
+    <row r="324" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H324" s="13"/>
+      <c r="K324" s="13"/>
+    </row>
+    <row r="325" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H325" s="13"/>
+      <c r="K325" s="13"/>
+    </row>
+    <row r="326" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H326" s="13"/>
+      <c r="K326" s="13"/>
+    </row>
+    <row r="327" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H327" s="13"/>
+      <c r="K327" s="13"/>
+    </row>
+    <row r="328" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H328" s="13"/>
+      <c r="K328" s="13"/>
+    </row>
+    <row r="329" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H329" s="13"/>
+      <c r="K329" s="13"/>
+    </row>
+    <row r="330" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H330" s="13"/>
+      <c r="K330" s="13"/>
+    </row>
+    <row r="331" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H331" s="13"/>
+      <c r="K331" s="13"/>
+    </row>
+    <row r="332" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H332" s="13"/>
+      <c r="K332" s="13"/>
+    </row>
+    <row r="333" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H333" s="13"/>
+      <c r="K333" s="13"/>
+    </row>
+    <row r="334" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H334" s="13"/>
+      <c r="K334" s="13"/>
+    </row>
+    <row r="335" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H335" s="13"/>
+      <c r="K335" s="13"/>
+    </row>
+    <row r="336" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H336" s="13"/>
+      <c r="K336" s="13"/>
+    </row>
+    <row r="337" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H337" s="13"/>
+      <c r="K337" s="13"/>
+    </row>
+    <row r="338" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H338" s="13"/>
+      <c r="K338" s="13"/>
+    </row>
+    <row r="339" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H339" s="13"/>
+      <c r="K339" s="13"/>
+    </row>
+    <row r="340" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H340" s="13"/>
+      <c r="K340" s="13"/>
+    </row>
+    <row r="341" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H341" s="13"/>
+      <c r="K341" s="13"/>
+    </row>
+    <row r="342" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H342" s="13"/>
+      <c r="K342" s="13"/>
+    </row>
+    <row r="343" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H343" s="13"/>
+      <c r="K343" s="13"/>
+    </row>
+    <row r="344" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H344" s="13"/>
+      <c r="K344" s="13"/>
+    </row>
+    <row r="345" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H345" s="13"/>
+      <c r="K345" s="13"/>
+    </row>
+    <row r="346" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H346" s="13"/>
+      <c r="K346" s="13"/>
+    </row>
+    <row r="347" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H347" s="13"/>
+      <c r="K347" s="13"/>
+    </row>
+    <row r="348" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H348" s="13"/>
+      <c r="K348" s="13"/>
+    </row>
+    <row r="349" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H349" s="13"/>
+      <c r="K349" s="13"/>
+    </row>
+    <row r="350" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H350" s="13"/>
+      <c r="K350" s="13"/>
+    </row>
+    <row r="351" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H351" s="13"/>
+      <c r="K351" s="13"/>
+    </row>
+    <row r="352" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H352" s="13"/>
+      <c r="K352" s="13"/>
+    </row>
+    <row r="353" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H353" s="13"/>
+      <c r="K353" s="13"/>
+    </row>
+    <row r="354" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H354" s="13"/>
+      <c r="K354" s="13"/>
+    </row>
+    <row r="355" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H355" s="13"/>
+      <c r="K355" s="13"/>
+    </row>
+    <row r="356" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H356" s="13"/>
+      <c r="K356" s="13"/>
+    </row>
+    <row r="357" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H357" s="13"/>
+      <c r="K357" s="13"/>
+    </row>
+    <row r="358" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H358" s="13"/>
+      <c r="K358" s="13"/>
+    </row>
+    <row r="359" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H359" s="13"/>
+      <c r="K359" s="13"/>
+    </row>
+    <row r="360" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H360" s="13"/>
+      <c r="K360" s="13"/>
+    </row>
+    <row r="361" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H361" s="13"/>
+      <c r="K361" s="13"/>
+    </row>
+    <row r="362" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H362" s="13"/>
+      <c r="K362" s="13"/>
+    </row>
+    <row r="363" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H363" s="13"/>
+      <c r="K363" s="13"/>
+    </row>
+    <row r="364" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H364" s="13"/>
+      <c r="K364" s="13"/>
+    </row>
+    <row r="365" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H365" s="13"/>
+      <c r="K365" s="13"/>
+    </row>
+    <row r="366" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H366" s="13"/>
+      <c r="K366" s="13"/>
+    </row>
+    <row r="367" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H367" s="13"/>
+      <c r="K367" s="13"/>
+    </row>
+    <row r="368" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H368" s="13"/>
+      <c r="K368" s="13"/>
+    </row>
+    <row r="369" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H369" s="13"/>
+      <c r="K369" s="13"/>
+    </row>
+    <row r="370" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H370" s="13"/>
+      <c r="K370" s="13"/>
+    </row>
+    <row r="371" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H371" s="13"/>
+      <c r="K371" s="13"/>
+    </row>
+    <row r="372" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H372" s="13"/>
+      <c r="K372" s="13"/>
+    </row>
+    <row r="373" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H373" s="13"/>
+      <c r="K373" s="13"/>
+    </row>
+    <row r="374" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H374" s="13"/>
+      <c r="K374" s="13"/>
+    </row>
+    <row r="375" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H375" s="13"/>
+      <c r="K375" s="13"/>
+    </row>
+    <row r="376" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H376" s="13"/>
+      <c r="K376" s="13"/>
+    </row>
+    <row r="377" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H377" s="13"/>
+      <c r="K377" s="13"/>
+    </row>
+    <row r="378" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H378" s="13"/>
+      <c r="K378" s="13"/>
+    </row>
+    <row r="379" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H379" s="13"/>
+      <c r="K379" s="13"/>
+    </row>
+    <row r="380" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H380" s="13"/>
+      <c r="K380" s="13"/>
+    </row>
+    <row r="381" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H381" s="13"/>
+      <c r="K381" s="13"/>
+    </row>
+    <row r="382" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H382" s="13"/>
+      <c r="K382" s="13"/>
+    </row>
+    <row r="383" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H383" s="13"/>
+      <c r="K383" s="13"/>
+    </row>
+    <row r="384" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H384" s="13"/>
+      <c r="K384" s="13"/>
+    </row>
+    <row r="385" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H385" s="13"/>
+      <c r="K385" s="13"/>
+    </row>
+    <row r="386" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H386" s="13"/>
+      <c r="K386" s="13"/>
+    </row>
+    <row r="387" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H387" s="13"/>
+      <c r="K387" s="13"/>
+    </row>
+    <row r="388" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H388" s="13"/>
+      <c r="K388" s="13"/>
+    </row>
+    <row r="389" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H389" s="13"/>
+      <c r="K389" s="13"/>
+    </row>
+    <row r="390" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H390" s="13"/>
+      <c r="K390" s="13"/>
+    </row>
+    <row r="391" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H391" s="13"/>
+      <c r="K391" s="13"/>
+    </row>
+    <row r="392" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H392" s="13"/>
+      <c r="K392" s="13"/>
+    </row>
+    <row r="393" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H393" s="13"/>
+      <c r="K393" s="13"/>
+    </row>
+    <row r="394" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H394" s="13"/>
+      <c r="K394" s="13"/>
+    </row>
+    <row r="395" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H395" s="13"/>
+      <c r="K395" s="13"/>
+    </row>
+    <row r="396" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H396" s="13"/>
+      <c r="K396" s="13"/>
+    </row>
+    <row r="397" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H397" s="13"/>
+      <c r="K397" s="13"/>
+    </row>
+    <row r="398" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H398" s="13"/>
+      <c r="K398" s="13"/>
+    </row>
+    <row r="399" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H399" s="13"/>
+      <c r="K399" s="13"/>
+    </row>
+    <row r="400" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H400" s="13"/>
+      <c r="K400" s="13"/>
+    </row>
+    <row r="401" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H401" s="13"/>
+      <c r="K401" s="13"/>
+    </row>
+    <row r="402" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H402" s="13"/>
+      <c r="K402" s="13"/>
+    </row>
+    <row r="403" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H403" s="13"/>
+      <c r="K403" s="13"/>
+    </row>
+    <row r="404" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H404" s="13"/>
+      <c r="K404" s="13"/>
+    </row>
+    <row r="405" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H405" s="13"/>
+      <c r="K405" s="13"/>
+    </row>
+    <row r="406" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H406" s="13"/>
+      <c r="K406" s="13"/>
+    </row>
+    <row r="407" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H407" s="13"/>
+      <c r="K407" s="13"/>
+    </row>
+    <row r="408" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H408" s="13"/>
+    </row>
+    <row r="409" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H409" s="13"/>
+    </row>
+    <row r="410" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H410" s="13"/>
+    </row>
+    <row r="411" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H411" s="13"/>
+    </row>
+    <row r="412" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H412" s="13"/>
+    </row>
+    <row r="413" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H413" s="13"/>
+    </row>
+    <row r="414" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H414" s="13"/>
+    </row>
+    <row r="415" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H415" s="13"/>
+    </row>
+    <row r="416" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H416" s="13"/>
+    </row>
+    <row r="417" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H417" s="13"/>
+    </row>
+    <row r="418" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H418" s="13"/>
+    </row>
+    <row r="419" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H419" s="13"/>
+    </row>
+    <row r="420" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H420" s="13"/>
+    </row>
+    <row r="421" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H421" s="13"/>
+    </row>
+    <row r="422" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H422" s="13"/>
+    </row>
+    <row r="423" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H423" s="13"/>
+    </row>
+    <row r="424" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H424" s="13"/>
+    </row>
+    <row r="425" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H425" s="13"/>
+    </row>
+    <row r="426" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H426" s="13"/>
+    </row>
+    <row r="427" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H427" s="13"/>
+    </row>
+    <row r="428" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H428" s="13"/>
+    </row>
+    <row r="429" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H429" s="13"/>
+    </row>
+    <row r="430" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H430" s="13"/>
+    </row>
+    <row r="431" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H431" s="13"/>
+    </row>
+    <row r="432" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H432" s="13"/>
+    </row>
+    <row r="433" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H433" s="13"/>
+    </row>
+    <row r="434" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H434" s="13"/>
+    </row>
+    <row r="435" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H435" s="13"/>
+    </row>
+    <row r="436" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H436" s="13"/>
+    </row>
+    <row r="437" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H437" s="13"/>
+    </row>
+    <row r="438" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H438" s="13"/>
+    </row>
+    <row r="439" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H439" s="13"/>
+    </row>
+    <row r="440" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H440" s="13"/>
+    </row>
+    <row r="441" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H441" s="13"/>
+    </row>
+    <row r="442" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H442" s="13"/>
+    </row>
+    <row r="443" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H443" s="13"/>
+    </row>
+    <row r="444" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H444" s="13"/>
+    </row>
+    <row r="445" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H445" s="13"/>
+    </row>
+    <row r="446" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H446" s="13"/>
+    </row>
+    <row r="447" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H447" s="13"/>
+    </row>
+    <row r="448" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H448" s="13"/>
+    </row>
+    <row r="449" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H449" s="13"/>
+    </row>
+    <row r="450" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H450" s="13"/>
+    </row>
+    <row r="451" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H451" s="13"/>
+    </row>
+    <row r="452" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H452" s="13"/>
+    </row>
+    <row r="453" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H453" s="13"/>
+    </row>
+    <row r="454" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H454" s="13"/>
+    </row>
+    <row r="455" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H455" s="13"/>
+    </row>
+    <row r="456" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H456" s="13"/>
+    </row>
+    <row r="457" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H457" s="13"/>
+    </row>
+    <row r="458" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H458" s="13"/>
+    </row>
+    <row r="459" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H459" s="13"/>
+    </row>
+    <row r="460" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H460" s="13"/>
+    </row>
+    <row r="461" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H461" s="13"/>
+    </row>
+    <row r="462" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H462" s="13"/>
+    </row>
+    <row r="463" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H463" s="13"/>
+    </row>
+    <row r="464" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H464" s="13"/>
+    </row>
+    <row r="465" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H465" s="13"/>
+    </row>
+    <row r="466" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H466" s="13"/>
+    </row>
+    <row r="467" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H467" s="13"/>
+    </row>
+    <row r="468" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H468" s="13"/>
+    </row>
+    <row r="469" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H469" s="13"/>
+    </row>
+    <row r="470" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H470" s="13"/>
+    </row>
+    <row r="471" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H471" s="13"/>
+    </row>
+    <row r="472" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H472" s="13"/>
+    </row>
+    <row r="473" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H473" s="13"/>
+    </row>
+    <row r="474" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H474" s="13"/>
+    </row>
+    <row r="475" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H475" s="13"/>
+    </row>
+    <row r="476" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H476" s="13"/>
+    </row>
+    <row r="477" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H477" s="13"/>
+    </row>
+    <row r="478" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H478" s="13"/>
+    </row>
+    <row r="479" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H479" s="13"/>
+    </row>
+    <row r="480" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H480" s="13"/>
+    </row>
+    <row r="481" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H481" s="13"/>
+    </row>
+    <row r="482" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H482" s="13"/>
+    </row>
+    <row r="483" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H483" s="13"/>
+    </row>
+    <row r="484" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H484" s="13"/>
+    </row>
+    <row r="485" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H485" s="13"/>
+    </row>
+    <row r="486" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H486" s="13"/>
+    </row>
+    <row r="487" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H487" s="13"/>
+    </row>
+    <row r="488" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H488" s="13"/>
+    </row>
+    <row r="489" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H489" s="13"/>
+    </row>
+    <row r="490" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H490" s="13"/>
+    </row>
+    <row r="491" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H491" s="13"/>
+    </row>
+    <row r="492" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H492" s="13"/>
+    </row>
+    <row r="493" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H493" s="13"/>
+    </row>
+    <row r="494" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H494" s="13"/>
+    </row>
+    <row r="495" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H495" s="13"/>
+    </row>
+    <row r="496" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H496" s="13"/>
+    </row>
+    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H497" s="13"/>
+    </row>
+    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H498" s="13"/>
+    </row>
+    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H499" s="13"/>
+    </row>
+    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H500" s="13"/>
+    </row>
+    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H501" s="13"/>
+    </row>
+    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H502" s="13"/>
+    </row>
+    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H503" s="13"/>
+    </row>
+    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H504" s="13"/>
+    </row>
+    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H505" s="13"/>
+    </row>
+    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H506" s="13"/>
+    </row>
+    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H507" s="13"/>
+    </row>
+    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H508" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="5">

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB9D0F-985B-4351-A174-5C5CAFB34A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418535F-A855-4D3F-B15E-901ABE0E5707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>GN125</t>
   </si>
   <si>
-    <t>contactado</t>
-  </si>
-  <si>
     <t>enviado</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>NO BORRAR</t>
+  </si>
+  <si>
+    <t>primer contacto</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>8</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>10</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>13</v>
@@ -1431,19 +1431,19 @@
         <v>14</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -3695,7 +3695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3704,57 +3706,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
@@ -3764,27 +3766,27 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3816,25 +3818,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -3842,71 +3844,71 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -3915,162 +3917,162 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4106,57 +4108,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4178,22 +4180,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418535F-A855-4D3F-B15E-901ABE0E5707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F5315-6DE5-4399-94D7-907CFD49AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>Nombre</t>
   </si>
@@ -329,15 +329,6 @@
     <t>Vendedores</t>
   </si>
   <si>
-    <t>vendedor5</t>
-  </si>
-  <si>
-    <t>vendedor6</t>
-  </si>
-  <si>
-    <t>vendedor7</t>
-  </si>
-  <si>
     <t>vendedor8</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>Gustavo_Glunz</t>
   </si>
   <si>
-    <t>Gustavo_G.Villafane</t>
-  </si>
-  <si>
     <t>API General</t>
   </si>
   <si>
@@ -372,6 +360,21 @@
   </si>
   <si>
     <t>primer contacto</t>
+  </si>
+  <si>
+    <t>Gustavo_GV</t>
+  </si>
+  <si>
+    <t>Darío</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>CAMPOS MODIFICABLES</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,6 +513,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,6 +943,9 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
   </tableColumns>
@@ -1349,15 +1358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA508"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" style="7" customWidth="1"/>
     <col min="4" max="4" width="20" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" customWidth="1"/>
@@ -1401,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>8</v>
@@ -1410,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>10</v>
@@ -1431,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="V1" s="12" t="s">
         <v>94</v>
@@ -1453,6 +1462,11 @@
       <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="U2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="H3" s="13"/>
@@ -3695,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3711,7 +3725,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -4098,7 +4112,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4113,52 +4127,52 @@
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4185,17 +4199,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F5315-6DE5-4399-94D7-907CFD49AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B887F4-A8B9-4404-AEAA-2E157B299BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,12 +1359,12 @@
   <dimension ref="A1:AA508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" style="7" customWidth="1"/>
     <col min="4" max="4" width="20" style="7" customWidth="1"/>
@@ -1379,7 +1379,8 @@
     <col min="16" max="16" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" style="7" customWidth="1"/>
     <col min="18" max="18" width="10" style="7" customWidth="1"/>
-    <col min="19" max="20" width="8.7265625" style="7"/>
+    <col min="19" max="19" width="6.54296875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="21.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.7265625" style="7"/>
   </cols>
@@ -1439,6 +1440,9 @@
       <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="T1" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="U1" s="11" t="s">
         <v>107</v>
       </c>
@@ -1462,11 +1466,6 @@
       <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="H3" s="13"/>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B887F4-A8B9-4404-AEAA-2E157B299BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735C716-1032-4B34-868A-70C97E9BCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,8 +1377,8 @@
     <col min="11" max="11" width="10" style="7" customWidth="1"/>
     <col min="12" max="15" width="20" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="7" customWidth="1"/>
-    <col min="18" max="18" width="10" style="7" customWidth="1"/>
+    <col min="17" max="17" width="30.08984375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" style="7" customWidth="1"/>
     <col min="19" max="19" width="6.54296875" style="7" customWidth="1"/>
     <col min="20" max="20" width="21.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.90625" style="7" bestFit="1" customWidth="1"/>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735C716-1032-4B34-868A-70C97E9BCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23065E1E-334C-4428-8D7A-10FE1088E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>Nombre</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>CAMPOS MODIFICABLES</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A1:A4" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Orígen"/>
+    <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1359,7 +1362,7 @@
   <dimension ref="A1:AA508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4110,9 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA047D9D-19AB-47C2-AB7E-C4F46EFA7C95}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4193,7 +4194,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23065E1E-334C-4428-8D7A-10FE1088E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22957501-AA1F-4E5B-A53F-CC3A79149675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Nombre</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>CAMPOS MODIFICABLES</t>
-  </si>
-  <si>
-    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -421,18 +418,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -487,13 +478,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -506,26 +496,218 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -936,28 +1118,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A1:A17" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A1:A11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="9" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A1:A4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A2:A4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Columna1"/>
   </tableColumns>
@@ -966,72 +1148,72 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A1:A22" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel"/>
+    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B1:B18" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli"/>
+    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C1:C5" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki"/>
+    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D1:D7" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS"/>
+    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E1:E3" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM"/>
+    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F1:F4" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway"/>
+    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G1:G8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="7" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H1:H8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H2:H8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="8" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,2327 +1544,2327 @@
   <dimension ref="A1:AA508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10" style="7" customWidth="1"/>
-    <col min="12" max="15" width="20" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.08984375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="20.81640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="6.54296875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="21.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="20.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="15" width="20" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.08984375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="R2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="H2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="R2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="H3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="H3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="H4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="H5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="H6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="U6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="H6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="H7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="H7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="H8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="H8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="H9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="H9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="H10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="H10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="H11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="H11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="H12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="H12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="H13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="H13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="H14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="H14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="H15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="H16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="H16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="H17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="H17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="H18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="H18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="H19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="H19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="H20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="H20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="H21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="H21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="H22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="H22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="H23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="H23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
-      <c r="H24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="H24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="H25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="H25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="H26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="H26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="H27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="H27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="8"/>
-      <c r="H28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="H28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="H29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="H29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="H30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="H30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="H31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="H31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="H32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="H32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="H33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="B33" s="7"/>
+      <c r="H33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="H34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="B34" s="7"/>
+      <c r="H34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="H35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="B35" s="7"/>
+      <c r="H35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="H36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="B36" s="7"/>
+      <c r="H36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="H37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="B37" s="7"/>
+      <c r="H37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="H38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="B38" s="7"/>
+      <c r="H38" s="12"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="H39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="B39" s="7"/>
+      <c r="H39" s="12"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="H40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="B40" s="7"/>
+      <c r="H40" s="12"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="H41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="B41" s="7"/>
+      <c r="H41" s="12"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="H42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="B42" s="7"/>
+      <c r="H42" s="12"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="H43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="B43" s="7"/>
+      <c r="H43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="H44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="B44" s="7"/>
+      <c r="H44" s="12"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="H45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="B45" s="7"/>
+      <c r="H45" s="12"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="H46" s="13"/>
-      <c r="K46" s="13"/>
+      <c r="B46" s="7"/>
+      <c r="H46" s="12"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="H47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="B47" s="7"/>
+      <c r="H47" s="12"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="H48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="B48" s="7"/>
+      <c r="H48" s="12"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="H49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="H49" s="12"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="H50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="H50" s="12"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
-      <c r="H51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="H51" s="12"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
-      <c r="H52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="B52" s="7"/>
+      <c r="H52" s="12"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="8"/>
-      <c r="H53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="B53" s="7"/>
+      <c r="H53" s="12"/>
+      <c r="K53" s="12"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="8"/>
-      <c r="H54" s="13"/>
-      <c r="K54" s="13"/>
+      <c r="B54" s="7"/>
+      <c r="H54" s="12"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="8"/>
-      <c r="H55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="B55" s="7"/>
+      <c r="H55" s="12"/>
+      <c r="K55" s="12"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="8"/>
-      <c r="H56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="B56" s="7"/>
+      <c r="H56" s="12"/>
+      <c r="K56" s="12"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="8"/>
-      <c r="H57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="B57" s="7"/>
+      <c r="H57" s="12"/>
+      <c r="K57" s="12"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="8"/>
-      <c r="H58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="B58" s="7"/>
+      <c r="H58" s="12"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="8"/>
-      <c r="H59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="B59" s="7"/>
+      <c r="H59" s="12"/>
+      <c r="K59" s="12"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="8"/>
-      <c r="H60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="B60" s="7"/>
+      <c r="H60" s="12"/>
+      <c r="K60" s="12"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="8"/>
-      <c r="H61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="B61" s="7"/>
+      <c r="H61" s="12"/>
+      <c r="K61" s="12"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="8"/>
-      <c r="H62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="B62" s="7"/>
+      <c r="H62" s="12"/>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="8"/>
-      <c r="H63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="B63" s="7"/>
+      <c r="H63" s="12"/>
+      <c r="K63" s="12"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="8"/>
-      <c r="H64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="B64" s="7"/>
+      <c r="H64" s="12"/>
+      <c r="K64" s="12"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="8"/>
-      <c r="H65" s="13"/>
-      <c r="K65" s="13"/>
+      <c r="B65" s="7"/>
+      <c r="H65" s="12"/>
+      <c r="K65" s="12"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="8"/>
-      <c r="H66" s="13"/>
-      <c r="K66" s="13"/>
+      <c r="B66" s="7"/>
+      <c r="H66" s="12"/>
+      <c r="K66" s="12"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="8"/>
-      <c r="H67" s="13"/>
-      <c r="K67" s="13"/>
+      <c r="B67" s="7"/>
+      <c r="H67" s="12"/>
+      <c r="K67" s="12"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B68" s="8"/>
-      <c r="H68" s="13"/>
-      <c r="K68" s="13"/>
+      <c r="B68" s="7"/>
+      <c r="H68" s="12"/>
+      <c r="K68" s="12"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="8"/>
-      <c r="H69" s="13"/>
-      <c r="K69" s="13"/>
+      <c r="B69" s="7"/>
+      <c r="H69" s="12"/>
+      <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="8"/>
-      <c r="H70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="B70" s="7"/>
+      <c r="H70" s="12"/>
+      <c r="K70" s="12"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="8"/>
-      <c r="H71" s="13"/>
-      <c r="K71" s="13"/>
+      <c r="B71" s="7"/>
+      <c r="H71" s="12"/>
+      <c r="K71" s="12"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="8"/>
-      <c r="H72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="B72" s="7"/>
+      <c r="H72" s="12"/>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="8"/>
-      <c r="H73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="B73" s="7"/>
+      <c r="H73" s="12"/>
+      <c r="K73" s="12"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="8"/>
-      <c r="H74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="B74" s="7"/>
+      <c r="H74" s="12"/>
+      <c r="K74" s="12"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="8"/>
-      <c r="H75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="B75" s="7"/>
+      <c r="H75" s="12"/>
+      <c r="K75" s="12"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B76" s="8"/>
-      <c r="H76" s="13"/>
-      <c r="K76" s="13"/>
+      <c r="B76" s="7"/>
+      <c r="H76" s="12"/>
+      <c r="K76" s="12"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B77" s="8"/>
-      <c r="H77" s="13"/>
-      <c r="K77" s="13"/>
+      <c r="B77" s="7"/>
+      <c r="H77" s="12"/>
+      <c r="K77" s="12"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B78" s="8"/>
-      <c r="H78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="B78" s="7"/>
+      <c r="H78" s="12"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="8"/>
-      <c r="H79" s="13"/>
-      <c r="K79" s="13"/>
+      <c r="B79" s="7"/>
+      <c r="H79" s="12"/>
+      <c r="K79" s="12"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="8"/>
-      <c r="H80" s="13"/>
-      <c r="K80" s="13"/>
+      <c r="B80" s="7"/>
+      <c r="H80" s="12"/>
+      <c r="K80" s="12"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="8"/>
-      <c r="H81" s="13"/>
-      <c r="K81" s="13"/>
+      <c r="B81" s="7"/>
+      <c r="H81" s="12"/>
+      <c r="K81" s="12"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="8"/>
-      <c r="H82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="B82" s="7"/>
+      <c r="H82" s="12"/>
+      <c r="K82" s="12"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B83" s="8"/>
-      <c r="H83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="B83" s="7"/>
+      <c r="H83" s="12"/>
+      <c r="K83" s="12"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B84" s="8"/>
-      <c r="H84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="B84" s="7"/>
+      <c r="H84" s="12"/>
+      <c r="K84" s="12"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B85" s="8"/>
-      <c r="H85" s="13"/>
-      <c r="K85" s="13"/>
+      <c r="B85" s="7"/>
+      <c r="H85" s="12"/>
+      <c r="K85" s="12"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" s="8"/>
-      <c r="H86" s="13"/>
-      <c r="K86" s="13"/>
+      <c r="B86" s="7"/>
+      <c r="H86" s="12"/>
+      <c r="K86" s="12"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" s="8"/>
-      <c r="H87" s="13"/>
-      <c r="K87" s="13"/>
+      <c r="B87" s="7"/>
+      <c r="H87" s="12"/>
+      <c r="K87" s="12"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" s="8"/>
-      <c r="H88" s="13"/>
-      <c r="K88" s="13"/>
+      <c r="B88" s="7"/>
+      <c r="H88" s="12"/>
+      <c r="K88" s="12"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" s="8"/>
-      <c r="H89" s="13"/>
-      <c r="K89" s="13"/>
+      <c r="B89" s="7"/>
+      <c r="H89" s="12"/>
+      <c r="K89" s="12"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="8"/>
-      <c r="H90" s="13"/>
-      <c r="K90" s="13"/>
+      <c r="B90" s="7"/>
+      <c r="H90" s="12"/>
+      <c r="K90" s="12"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" s="8"/>
-      <c r="H91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="B91" s="7"/>
+      <c r="H91" s="12"/>
+      <c r="K91" s="12"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B92" s="8"/>
-      <c r="H92" s="13"/>
-      <c r="K92" s="13"/>
+      <c r="B92" s="7"/>
+      <c r="H92" s="12"/>
+      <c r="K92" s="12"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B93" s="8"/>
-      <c r="H93" s="13"/>
-      <c r="K93" s="13"/>
+      <c r="B93" s="7"/>
+      <c r="H93" s="12"/>
+      <c r="K93" s="12"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B94" s="8"/>
-      <c r="H94" s="13"/>
-      <c r="K94" s="13"/>
+      <c r="B94" s="7"/>
+      <c r="H94" s="12"/>
+      <c r="K94" s="12"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" s="8"/>
-      <c r="H95" s="13"/>
-      <c r="K95" s="13"/>
+      <c r="B95" s="7"/>
+      <c r="H95" s="12"/>
+      <c r="K95" s="12"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B96" s="8"/>
-      <c r="H96" s="13"/>
-      <c r="K96" s="13"/>
+      <c r="B96" s="7"/>
+      <c r="H96" s="12"/>
+      <c r="K96" s="12"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B97" s="8"/>
-      <c r="H97" s="13"/>
-      <c r="K97" s="13"/>
+      <c r="B97" s="7"/>
+      <c r="H97" s="12"/>
+      <c r="K97" s="12"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B98" s="8"/>
-      <c r="H98" s="13"/>
-      <c r="K98" s="13"/>
+      <c r="B98" s="7"/>
+      <c r="H98" s="12"/>
+      <c r="K98" s="12"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B99" s="8"/>
-      <c r="H99" s="13"/>
-      <c r="K99" s="13"/>
+      <c r="B99" s="7"/>
+      <c r="H99" s="12"/>
+      <c r="K99" s="12"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B100" s="8"/>
-      <c r="H100" s="13"/>
-      <c r="K100" s="13"/>
+      <c r="B100" s="7"/>
+      <c r="H100" s="12"/>
+      <c r="K100" s="12"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B101" s="8"/>
-      <c r="H101" s="13"/>
-      <c r="K101" s="13"/>
+      <c r="B101" s="7"/>
+      <c r="H101" s="12"/>
+      <c r="K101" s="12"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B102" s="8"/>
-      <c r="H102" s="13"/>
-      <c r="K102" s="13"/>
+      <c r="B102" s="7"/>
+      <c r="H102" s="12"/>
+      <c r="K102" s="12"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B103" s="8"/>
-      <c r="H103" s="13"/>
-      <c r="K103" s="13"/>
+      <c r="B103" s="7"/>
+      <c r="H103" s="12"/>
+      <c r="K103" s="12"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B104" s="8"/>
-      <c r="H104" s="13"/>
-      <c r="K104" s="13"/>
+      <c r="B104" s="7"/>
+      <c r="H104" s="12"/>
+      <c r="K104" s="12"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B105" s="8"/>
-      <c r="H105" s="13"/>
-      <c r="K105" s="13"/>
+      <c r="B105" s="7"/>
+      <c r="H105" s="12"/>
+      <c r="K105" s="12"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="8"/>
-      <c r="H106" s="13"/>
-      <c r="K106" s="13"/>
+      <c r="B106" s="7"/>
+      <c r="H106" s="12"/>
+      <c r="K106" s="12"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="8"/>
-      <c r="H107" s="13"/>
-      <c r="K107" s="13"/>
+      <c r="B107" s="7"/>
+      <c r="H107" s="12"/>
+      <c r="K107" s="12"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B108" s="8"/>
-      <c r="H108" s="13"/>
-      <c r="K108" s="13"/>
+      <c r="B108" s="7"/>
+      <c r="H108" s="12"/>
+      <c r="K108" s="12"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="8"/>
-      <c r="H109" s="13"/>
-      <c r="K109" s="13"/>
+      <c r="B109" s="7"/>
+      <c r="H109" s="12"/>
+      <c r="K109" s="12"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="8"/>
-      <c r="H110" s="13"/>
-      <c r="K110" s="13"/>
+      <c r="B110" s="7"/>
+      <c r="H110" s="12"/>
+      <c r="K110" s="12"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="8"/>
-      <c r="H111" s="13"/>
-      <c r="K111" s="13"/>
+      <c r="B111" s="7"/>
+      <c r="H111" s="12"/>
+      <c r="K111" s="12"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="8"/>
-      <c r="H112" s="13"/>
-      <c r="K112" s="13"/>
+      <c r="B112" s="7"/>
+      <c r="H112" s="12"/>
+      <c r="K112" s="12"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="8"/>
-      <c r="H113" s="13"/>
-      <c r="K113" s="13"/>
+      <c r="B113" s="7"/>
+      <c r="H113" s="12"/>
+      <c r="K113" s="12"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="8"/>
-      <c r="H114" s="13"/>
-      <c r="K114" s="13"/>
+      <c r="B114" s="7"/>
+      <c r="H114" s="12"/>
+      <c r="K114" s="12"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="8"/>
-      <c r="H115" s="13"/>
-      <c r="K115" s="13"/>
+      <c r="B115" s="7"/>
+      <c r="H115" s="12"/>
+      <c r="K115" s="12"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B116" s="8"/>
-      <c r="H116" s="13"/>
-      <c r="K116" s="13"/>
+      <c r="B116" s="7"/>
+      <c r="H116" s="12"/>
+      <c r="K116" s="12"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B117" s="8"/>
-      <c r="H117" s="13"/>
-      <c r="K117" s="13"/>
+      <c r="B117" s="7"/>
+      <c r="H117" s="12"/>
+      <c r="K117" s="12"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="8"/>
-      <c r="H118" s="13"/>
-      <c r="K118" s="13"/>
+      <c r="B118" s="7"/>
+      <c r="H118" s="12"/>
+      <c r="K118" s="12"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="8"/>
-      <c r="H119" s="13"/>
-      <c r="K119" s="13"/>
+      <c r="B119" s="7"/>
+      <c r="H119" s="12"/>
+      <c r="K119" s="12"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="8"/>
-      <c r="H120" s="13"/>
-      <c r="K120" s="13"/>
+      <c r="B120" s="7"/>
+      <c r="H120" s="12"/>
+      <c r="K120" s="12"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B121" s="8"/>
-      <c r="H121" s="13"/>
-      <c r="K121" s="13"/>
+      <c r="B121" s="7"/>
+      <c r="H121" s="12"/>
+      <c r="K121" s="12"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B122" s="8"/>
-      <c r="H122" s="13"/>
-      <c r="K122" s="13"/>
+      <c r="B122" s="7"/>
+      <c r="H122" s="12"/>
+      <c r="K122" s="12"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="8"/>
-      <c r="H123" s="13"/>
-      <c r="K123" s="13"/>
+      <c r="B123" s="7"/>
+      <c r="H123" s="12"/>
+      <c r="K123" s="12"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="8"/>
-      <c r="H124" s="13"/>
-      <c r="K124" s="13"/>
+      <c r="B124" s="7"/>
+      <c r="H124" s="12"/>
+      <c r="K124" s="12"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="8"/>
-      <c r="H125" s="13"/>
-      <c r="K125" s="13"/>
+      <c r="B125" s="7"/>
+      <c r="H125" s="12"/>
+      <c r="K125" s="12"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="8"/>
-      <c r="H126" s="13"/>
-      <c r="K126" s="13"/>
+      <c r="B126" s="7"/>
+      <c r="H126" s="12"/>
+      <c r="K126" s="12"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="8"/>
-      <c r="H127" s="13"/>
-      <c r="K127" s="13"/>
+      <c r="B127" s="7"/>
+      <c r="H127" s="12"/>
+      <c r="K127" s="12"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="8"/>
-      <c r="H128" s="13"/>
-      <c r="K128" s="13"/>
+      <c r="B128" s="7"/>
+      <c r="H128" s="12"/>
+      <c r="K128" s="12"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="8"/>
-      <c r="H129" s="13"/>
-      <c r="K129" s="13"/>
+      <c r="B129" s="7"/>
+      <c r="H129" s="12"/>
+      <c r="K129" s="12"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="8"/>
-      <c r="H130" s="13"/>
-      <c r="K130" s="13"/>
+      <c r="B130" s="7"/>
+      <c r="H130" s="12"/>
+      <c r="K130" s="12"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="8"/>
-      <c r="H131" s="13"/>
-      <c r="K131" s="13"/>
+      <c r="B131" s="7"/>
+      <c r="H131" s="12"/>
+      <c r="K131" s="12"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="8"/>
-      <c r="H132" s="13"/>
-      <c r="K132" s="13"/>
+      <c r="B132" s="7"/>
+      <c r="H132" s="12"/>
+      <c r="K132" s="12"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="8"/>
-      <c r="H133" s="13"/>
-      <c r="K133" s="13"/>
+      <c r="B133" s="7"/>
+      <c r="H133" s="12"/>
+      <c r="K133" s="12"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="8"/>
-      <c r="H134" s="13"/>
-      <c r="K134" s="13"/>
+      <c r="B134" s="7"/>
+      <c r="H134" s="12"/>
+      <c r="K134" s="12"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="8"/>
-      <c r="H135" s="13"/>
-      <c r="K135" s="13"/>
+      <c r="B135" s="7"/>
+      <c r="H135" s="12"/>
+      <c r="K135" s="12"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="8"/>
-      <c r="H136" s="13"/>
-      <c r="K136" s="13"/>
+      <c r="B136" s="7"/>
+      <c r="H136" s="12"/>
+      <c r="K136" s="12"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="8"/>
-      <c r="H137" s="13"/>
-      <c r="K137" s="13"/>
+      <c r="B137" s="7"/>
+      <c r="H137" s="12"/>
+      <c r="K137" s="12"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="8"/>
-      <c r="H138" s="13"/>
-      <c r="K138" s="13"/>
+      <c r="B138" s="7"/>
+      <c r="H138" s="12"/>
+      <c r="K138" s="12"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="8"/>
-      <c r="H139" s="13"/>
-      <c r="K139" s="13"/>
+      <c r="B139" s="7"/>
+      <c r="H139" s="12"/>
+      <c r="K139" s="12"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="8"/>
-      <c r="H140" s="13"/>
-      <c r="K140" s="13"/>
+      <c r="B140" s="7"/>
+      <c r="H140" s="12"/>
+      <c r="K140" s="12"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B141" s="8"/>
-      <c r="H141" s="13"/>
-      <c r="K141" s="13"/>
+      <c r="B141" s="7"/>
+      <c r="H141" s="12"/>
+      <c r="K141" s="12"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B142" s="8"/>
-      <c r="H142" s="13"/>
-      <c r="K142" s="13"/>
+      <c r="B142" s="7"/>
+      <c r="H142" s="12"/>
+      <c r="K142" s="12"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B143" s="8"/>
-      <c r="H143" s="13"/>
-      <c r="K143" s="13"/>
+      <c r="B143" s="7"/>
+      <c r="H143" s="12"/>
+      <c r="K143" s="12"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B144" s="8"/>
-      <c r="H144" s="13"/>
-      <c r="K144" s="13"/>
+      <c r="B144" s="7"/>
+      <c r="H144" s="12"/>
+      <c r="K144" s="12"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B145" s="8"/>
-      <c r="H145" s="13"/>
-      <c r="K145" s="13"/>
+      <c r="B145" s="7"/>
+      <c r="H145" s="12"/>
+      <c r="K145" s="12"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B146" s="8"/>
-      <c r="H146" s="13"/>
-      <c r="K146" s="13"/>
+      <c r="B146" s="7"/>
+      <c r="H146" s="12"/>
+      <c r="K146" s="12"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B147" s="8"/>
-      <c r="H147" s="13"/>
-      <c r="K147" s="13"/>
+      <c r="B147" s="7"/>
+      <c r="H147" s="12"/>
+      <c r="K147" s="12"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B148" s="8"/>
-      <c r="H148" s="13"/>
-      <c r="K148" s="13"/>
+      <c r="B148" s="7"/>
+      <c r="H148" s="12"/>
+      <c r="K148" s="12"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B149" s="8"/>
-      <c r="H149" s="13"/>
-      <c r="K149" s="13"/>
+      <c r="B149" s="7"/>
+      <c r="H149" s="12"/>
+      <c r="K149" s="12"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B150" s="8"/>
-      <c r="H150" s="13"/>
-      <c r="K150" s="13"/>
+      <c r="B150" s="7"/>
+      <c r="H150" s="12"/>
+      <c r="K150" s="12"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B151" s="8"/>
-      <c r="H151" s="13"/>
-      <c r="K151" s="13"/>
+      <c r="B151" s="7"/>
+      <c r="H151" s="12"/>
+      <c r="K151" s="12"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B152" s="8"/>
-      <c r="H152" s="13"/>
-      <c r="K152" s="13"/>
+      <c r="B152" s="7"/>
+      <c r="H152" s="12"/>
+      <c r="K152" s="12"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B153" s="8"/>
-      <c r="H153" s="13"/>
-      <c r="K153" s="13"/>
+      <c r="B153" s="7"/>
+      <c r="H153" s="12"/>
+      <c r="K153" s="12"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B154" s="8"/>
-      <c r="H154" s="13"/>
-      <c r="K154" s="13"/>
+      <c r="B154" s="7"/>
+      <c r="H154" s="12"/>
+      <c r="K154" s="12"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B155" s="8"/>
-      <c r="H155" s="13"/>
-      <c r="K155" s="13"/>
+      <c r="B155" s="7"/>
+      <c r="H155" s="12"/>
+      <c r="K155" s="12"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B156" s="8"/>
-      <c r="H156" s="13"/>
-      <c r="K156" s="13"/>
+      <c r="B156" s="7"/>
+      <c r="H156" s="12"/>
+      <c r="K156" s="12"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B157" s="8"/>
-      <c r="H157" s="13"/>
-      <c r="K157" s="13"/>
+      <c r="B157" s="7"/>
+      <c r="H157" s="12"/>
+      <c r="K157" s="12"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B158" s="8"/>
-      <c r="H158" s="13"/>
-      <c r="K158" s="13"/>
+      <c r="B158" s="7"/>
+      <c r="H158" s="12"/>
+      <c r="K158" s="12"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B159" s="8"/>
-      <c r="H159" s="13"/>
-      <c r="K159" s="13"/>
+      <c r="B159" s="7"/>
+      <c r="H159" s="12"/>
+      <c r="K159" s="12"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B160" s="8"/>
-      <c r="H160" s="13"/>
-      <c r="K160" s="13"/>
+      <c r="B160" s="7"/>
+      <c r="H160" s="12"/>
+      <c r="K160" s="12"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B161" s="8"/>
-      <c r="H161" s="13"/>
-      <c r="K161" s="13"/>
+      <c r="B161" s="7"/>
+      <c r="H161" s="12"/>
+      <c r="K161" s="12"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B162" s="8"/>
-      <c r="H162" s="13"/>
-      <c r="K162" s="13"/>
+      <c r="B162" s="7"/>
+      <c r="H162" s="12"/>
+      <c r="K162" s="12"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B163" s="8"/>
-      <c r="H163" s="13"/>
-      <c r="K163" s="13"/>
+      <c r="B163" s="7"/>
+      <c r="H163" s="12"/>
+      <c r="K163" s="12"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B164" s="8"/>
-      <c r="H164" s="13"/>
-      <c r="K164" s="13"/>
+      <c r="B164" s="7"/>
+      <c r="H164" s="12"/>
+      <c r="K164" s="12"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B165" s="8"/>
-      <c r="H165" s="13"/>
-      <c r="K165" s="13"/>
+      <c r="B165" s="7"/>
+      <c r="H165" s="12"/>
+      <c r="K165" s="12"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B166" s="8"/>
-      <c r="H166" s="13"/>
-      <c r="K166" s="13"/>
+      <c r="B166" s="7"/>
+      <c r="H166" s="12"/>
+      <c r="K166" s="12"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B167" s="8"/>
-      <c r="H167" s="13"/>
-      <c r="K167" s="13"/>
+      <c r="B167" s="7"/>
+      <c r="H167" s="12"/>
+      <c r="K167" s="12"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B168" s="8"/>
-      <c r="H168" s="13"/>
-      <c r="K168" s="13"/>
+      <c r="B168" s="7"/>
+      <c r="H168" s="12"/>
+      <c r="K168" s="12"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B169" s="8"/>
-      <c r="H169" s="13"/>
-      <c r="K169" s="13"/>
+      <c r="B169" s="7"/>
+      <c r="H169" s="12"/>
+      <c r="K169" s="12"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B170" s="8"/>
-      <c r="H170" s="13"/>
-      <c r="K170" s="13"/>
+      <c r="B170" s="7"/>
+      <c r="H170" s="12"/>
+      <c r="K170" s="12"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B171" s="8"/>
-      <c r="H171" s="13"/>
-      <c r="K171" s="13"/>
+      <c r="B171" s="7"/>
+      <c r="H171" s="12"/>
+      <c r="K171" s="12"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B172" s="8"/>
-      <c r="H172" s="13"/>
-      <c r="K172" s="13"/>
+      <c r="B172" s="7"/>
+      <c r="H172" s="12"/>
+      <c r="K172" s="12"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B173" s="8"/>
-      <c r="H173" s="13"/>
-      <c r="K173" s="13"/>
+      <c r="B173" s="7"/>
+      <c r="H173" s="12"/>
+      <c r="K173" s="12"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B174" s="8"/>
-      <c r="H174" s="13"/>
-      <c r="K174" s="13"/>
+      <c r="B174" s="7"/>
+      <c r="H174" s="12"/>
+      <c r="K174" s="12"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B175" s="8"/>
-      <c r="H175" s="13"/>
-      <c r="K175" s="13"/>
+      <c r="B175" s="7"/>
+      <c r="H175" s="12"/>
+      <c r="K175" s="12"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B176" s="8"/>
-      <c r="H176" s="13"/>
-      <c r="K176" s="13"/>
+      <c r="B176" s="7"/>
+      <c r="H176" s="12"/>
+      <c r="K176" s="12"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B177" s="8"/>
-      <c r="H177" s="13"/>
-      <c r="K177" s="13"/>
+      <c r="B177" s="7"/>
+      <c r="H177" s="12"/>
+      <c r="K177" s="12"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B178" s="8"/>
-      <c r="H178" s="13"/>
-      <c r="K178" s="13"/>
+      <c r="B178" s="7"/>
+      <c r="H178" s="12"/>
+      <c r="K178" s="12"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B179" s="8"/>
-      <c r="H179" s="13"/>
-      <c r="K179" s="13"/>
+      <c r="B179" s="7"/>
+      <c r="H179" s="12"/>
+      <c r="K179" s="12"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B180" s="8"/>
-      <c r="H180" s="13"/>
-      <c r="K180" s="13"/>
+      <c r="B180" s="7"/>
+      <c r="H180" s="12"/>
+      <c r="K180" s="12"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B181" s="8"/>
-      <c r="H181" s="13"/>
-      <c r="K181" s="13"/>
+      <c r="B181" s="7"/>
+      <c r="H181" s="12"/>
+      <c r="K181" s="12"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B182" s="8"/>
-      <c r="H182" s="13"/>
-      <c r="K182" s="13"/>
+      <c r="B182" s="7"/>
+      <c r="H182" s="12"/>
+      <c r="K182" s="12"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B183" s="8"/>
-      <c r="H183" s="13"/>
-      <c r="K183" s="13"/>
+      <c r="B183" s="7"/>
+      <c r="H183" s="12"/>
+      <c r="K183" s="12"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B184" s="8"/>
-      <c r="H184" s="13"/>
-      <c r="K184" s="13"/>
+      <c r="B184" s="7"/>
+      <c r="H184" s="12"/>
+      <c r="K184" s="12"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B185" s="8"/>
-      <c r="H185" s="13"/>
-      <c r="K185" s="13"/>
+      <c r="B185" s="7"/>
+      <c r="H185" s="12"/>
+      <c r="K185" s="12"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B186" s="8"/>
-      <c r="H186" s="13"/>
-      <c r="K186" s="13"/>
+      <c r="B186" s="7"/>
+      <c r="H186" s="12"/>
+      <c r="K186" s="12"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B187" s="8"/>
-      <c r="H187" s="13"/>
-      <c r="K187" s="13"/>
+      <c r="B187" s="7"/>
+      <c r="H187" s="12"/>
+      <c r="K187" s="12"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B188" s="8"/>
-      <c r="H188" s="13"/>
-      <c r="K188" s="13"/>
+      <c r="B188" s="7"/>
+      <c r="H188" s="12"/>
+      <c r="K188" s="12"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B189" s="8"/>
-      <c r="H189" s="13"/>
-      <c r="K189" s="13"/>
+      <c r="B189" s="7"/>
+      <c r="H189" s="12"/>
+      <c r="K189" s="12"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B190" s="8"/>
-      <c r="H190" s="13"/>
-      <c r="K190" s="13"/>
+      <c r="B190" s="7"/>
+      <c r="H190" s="12"/>
+      <c r="K190" s="12"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B191" s="8"/>
-      <c r="H191" s="13"/>
-      <c r="K191" s="13"/>
+      <c r="B191" s="7"/>
+      <c r="H191" s="12"/>
+      <c r="K191" s="12"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B192" s="8"/>
-      <c r="H192" s="13"/>
-      <c r="K192" s="13"/>
+      <c r="B192" s="7"/>
+      <c r="H192" s="12"/>
+      <c r="K192" s="12"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B193" s="8"/>
-      <c r="H193" s="13"/>
-      <c r="K193" s="13"/>
+      <c r="B193" s="7"/>
+      <c r="H193" s="12"/>
+      <c r="K193" s="12"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B194" s="8"/>
-      <c r="H194" s="13"/>
-      <c r="K194" s="13"/>
+      <c r="B194" s="7"/>
+      <c r="H194" s="12"/>
+      <c r="K194" s="12"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B195" s="8"/>
-      <c r="H195" s="13"/>
-      <c r="K195" s="13"/>
+      <c r="B195" s="7"/>
+      <c r="H195" s="12"/>
+      <c r="K195" s="12"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B196" s="8"/>
-      <c r="H196" s="13"/>
-      <c r="K196" s="13"/>
+      <c r="B196" s="7"/>
+      <c r="H196" s="12"/>
+      <c r="K196" s="12"/>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B197" s="8"/>
-      <c r="H197" s="13"/>
-      <c r="K197" s="13"/>
+      <c r="B197" s="7"/>
+      <c r="H197" s="12"/>
+      <c r="K197" s="12"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B198" s="8"/>
-      <c r="H198" s="13"/>
-      <c r="K198" s="13"/>
+      <c r="B198" s="7"/>
+      <c r="H198" s="12"/>
+      <c r="K198" s="12"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B199" s="8"/>
-      <c r="H199" s="13"/>
-      <c r="K199" s="13"/>
+      <c r="B199" s="7"/>
+      <c r="H199" s="12"/>
+      <c r="K199" s="12"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B200" s="8"/>
-      <c r="H200" s="13"/>
-      <c r="K200" s="13"/>
+      <c r="B200" s="7"/>
+      <c r="H200" s="12"/>
+      <c r="K200" s="12"/>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B201" s="8"/>
-      <c r="H201" s="13"/>
-      <c r="K201" s="13"/>
+      <c r="B201" s="7"/>
+      <c r="H201" s="12"/>
+      <c r="K201" s="12"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B202" s="8"/>
-      <c r="H202" s="13"/>
-      <c r="K202" s="13"/>
+      <c r="B202" s="7"/>
+      <c r="H202" s="12"/>
+      <c r="K202" s="12"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B203" s="8"/>
-      <c r="H203" s="13"/>
-      <c r="K203" s="13"/>
+      <c r="B203" s="7"/>
+      <c r="H203" s="12"/>
+      <c r="K203" s="12"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B204" s="8"/>
-      <c r="H204" s="13"/>
-      <c r="K204" s="13"/>
+      <c r="B204" s="7"/>
+      <c r="H204" s="12"/>
+      <c r="K204" s="12"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B205" s="8"/>
-      <c r="H205" s="13"/>
-      <c r="K205" s="13"/>
+      <c r="B205" s="7"/>
+      <c r="H205" s="12"/>
+      <c r="K205" s="12"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B206" s="8"/>
-      <c r="H206" s="13"/>
-      <c r="K206" s="13"/>
+      <c r="B206" s="7"/>
+      <c r="H206" s="12"/>
+      <c r="K206" s="12"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B207" s="8"/>
-      <c r="H207" s="13"/>
-      <c r="K207" s="13"/>
+      <c r="B207" s="7"/>
+      <c r="H207" s="12"/>
+      <c r="K207" s="12"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B208" s="8"/>
-      <c r="H208" s="13"/>
-      <c r="K208" s="13"/>
+      <c r="B208" s="7"/>
+      <c r="H208" s="12"/>
+      <c r="K208" s="12"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B209" s="8"/>
-      <c r="H209" s="13"/>
-      <c r="K209" s="13"/>
+      <c r="B209" s="7"/>
+      <c r="H209" s="12"/>
+      <c r="K209" s="12"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B210" s="8"/>
-      <c r="H210" s="13"/>
-      <c r="K210" s="13"/>
+      <c r="B210" s="7"/>
+      <c r="H210" s="12"/>
+      <c r="K210" s="12"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B211" s="8"/>
-      <c r="H211" s="13"/>
-      <c r="K211" s="13"/>
+      <c r="B211" s="7"/>
+      <c r="H211" s="12"/>
+      <c r="K211" s="12"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B212" s="8"/>
-      <c r="H212" s="13"/>
-      <c r="K212" s="13"/>
+      <c r="B212" s="7"/>
+      <c r="H212" s="12"/>
+      <c r="K212" s="12"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B213" s="8"/>
-      <c r="H213" s="13"/>
-      <c r="K213" s="13"/>
+      <c r="B213" s="7"/>
+      <c r="H213" s="12"/>
+      <c r="K213" s="12"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B214" s="8"/>
-      <c r="H214" s="13"/>
-      <c r="K214" s="13"/>
+      <c r="B214" s="7"/>
+      <c r="H214" s="12"/>
+      <c r="K214" s="12"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B215" s="8"/>
-      <c r="H215" s="13"/>
-      <c r="K215" s="13"/>
+      <c r="B215" s="7"/>
+      <c r="H215" s="12"/>
+      <c r="K215" s="12"/>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B216" s="8"/>
-      <c r="H216" s="13"/>
-      <c r="K216" s="13"/>
+      <c r="B216" s="7"/>
+      <c r="H216" s="12"/>
+      <c r="K216" s="12"/>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B217" s="8"/>
-      <c r="H217" s="13"/>
-      <c r="K217" s="13"/>
+      <c r="B217" s="7"/>
+      <c r="H217" s="12"/>
+      <c r="K217" s="12"/>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B218" s="8"/>
-      <c r="H218" s="13"/>
-      <c r="K218" s="13"/>
+      <c r="B218" s="7"/>
+      <c r="H218" s="12"/>
+      <c r="K218" s="12"/>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B219" s="8"/>
-      <c r="H219" s="13"/>
-      <c r="K219" s="13"/>
+      <c r="B219" s="7"/>
+      <c r="H219" s="12"/>
+      <c r="K219" s="12"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B220" s="8"/>
-      <c r="H220" s="13"/>
-      <c r="K220" s="13"/>
+      <c r="B220" s="7"/>
+      <c r="H220" s="12"/>
+      <c r="K220" s="12"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B221" s="8"/>
-      <c r="H221" s="13"/>
-      <c r="K221" s="13"/>
+      <c r="B221" s="7"/>
+      <c r="H221" s="12"/>
+      <c r="K221" s="12"/>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B222" s="8"/>
-      <c r="H222" s="13"/>
-      <c r="K222" s="13"/>
+      <c r="B222" s="7"/>
+      <c r="H222" s="12"/>
+      <c r="K222" s="12"/>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B223" s="8"/>
-      <c r="H223" s="13"/>
-      <c r="K223" s="13"/>
+      <c r="B223" s="7"/>
+      <c r="H223" s="12"/>
+      <c r="K223" s="12"/>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B224" s="8"/>
-      <c r="H224" s="13"/>
-      <c r="K224" s="13"/>
+      <c r="B224" s="7"/>
+      <c r="H224" s="12"/>
+      <c r="K224" s="12"/>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B225" s="8"/>
-      <c r="H225" s="13"/>
-      <c r="K225" s="13"/>
+      <c r="B225" s="7"/>
+      <c r="H225" s="12"/>
+      <c r="K225" s="12"/>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B226" s="8"/>
-      <c r="H226" s="13"/>
-      <c r="K226" s="13"/>
+      <c r="B226" s="7"/>
+      <c r="H226" s="12"/>
+      <c r="K226" s="12"/>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B227" s="8"/>
-      <c r="H227" s="13"/>
-      <c r="K227" s="13"/>
+      <c r="B227" s="7"/>
+      <c r="H227" s="12"/>
+      <c r="K227" s="12"/>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B228" s="8"/>
-      <c r="H228" s="13"/>
-      <c r="K228" s="13"/>
+      <c r="B228" s="7"/>
+      <c r="H228" s="12"/>
+      <c r="K228" s="12"/>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B229" s="8"/>
-      <c r="H229" s="13"/>
-      <c r="K229" s="13"/>
+      <c r="B229" s="7"/>
+      <c r="H229" s="12"/>
+      <c r="K229" s="12"/>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B230" s="8"/>
-      <c r="H230" s="13"/>
-      <c r="K230" s="13"/>
+      <c r="B230" s="7"/>
+      <c r="H230" s="12"/>
+      <c r="K230" s="12"/>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B231" s="8"/>
-      <c r="H231" s="13"/>
-      <c r="K231" s="13"/>
+      <c r="B231" s="7"/>
+      <c r="H231" s="12"/>
+      <c r="K231" s="12"/>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B232" s="8"/>
-      <c r="H232" s="13"/>
-      <c r="K232" s="13"/>
+      <c r="B232" s="7"/>
+      <c r="H232" s="12"/>
+      <c r="K232" s="12"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B233" s="8"/>
-      <c r="H233" s="13"/>
-      <c r="K233" s="13"/>
+      <c r="B233" s="7"/>
+      <c r="H233" s="12"/>
+      <c r="K233" s="12"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B234" s="8"/>
-      <c r="H234" s="13"/>
-      <c r="K234" s="13"/>
+      <c r="B234" s="7"/>
+      <c r="H234" s="12"/>
+      <c r="K234" s="12"/>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B235" s="8"/>
-      <c r="H235" s="13"/>
-      <c r="K235" s="13"/>
+      <c r="B235" s="7"/>
+      <c r="H235" s="12"/>
+      <c r="K235" s="12"/>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B236" s="8"/>
-      <c r="H236" s="13"/>
-      <c r="K236" s="13"/>
+      <c r="B236" s="7"/>
+      <c r="H236" s="12"/>
+      <c r="K236" s="12"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B237" s="8"/>
-      <c r="H237" s="13"/>
-      <c r="K237" s="13"/>
+      <c r="B237" s="7"/>
+      <c r="H237" s="12"/>
+      <c r="K237" s="12"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B238" s="8"/>
-      <c r="H238" s="13"/>
-      <c r="K238" s="13"/>
+      <c r="B238" s="7"/>
+      <c r="H238" s="12"/>
+      <c r="K238" s="12"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B239" s="8"/>
-      <c r="H239" s="13"/>
-      <c r="K239" s="13"/>
+      <c r="B239" s="7"/>
+      <c r="H239" s="12"/>
+      <c r="K239" s="12"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B240" s="8"/>
-      <c r="H240" s="13"/>
-      <c r="K240" s="13"/>
+      <c r="B240" s="7"/>
+      <c r="H240" s="12"/>
+      <c r="K240" s="12"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B241" s="8"/>
-      <c r="H241" s="13"/>
-      <c r="K241" s="13"/>
+      <c r="B241" s="7"/>
+      <c r="H241" s="12"/>
+      <c r="K241" s="12"/>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B242" s="8"/>
-      <c r="H242" s="13"/>
-      <c r="K242" s="13"/>
+      <c r="B242" s="7"/>
+      <c r="H242" s="12"/>
+      <c r="K242" s="12"/>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B243" s="8"/>
-      <c r="H243" s="13"/>
-      <c r="K243" s="13"/>
+      <c r="B243" s="7"/>
+      <c r="H243" s="12"/>
+      <c r="K243" s="12"/>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B244" s="8"/>
-      <c r="H244" s="13"/>
-      <c r="K244" s="13"/>
+      <c r="B244" s="7"/>
+      <c r="H244" s="12"/>
+      <c r="K244" s="12"/>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B245" s="8"/>
-      <c r="H245" s="13"/>
-      <c r="K245" s="13"/>
+      <c r="B245" s="7"/>
+      <c r="H245" s="12"/>
+      <c r="K245" s="12"/>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B246" s="8"/>
-      <c r="H246" s="13"/>
-      <c r="K246" s="13"/>
+      <c r="B246" s="7"/>
+      <c r="H246" s="12"/>
+      <c r="K246" s="12"/>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B247" s="8"/>
-      <c r="H247" s="13"/>
-      <c r="K247" s="13"/>
+      <c r="B247" s="7"/>
+      <c r="H247" s="12"/>
+      <c r="K247" s="12"/>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B248" s="8"/>
-      <c r="H248" s="13"/>
-      <c r="K248" s="13"/>
+      <c r="B248" s="7"/>
+      <c r="H248" s="12"/>
+      <c r="K248" s="12"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B249" s="8"/>
-      <c r="H249" s="13"/>
-      <c r="K249" s="13"/>
+      <c r="B249" s="7"/>
+      <c r="H249" s="12"/>
+      <c r="K249" s="12"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B250" s="8"/>
-      <c r="H250" s="13"/>
-      <c r="K250" s="13"/>
+      <c r="B250" s="7"/>
+      <c r="H250" s="12"/>
+      <c r="K250" s="12"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B251" s="8"/>
-      <c r="H251" s="13"/>
-      <c r="K251" s="13"/>
+      <c r="B251" s="7"/>
+      <c r="H251" s="12"/>
+      <c r="K251" s="12"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B252" s="8"/>
-      <c r="H252" s="13"/>
-      <c r="K252" s="13"/>
+      <c r="B252" s="7"/>
+      <c r="H252" s="12"/>
+      <c r="K252" s="12"/>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B253" s="8"/>
-      <c r="H253" s="13"/>
-      <c r="K253" s="13"/>
+      <c r="B253" s="7"/>
+      <c r="H253" s="12"/>
+      <c r="K253" s="12"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B254" s="8"/>
-      <c r="H254" s="13"/>
-      <c r="K254" s="13"/>
+      <c r="B254" s="7"/>
+      <c r="H254" s="12"/>
+      <c r="K254" s="12"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B255" s="8"/>
-      <c r="H255" s="13"/>
-      <c r="K255" s="13"/>
+      <c r="B255" s="7"/>
+      <c r="H255" s="12"/>
+      <c r="K255" s="12"/>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B256" s="8"/>
-      <c r="H256" s="13"/>
-      <c r="K256" s="13"/>
+      <c r="B256" s="7"/>
+      <c r="H256" s="12"/>
+      <c r="K256" s="12"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B257" s="8"/>
-      <c r="H257" s="13"/>
-      <c r="K257" s="13"/>
+      <c r="B257" s="7"/>
+      <c r="H257" s="12"/>
+      <c r="K257" s="12"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B258" s="8"/>
-      <c r="H258" s="13"/>
-      <c r="K258" s="13"/>
+      <c r="B258" s="7"/>
+      <c r="H258" s="12"/>
+      <c r="K258" s="12"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B259" s="8"/>
-      <c r="H259" s="13"/>
-      <c r="K259" s="13"/>
+      <c r="B259" s="7"/>
+      <c r="H259" s="12"/>
+      <c r="K259" s="12"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B260" s="8"/>
-      <c r="H260" s="13"/>
-      <c r="K260" s="13"/>
+      <c r="B260" s="7"/>
+      <c r="H260" s="12"/>
+      <c r="K260" s="12"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B261" s="8"/>
-      <c r="H261" s="13"/>
-      <c r="K261" s="13"/>
+      <c r="B261" s="7"/>
+      <c r="H261" s="12"/>
+      <c r="K261" s="12"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B262" s="8"/>
-      <c r="H262" s="13"/>
-      <c r="K262" s="13"/>
+      <c r="B262" s="7"/>
+      <c r="H262" s="12"/>
+      <c r="K262" s="12"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B263" s="8"/>
-      <c r="H263" s="13"/>
-      <c r="K263" s="13"/>
+      <c r="B263" s="7"/>
+      <c r="H263" s="12"/>
+      <c r="K263" s="12"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B264" s="8"/>
-      <c r="H264" s="13"/>
-      <c r="K264" s="13"/>
+      <c r="B264" s="7"/>
+      <c r="H264" s="12"/>
+      <c r="K264" s="12"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B265" s="8"/>
-      <c r="H265" s="13"/>
-      <c r="K265" s="13"/>
+      <c r="B265" s="7"/>
+      <c r="H265" s="12"/>
+      <c r="K265" s="12"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B266" s="8"/>
-      <c r="H266" s="13"/>
-      <c r="K266" s="13"/>
+      <c r="B266" s="7"/>
+      <c r="H266" s="12"/>
+      <c r="K266" s="12"/>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B267" s="8"/>
-      <c r="H267" s="13"/>
-      <c r="K267" s="13"/>
+      <c r="B267" s="7"/>
+      <c r="H267" s="12"/>
+      <c r="K267" s="12"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B268" s="8"/>
-      <c r="H268" s="13"/>
-      <c r="K268" s="13"/>
+      <c r="B268" s="7"/>
+      <c r="H268" s="12"/>
+      <c r="K268" s="12"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B269" s="8"/>
-      <c r="H269" s="13"/>
-      <c r="K269" s="13"/>
+      <c r="B269" s="7"/>
+      <c r="H269" s="12"/>
+      <c r="K269" s="12"/>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B270" s="8"/>
-      <c r="H270" s="13"/>
-      <c r="K270" s="13"/>
+      <c r="B270" s="7"/>
+      <c r="H270" s="12"/>
+      <c r="K270" s="12"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B271" s="8"/>
-      <c r="H271" s="13"/>
-      <c r="K271" s="13"/>
+      <c r="B271" s="7"/>
+      <c r="H271" s="12"/>
+      <c r="K271" s="12"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B272" s="8"/>
-      <c r="H272" s="13"/>
-      <c r="K272" s="13"/>
+      <c r="B272" s="7"/>
+      <c r="H272" s="12"/>
+      <c r="K272" s="12"/>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B273" s="8"/>
-      <c r="H273" s="13"/>
-      <c r="K273" s="13"/>
+      <c r="B273" s="7"/>
+      <c r="H273" s="12"/>
+      <c r="K273" s="12"/>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B274" s="8"/>
-      <c r="H274" s="13"/>
-      <c r="K274" s="13"/>
+      <c r="B274" s="7"/>
+      <c r="H274" s="12"/>
+      <c r="K274" s="12"/>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B275" s="8"/>
-      <c r="H275" s="13"/>
-      <c r="K275" s="13"/>
+      <c r="B275" s="7"/>
+      <c r="H275" s="12"/>
+      <c r="K275" s="12"/>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B276" s="8"/>
-      <c r="H276" s="13"/>
-      <c r="K276" s="13"/>
+      <c r="B276" s="7"/>
+      <c r="H276" s="12"/>
+      <c r="K276" s="12"/>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B277" s="8"/>
-      <c r="H277" s="13"/>
-      <c r="K277" s="13"/>
+      <c r="B277" s="7"/>
+      <c r="H277" s="12"/>
+      <c r="K277" s="12"/>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B278" s="8"/>
-      <c r="H278" s="13"/>
-      <c r="K278" s="13"/>
+      <c r="B278" s="7"/>
+      <c r="H278" s="12"/>
+      <c r="K278" s="12"/>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B279" s="8"/>
-      <c r="H279" s="13"/>
-      <c r="K279" s="13"/>
+      <c r="B279" s="7"/>
+      <c r="H279" s="12"/>
+      <c r="K279" s="12"/>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B280" s="8"/>
-      <c r="H280" s="13"/>
-      <c r="K280" s="13"/>
+      <c r="B280" s="7"/>
+      <c r="H280" s="12"/>
+      <c r="K280" s="12"/>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B281" s="8"/>
-      <c r="H281" s="13"/>
-      <c r="K281" s="13"/>
+      <c r="B281" s="7"/>
+      <c r="H281" s="12"/>
+      <c r="K281" s="12"/>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B282" s="8"/>
-      <c r="H282" s="13"/>
-      <c r="K282" s="13"/>
+      <c r="B282" s="7"/>
+      <c r="H282" s="12"/>
+      <c r="K282" s="12"/>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B283" s="8"/>
-      <c r="H283" s="13"/>
-      <c r="K283" s="13"/>
+      <c r="B283" s="7"/>
+      <c r="H283" s="12"/>
+      <c r="K283" s="12"/>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B284" s="8"/>
-      <c r="H284" s="13"/>
-      <c r="K284" s="13"/>
+      <c r="B284" s="7"/>
+      <c r="H284" s="12"/>
+      <c r="K284" s="12"/>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B285" s="8"/>
-      <c r="H285" s="13"/>
-      <c r="K285" s="13"/>
+      <c r="B285" s="7"/>
+      <c r="H285" s="12"/>
+      <c r="K285" s="12"/>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B286" s="8"/>
-      <c r="H286" s="13"/>
-      <c r="K286" s="13"/>
+      <c r="B286" s="7"/>
+      <c r="H286" s="12"/>
+      <c r="K286" s="12"/>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B287" s="8"/>
-      <c r="H287" s="13"/>
-      <c r="K287" s="13"/>
+      <c r="B287" s="7"/>
+      <c r="H287" s="12"/>
+      <c r="K287" s="12"/>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H288" s="13"/>
-      <c r="K288" s="13"/>
+      <c r="H288" s="12"/>
+      <c r="K288" s="12"/>
     </row>
     <row r="289" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H289" s="13"/>
-      <c r="K289" s="13"/>
+      <c r="H289" s="12"/>
+      <c r="K289" s="12"/>
     </row>
     <row r="290" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H290" s="13"/>
-      <c r="K290" s="13"/>
+      <c r="H290" s="12"/>
+      <c r="K290" s="12"/>
     </row>
     <row r="291" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H291" s="13"/>
-      <c r="K291" s="13"/>
+      <c r="H291" s="12"/>
+      <c r="K291" s="12"/>
     </row>
     <row r="292" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H292" s="13"/>
-      <c r="K292" s="13"/>
+      <c r="H292" s="12"/>
+      <c r="K292" s="12"/>
     </row>
     <row r="293" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H293" s="13"/>
-      <c r="K293" s="13"/>
+      <c r="H293" s="12"/>
+      <c r="K293" s="12"/>
     </row>
     <row r="294" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H294" s="13"/>
-      <c r="K294" s="13"/>
+      <c r="H294" s="12"/>
+      <c r="K294" s="12"/>
     </row>
     <row r="295" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H295" s="13"/>
-      <c r="K295" s="13"/>
+      <c r="H295" s="12"/>
+      <c r="K295" s="12"/>
     </row>
     <row r="296" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H296" s="13"/>
-      <c r="K296" s="13"/>
+      <c r="H296" s="12"/>
+      <c r="K296" s="12"/>
     </row>
     <row r="297" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H297" s="13"/>
-      <c r="K297" s="13"/>
+      <c r="H297" s="12"/>
+      <c r="K297" s="12"/>
     </row>
     <row r="298" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H298" s="13"/>
-      <c r="K298" s="13"/>
+      <c r="H298" s="12"/>
+      <c r="K298" s="12"/>
     </row>
     <row r="299" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H299" s="13"/>
-      <c r="K299" s="13"/>
+      <c r="H299" s="12"/>
+      <c r="K299" s="12"/>
     </row>
     <row r="300" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H300" s="13"/>
-      <c r="K300" s="13"/>
+      <c r="H300" s="12"/>
+      <c r="K300" s="12"/>
     </row>
     <row r="301" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H301" s="13"/>
-      <c r="K301" s="13"/>
+      <c r="H301" s="12"/>
+      <c r="K301" s="12"/>
     </row>
     <row r="302" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H302" s="13"/>
-      <c r="K302" s="13"/>
+      <c r="H302" s="12"/>
+      <c r="K302" s="12"/>
     </row>
     <row r="303" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H303" s="13"/>
-      <c r="K303" s="13"/>
+      <c r="H303" s="12"/>
+      <c r="K303" s="12"/>
     </row>
     <row r="304" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H304" s="13"/>
-      <c r="K304" s="13"/>
+      <c r="H304" s="12"/>
+      <c r="K304" s="12"/>
     </row>
     <row r="305" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H305" s="13"/>
-      <c r="K305" s="13"/>
+      <c r="H305" s="12"/>
+      <c r="K305" s="12"/>
     </row>
     <row r="306" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H306" s="13"/>
-      <c r="K306" s="13"/>
+      <c r="H306" s="12"/>
+      <c r="K306" s="12"/>
     </row>
     <row r="307" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H307" s="13"/>
-      <c r="K307" s="13"/>
+      <c r="H307" s="12"/>
+      <c r="K307" s="12"/>
     </row>
     <row r="308" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H308" s="13"/>
-      <c r="K308" s="13"/>
+      <c r="H308" s="12"/>
+      <c r="K308" s="12"/>
     </row>
     <row r="309" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H309" s="13"/>
-      <c r="K309" s="13"/>
+      <c r="H309" s="12"/>
+      <c r="K309" s="12"/>
     </row>
     <row r="310" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H310" s="13"/>
-      <c r="K310" s="13"/>
+      <c r="H310" s="12"/>
+      <c r="K310" s="12"/>
     </row>
     <row r="311" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H311" s="13"/>
-      <c r="K311" s="13"/>
+      <c r="H311" s="12"/>
+      <c r="K311" s="12"/>
     </row>
     <row r="312" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H312" s="13"/>
-      <c r="K312" s="13"/>
+      <c r="H312" s="12"/>
+      <c r="K312" s="12"/>
     </row>
     <row r="313" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H313" s="13"/>
-      <c r="K313" s="13"/>
+      <c r="H313" s="12"/>
+      <c r="K313" s="12"/>
     </row>
     <row r="314" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H314" s="13"/>
-      <c r="K314" s="13"/>
+      <c r="H314" s="12"/>
+      <c r="K314" s="12"/>
     </row>
     <row r="315" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H315" s="13"/>
-      <c r="K315" s="13"/>
+      <c r="H315" s="12"/>
+      <c r="K315" s="12"/>
     </row>
     <row r="316" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H316" s="13"/>
-      <c r="K316" s="13"/>
+      <c r="H316" s="12"/>
+      <c r="K316" s="12"/>
     </row>
     <row r="317" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H317" s="13"/>
-      <c r="K317" s="13"/>
+      <c r="H317" s="12"/>
+      <c r="K317" s="12"/>
     </row>
     <row r="318" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H318" s="13"/>
-      <c r="K318" s="13"/>
+      <c r="H318" s="12"/>
+      <c r="K318" s="12"/>
     </row>
     <row r="319" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H319" s="13"/>
-      <c r="K319" s="13"/>
+      <c r="H319" s="12"/>
+      <c r="K319" s="12"/>
     </row>
     <row r="320" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H320" s="13"/>
-      <c r="K320" s="13"/>
+      <c r="H320" s="12"/>
+      <c r="K320" s="12"/>
     </row>
     <row r="321" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H321" s="13"/>
-      <c r="K321" s="13"/>
+      <c r="H321" s="12"/>
+      <c r="K321" s="12"/>
     </row>
     <row r="322" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H322" s="13"/>
-      <c r="K322" s="13"/>
+      <c r="H322" s="12"/>
+      <c r="K322" s="12"/>
     </row>
     <row r="323" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H323" s="13"/>
-      <c r="K323" s="13"/>
+      <c r="H323" s="12"/>
+      <c r="K323" s="12"/>
     </row>
     <row r="324" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H324" s="13"/>
-      <c r="K324" s="13"/>
+      <c r="H324" s="12"/>
+      <c r="K324" s="12"/>
     </row>
     <row r="325" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H325" s="13"/>
-      <c r="K325" s="13"/>
+      <c r="H325" s="12"/>
+      <c r="K325" s="12"/>
     </row>
     <row r="326" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H326" s="13"/>
-      <c r="K326" s="13"/>
+      <c r="H326" s="12"/>
+      <c r="K326" s="12"/>
     </row>
     <row r="327" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H327" s="13"/>
-      <c r="K327" s="13"/>
+      <c r="H327" s="12"/>
+      <c r="K327" s="12"/>
     </row>
     <row r="328" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H328" s="13"/>
-      <c r="K328" s="13"/>
+      <c r="H328" s="12"/>
+      <c r="K328" s="12"/>
     </row>
     <row r="329" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H329" s="13"/>
-      <c r="K329" s="13"/>
+      <c r="H329" s="12"/>
+      <c r="K329" s="12"/>
     </row>
     <row r="330" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H330" s="13"/>
-      <c r="K330" s="13"/>
+      <c r="H330" s="12"/>
+      <c r="K330" s="12"/>
     </row>
     <row r="331" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H331" s="13"/>
-      <c r="K331" s="13"/>
+      <c r="H331" s="12"/>
+      <c r="K331" s="12"/>
     </row>
     <row r="332" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H332" s="13"/>
-      <c r="K332" s="13"/>
+      <c r="H332" s="12"/>
+      <c r="K332" s="12"/>
     </row>
     <row r="333" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H333" s="13"/>
-      <c r="K333" s="13"/>
+      <c r="H333" s="12"/>
+      <c r="K333" s="12"/>
     </row>
     <row r="334" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H334" s="13"/>
-      <c r="K334" s="13"/>
+      <c r="H334" s="12"/>
+      <c r="K334" s="12"/>
     </row>
     <row r="335" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H335" s="13"/>
-      <c r="K335" s="13"/>
+      <c r="H335" s="12"/>
+      <c r="K335" s="12"/>
     </row>
     <row r="336" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H336" s="13"/>
-      <c r="K336" s="13"/>
+      <c r="H336" s="12"/>
+      <c r="K336" s="12"/>
     </row>
     <row r="337" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H337" s="13"/>
-      <c r="K337" s="13"/>
+      <c r="H337" s="12"/>
+      <c r="K337" s="12"/>
     </row>
     <row r="338" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H338" s="13"/>
-      <c r="K338" s="13"/>
+      <c r="H338" s="12"/>
+      <c r="K338" s="12"/>
     </row>
     <row r="339" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H339" s="13"/>
-      <c r="K339" s="13"/>
+      <c r="H339" s="12"/>
+      <c r="K339" s="12"/>
     </row>
     <row r="340" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H340" s="13"/>
-      <c r="K340" s="13"/>
+      <c r="H340" s="12"/>
+      <c r="K340" s="12"/>
     </row>
     <row r="341" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H341" s="13"/>
-      <c r="K341" s="13"/>
+      <c r="H341" s="12"/>
+      <c r="K341" s="12"/>
     </row>
     <row r="342" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H342" s="13"/>
-      <c r="K342" s="13"/>
+      <c r="H342" s="12"/>
+      <c r="K342" s="12"/>
     </row>
     <row r="343" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H343" s="13"/>
-      <c r="K343" s="13"/>
+      <c r="H343" s="12"/>
+      <c r="K343" s="12"/>
     </row>
     <row r="344" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H344" s="13"/>
-      <c r="K344" s="13"/>
+      <c r="H344" s="12"/>
+      <c r="K344" s="12"/>
     </row>
     <row r="345" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H345" s="13"/>
-      <c r="K345" s="13"/>
+      <c r="H345" s="12"/>
+      <c r="K345" s="12"/>
     </row>
     <row r="346" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H346" s="13"/>
-      <c r="K346" s="13"/>
+      <c r="H346" s="12"/>
+      <c r="K346" s="12"/>
     </row>
     <row r="347" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H347" s="13"/>
-      <c r="K347" s="13"/>
+      <c r="H347" s="12"/>
+      <c r="K347" s="12"/>
     </row>
     <row r="348" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H348" s="13"/>
-      <c r="K348" s="13"/>
+      <c r="H348" s="12"/>
+      <c r="K348" s="12"/>
     </row>
     <row r="349" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H349" s="13"/>
-      <c r="K349" s="13"/>
+      <c r="H349" s="12"/>
+      <c r="K349" s="12"/>
     </row>
     <row r="350" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H350" s="13"/>
-      <c r="K350" s="13"/>
+      <c r="H350" s="12"/>
+      <c r="K350" s="12"/>
     </row>
     <row r="351" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H351" s="13"/>
-      <c r="K351" s="13"/>
+      <c r="H351" s="12"/>
+      <c r="K351" s="12"/>
     </row>
     <row r="352" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H352" s="13"/>
-      <c r="K352" s="13"/>
+      <c r="H352" s="12"/>
+      <c r="K352" s="12"/>
     </row>
     <row r="353" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H353" s="13"/>
-      <c r="K353" s="13"/>
+      <c r="H353" s="12"/>
+      <c r="K353" s="12"/>
     </row>
     <row r="354" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H354" s="13"/>
-      <c r="K354" s="13"/>
+      <c r="H354" s="12"/>
+      <c r="K354" s="12"/>
     </row>
     <row r="355" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H355" s="13"/>
-      <c r="K355" s="13"/>
+      <c r="H355" s="12"/>
+      <c r="K355" s="12"/>
     </row>
     <row r="356" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H356" s="13"/>
-      <c r="K356" s="13"/>
+      <c r="H356" s="12"/>
+      <c r="K356" s="12"/>
     </row>
     <row r="357" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H357" s="13"/>
-      <c r="K357" s="13"/>
+      <c r="H357" s="12"/>
+      <c r="K357" s="12"/>
     </row>
     <row r="358" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H358" s="13"/>
-      <c r="K358" s="13"/>
+      <c r="H358" s="12"/>
+      <c r="K358" s="12"/>
     </row>
     <row r="359" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H359" s="13"/>
-      <c r="K359" s="13"/>
+      <c r="H359" s="12"/>
+      <c r="K359" s="12"/>
     </row>
     <row r="360" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H360" s="13"/>
-      <c r="K360" s="13"/>
+      <c r="H360" s="12"/>
+      <c r="K360" s="12"/>
     </row>
     <row r="361" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H361" s="13"/>
-      <c r="K361" s="13"/>
+      <c r="H361" s="12"/>
+      <c r="K361" s="12"/>
     </row>
     <row r="362" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H362" s="13"/>
-      <c r="K362" s="13"/>
+      <c r="H362" s="12"/>
+      <c r="K362" s="12"/>
     </row>
     <row r="363" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H363" s="13"/>
-      <c r="K363" s="13"/>
+      <c r="H363" s="12"/>
+      <c r="K363" s="12"/>
     </row>
     <row r="364" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H364" s="13"/>
-      <c r="K364" s="13"/>
+      <c r="H364" s="12"/>
+      <c r="K364" s="12"/>
     </row>
     <row r="365" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H365" s="13"/>
-      <c r="K365" s="13"/>
+      <c r="H365" s="12"/>
+      <c r="K365" s="12"/>
     </row>
     <row r="366" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H366" s="13"/>
-      <c r="K366" s="13"/>
+      <c r="H366" s="12"/>
+      <c r="K366" s="12"/>
     </row>
     <row r="367" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H367" s="13"/>
-      <c r="K367" s="13"/>
+      <c r="H367" s="12"/>
+      <c r="K367" s="12"/>
     </row>
     <row r="368" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H368" s="13"/>
-      <c r="K368" s="13"/>
+      <c r="H368" s="12"/>
+      <c r="K368" s="12"/>
     </row>
     <row r="369" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H369" s="13"/>
-      <c r="K369" s="13"/>
+      <c r="H369" s="12"/>
+      <c r="K369" s="12"/>
     </row>
     <row r="370" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H370" s="13"/>
-      <c r="K370" s="13"/>
+      <c r="H370" s="12"/>
+      <c r="K370" s="12"/>
     </row>
     <row r="371" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H371" s="13"/>
-      <c r="K371" s="13"/>
+      <c r="H371" s="12"/>
+      <c r="K371" s="12"/>
     </row>
     <row r="372" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H372" s="13"/>
-      <c r="K372" s="13"/>
+      <c r="H372" s="12"/>
+      <c r="K372" s="12"/>
     </row>
     <row r="373" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H373" s="13"/>
-      <c r="K373" s="13"/>
+      <c r="H373" s="12"/>
+      <c r="K373" s="12"/>
     </row>
     <row r="374" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H374" s="13"/>
-      <c r="K374" s="13"/>
+      <c r="H374" s="12"/>
+      <c r="K374" s="12"/>
     </row>
     <row r="375" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H375" s="13"/>
-      <c r="K375" s="13"/>
+      <c r="H375" s="12"/>
+      <c r="K375" s="12"/>
     </row>
     <row r="376" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H376" s="13"/>
-      <c r="K376" s="13"/>
+      <c r="H376" s="12"/>
+      <c r="K376" s="12"/>
     </row>
     <row r="377" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H377" s="13"/>
-      <c r="K377" s="13"/>
+      <c r="H377" s="12"/>
+      <c r="K377" s="12"/>
     </row>
     <row r="378" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H378" s="13"/>
-      <c r="K378" s="13"/>
+      <c r="H378" s="12"/>
+      <c r="K378" s="12"/>
     </row>
     <row r="379" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H379" s="13"/>
-      <c r="K379" s="13"/>
+      <c r="H379" s="12"/>
+      <c r="K379" s="12"/>
     </row>
     <row r="380" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H380" s="13"/>
-      <c r="K380" s="13"/>
+      <c r="H380" s="12"/>
+      <c r="K380" s="12"/>
     </row>
     <row r="381" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H381" s="13"/>
-      <c r="K381" s="13"/>
+      <c r="H381" s="12"/>
+      <c r="K381" s="12"/>
     </row>
     <row r="382" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H382" s="13"/>
-      <c r="K382" s="13"/>
+      <c r="H382" s="12"/>
+      <c r="K382" s="12"/>
     </row>
     <row r="383" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H383" s="13"/>
-      <c r="K383" s="13"/>
+      <c r="H383" s="12"/>
+      <c r="K383" s="12"/>
     </row>
     <row r="384" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H384" s="13"/>
-      <c r="K384" s="13"/>
+      <c r="H384" s="12"/>
+      <c r="K384" s="12"/>
     </row>
     <row r="385" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H385" s="13"/>
-      <c r="K385" s="13"/>
+      <c r="H385" s="12"/>
+      <c r="K385" s="12"/>
     </row>
     <row r="386" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H386" s="13"/>
-      <c r="K386" s="13"/>
+      <c r="H386" s="12"/>
+      <c r="K386" s="12"/>
     </row>
     <row r="387" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H387" s="13"/>
-      <c r="K387" s="13"/>
+      <c r="H387" s="12"/>
+      <c r="K387" s="12"/>
     </row>
     <row r="388" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H388" s="13"/>
-      <c r="K388" s="13"/>
+      <c r="H388" s="12"/>
+      <c r="K388" s="12"/>
     </row>
     <row r="389" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H389" s="13"/>
-      <c r="K389" s="13"/>
+      <c r="H389" s="12"/>
+      <c r="K389" s="12"/>
     </row>
     <row r="390" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H390" s="13"/>
-      <c r="K390" s="13"/>
+      <c r="H390" s="12"/>
+      <c r="K390" s="12"/>
     </row>
     <row r="391" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H391" s="13"/>
-      <c r="K391" s="13"/>
+      <c r="H391" s="12"/>
+      <c r="K391" s="12"/>
     </row>
     <row r="392" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H392" s="13"/>
-      <c r="K392" s="13"/>
+      <c r="H392" s="12"/>
+      <c r="K392" s="12"/>
     </row>
     <row r="393" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H393" s="13"/>
-      <c r="K393" s="13"/>
+      <c r="H393" s="12"/>
+      <c r="K393" s="12"/>
     </row>
     <row r="394" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H394" s="13"/>
-      <c r="K394" s="13"/>
+      <c r="H394" s="12"/>
+      <c r="K394" s="12"/>
     </row>
     <row r="395" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H395" s="13"/>
-      <c r="K395" s="13"/>
+      <c r="H395" s="12"/>
+      <c r="K395" s="12"/>
     </row>
     <row r="396" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H396" s="13"/>
-      <c r="K396" s="13"/>
+      <c r="H396" s="12"/>
+      <c r="K396" s="12"/>
     </row>
     <row r="397" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H397" s="13"/>
-      <c r="K397" s="13"/>
+      <c r="H397" s="12"/>
+      <c r="K397" s="12"/>
     </row>
     <row r="398" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H398" s="13"/>
-      <c r="K398" s="13"/>
+      <c r="H398" s="12"/>
+      <c r="K398" s="12"/>
     </row>
     <row r="399" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H399" s="13"/>
-      <c r="K399" s="13"/>
+      <c r="H399" s="12"/>
+      <c r="K399" s="12"/>
     </row>
     <row r="400" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H400" s="13"/>
-      <c r="K400" s="13"/>
+      <c r="H400" s="12"/>
+      <c r="K400" s="12"/>
     </row>
     <row r="401" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H401" s="13"/>
-      <c r="K401" s="13"/>
+      <c r="H401" s="12"/>
+      <c r="K401" s="12"/>
     </row>
     <row r="402" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H402" s="13"/>
-      <c r="K402" s="13"/>
+      <c r="H402" s="12"/>
+      <c r="K402" s="12"/>
     </row>
     <row r="403" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H403" s="13"/>
-      <c r="K403" s="13"/>
+      <c r="H403" s="12"/>
+      <c r="K403" s="12"/>
     </row>
     <row r="404" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H404" s="13"/>
-      <c r="K404" s="13"/>
+      <c r="H404" s="12"/>
+      <c r="K404" s="12"/>
     </row>
     <row r="405" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H405" s="13"/>
-      <c r="K405" s="13"/>
+      <c r="H405" s="12"/>
+      <c r="K405" s="12"/>
     </row>
     <row r="406" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H406" s="13"/>
-      <c r="K406" s="13"/>
+      <c r="H406" s="12"/>
+      <c r="K406" s="12"/>
     </row>
     <row r="407" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H407" s="13"/>
-      <c r="K407" s="13"/>
+      <c r="H407" s="12"/>
+      <c r="K407" s="12"/>
     </row>
     <row r="408" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H408" s="13"/>
+      <c r="H408" s="12"/>
     </row>
     <row r="409" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H409" s="13"/>
+      <c r="H409" s="12"/>
     </row>
     <row r="410" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H410" s="13"/>
+      <c r="H410" s="12"/>
     </row>
     <row r="411" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H411" s="13"/>
+      <c r="H411" s="12"/>
     </row>
     <row r="412" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H412" s="13"/>
+      <c r="H412" s="12"/>
     </row>
     <row r="413" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H413" s="13"/>
+      <c r="H413" s="12"/>
     </row>
     <row r="414" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H414" s="13"/>
+      <c r="H414" s="12"/>
     </row>
     <row r="415" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H415" s="13"/>
+      <c r="H415" s="12"/>
     </row>
     <row r="416" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H416" s="13"/>
+      <c r="H416" s="12"/>
     </row>
     <row r="417" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H417" s="13"/>
+      <c r="H417" s="12"/>
     </row>
     <row r="418" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H418" s="13"/>
+      <c r="H418" s="12"/>
     </row>
     <row r="419" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H419" s="13"/>
+      <c r="H419" s="12"/>
     </row>
     <row r="420" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H420" s="13"/>
+      <c r="H420" s="12"/>
     </row>
     <row r="421" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H421" s="13"/>
+      <c r="H421" s="12"/>
     </row>
     <row r="422" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H422" s="13"/>
+      <c r="H422" s="12"/>
     </row>
     <row r="423" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H423" s="13"/>
+      <c r="H423" s="12"/>
     </row>
     <row r="424" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H424" s="13"/>
+      <c r="H424" s="12"/>
     </row>
     <row r="425" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H425" s="13"/>
+      <c r="H425" s="12"/>
     </row>
     <row r="426" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H426" s="13"/>
+      <c r="H426" s="12"/>
     </row>
     <row r="427" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H427" s="13"/>
+      <c r="H427" s="12"/>
     </row>
     <row r="428" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H428" s="13"/>
+      <c r="H428" s="12"/>
     </row>
     <row r="429" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H429" s="13"/>
+      <c r="H429" s="12"/>
     </row>
     <row r="430" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H430" s="13"/>
+      <c r="H430" s="12"/>
     </row>
     <row r="431" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H431" s="13"/>
+      <c r="H431" s="12"/>
     </row>
     <row r="432" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H432" s="13"/>
+      <c r="H432" s="12"/>
     </row>
     <row r="433" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H433" s="13"/>
+      <c r="H433" s="12"/>
     </row>
     <row r="434" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H434" s="13"/>
+      <c r="H434" s="12"/>
     </row>
     <row r="435" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H435" s="13"/>
+      <c r="H435" s="12"/>
     </row>
     <row r="436" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H436" s="13"/>
+      <c r="H436" s="12"/>
     </row>
     <row r="437" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H437" s="13"/>
+      <c r="H437" s="12"/>
     </row>
     <row r="438" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H438" s="13"/>
+      <c r="H438" s="12"/>
     </row>
     <row r="439" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H439" s="13"/>
+      <c r="H439" s="12"/>
     </row>
     <row r="440" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H440" s="13"/>
+      <c r="H440" s="12"/>
     </row>
     <row r="441" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H441" s="13"/>
+      <c r="H441" s="12"/>
     </row>
     <row r="442" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H442" s="13"/>
+      <c r="H442" s="12"/>
     </row>
     <row r="443" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H443" s="13"/>
+      <c r="H443" s="12"/>
     </row>
     <row r="444" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H444" s="13"/>
+      <c r="H444" s="12"/>
     </row>
     <row r="445" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H445" s="13"/>
+      <c r="H445" s="12"/>
     </row>
     <row r="446" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H446" s="13"/>
+      <c r="H446" s="12"/>
     </row>
     <row r="447" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H447" s="13"/>
+      <c r="H447" s="12"/>
     </row>
     <row r="448" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H448" s="13"/>
+      <c r="H448" s="12"/>
     </row>
     <row r="449" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H449" s="13"/>
+      <c r="H449" s="12"/>
     </row>
     <row r="450" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H450" s="13"/>
+      <c r="H450" s="12"/>
     </row>
     <row r="451" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H451" s="13"/>
+      <c r="H451" s="12"/>
     </row>
     <row r="452" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H452" s="13"/>
+      <c r="H452" s="12"/>
     </row>
     <row r="453" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H453" s="13"/>
+      <c r="H453" s="12"/>
     </row>
     <row r="454" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H454" s="13"/>
+      <c r="H454" s="12"/>
     </row>
     <row r="455" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H455" s="13"/>
+      <c r="H455" s="12"/>
     </row>
     <row r="456" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H456" s="13"/>
+      <c r="H456" s="12"/>
     </row>
     <row r="457" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H457" s="13"/>
+      <c r="H457" s="12"/>
     </row>
     <row r="458" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H458" s="13"/>
+      <c r="H458" s="12"/>
     </row>
     <row r="459" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H459" s="13"/>
+      <c r="H459" s="12"/>
     </row>
     <row r="460" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H460" s="13"/>
+      <c r="H460" s="12"/>
     </row>
     <row r="461" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H461" s="13"/>
+      <c r="H461" s="12"/>
     </row>
     <row r="462" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H462" s="13"/>
+      <c r="H462" s="12"/>
     </row>
     <row r="463" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H463" s="13"/>
+      <c r="H463" s="12"/>
     </row>
     <row r="464" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H464" s="13"/>
+      <c r="H464" s="12"/>
     </row>
     <row r="465" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H465" s="13"/>
+      <c r="H465" s="12"/>
     </row>
     <row r="466" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H466" s="13"/>
+      <c r="H466" s="12"/>
     </row>
     <row r="467" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H467" s="13"/>
+      <c r="H467" s="12"/>
     </row>
     <row r="468" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H468" s="13"/>
+      <c r="H468" s="12"/>
     </row>
     <row r="469" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H469" s="13"/>
+      <c r="H469" s="12"/>
     </row>
     <row r="470" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H470" s="13"/>
+      <c r="H470" s="12"/>
     </row>
     <row r="471" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H471" s="13"/>
+      <c r="H471" s="12"/>
     </row>
     <row r="472" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H472" s="13"/>
+      <c r="H472" s="12"/>
     </row>
     <row r="473" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H473" s="13"/>
+      <c r="H473" s="12"/>
     </row>
     <row r="474" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H474" s="13"/>
+      <c r="H474" s="12"/>
     </row>
     <row r="475" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H475" s="13"/>
+      <c r="H475" s="12"/>
     </row>
     <row r="476" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H476" s="13"/>
+      <c r="H476" s="12"/>
     </row>
     <row r="477" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H477" s="13"/>
+      <c r="H477" s="12"/>
     </row>
     <row r="478" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H478" s="13"/>
+      <c r="H478" s="12"/>
     </row>
     <row r="479" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H479" s="13"/>
+      <c r="H479" s="12"/>
     </row>
     <row r="480" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H480" s="13"/>
+      <c r="H480" s="12"/>
     </row>
     <row r="481" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H481" s="13"/>
+      <c r="H481" s="12"/>
     </row>
     <row r="482" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H482" s="13"/>
+      <c r="H482" s="12"/>
     </row>
     <row r="483" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H483" s="13"/>
+      <c r="H483" s="12"/>
     </row>
     <row r="484" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H484" s="13"/>
+      <c r="H484" s="12"/>
     </row>
     <row r="485" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H485" s="13"/>
+      <c r="H485" s="12"/>
     </row>
     <row r="486" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H486" s="13"/>
+      <c r="H486" s="12"/>
     </row>
     <row r="487" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H487" s="13"/>
+      <c r="H487" s="12"/>
     </row>
     <row r="488" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H488" s="13"/>
+      <c r="H488" s="12"/>
     </row>
     <row r="489" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H489" s="13"/>
+      <c r="H489" s="12"/>
     </row>
     <row r="490" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H490" s="13"/>
+      <c r="H490" s="12"/>
     </row>
     <row r="491" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H491" s="13"/>
+      <c r="H491" s="12"/>
     </row>
     <row r="492" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H492" s="13"/>
+      <c r="H492" s="12"/>
     </row>
     <row r="493" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H493" s="13"/>
+      <c r="H493" s="12"/>
     </row>
     <row r="494" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H494" s="13"/>
+      <c r="H494" s="12"/>
     </row>
     <row r="495" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H495" s="13"/>
+      <c r="H495" s="12"/>
     </row>
     <row r="496" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H496" s="13"/>
+      <c r="H496" s="12"/>
     </row>
     <row r="497" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H497" s="13"/>
+      <c r="H497" s="12"/>
     </row>
     <row r="498" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H498" s="13"/>
+      <c r="H498" s="12"/>
     </row>
     <row r="499" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H499" s="13"/>
+      <c r="H499" s="12"/>
     </row>
     <row r="500" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H500" s="13"/>
+      <c r="H500" s="12"/>
     </row>
     <row r="501" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H501" s="13"/>
+      <c r="H501" s="12"/>
     </row>
     <row r="502" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H502" s="13"/>
+      <c r="H502" s="12"/>
     </row>
     <row r="503" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H503" s="13"/>
+      <c r="H503" s="12"/>
     </row>
     <row r="504" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H504" s="13"/>
+      <c r="H504" s="12"/>
     </row>
     <row r="505" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H505" s="13"/>
+      <c r="H505" s="12"/>
     </row>
     <row r="506" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H506" s="13"/>
+      <c r="H506" s="12"/>
     </row>
     <row r="507" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H507" s="13"/>
+      <c r="H507" s="12"/>
     </row>
     <row r="508" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H508" s="13"/>
+      <c r="H508" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3709,7 +3891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A2:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -3720,11 +3902,6 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>108</v>
@@ -3819,7 +3996,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3833,30 +4010,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4111,20 +4272,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA047D9D-19AB-47C2-AB7E-C4F46EFA7C95}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>110</v>
@@ -4186,17 +4344,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B879536B-7A8E-409A-869D-4DE2F1AC2847}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>102</v>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22957501-AA1F-4E5B-A53F-CC3A79149675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DBC6A-7A6B-4C2E-92C2-C29B28D5C6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>Nombre</t>
   </si>
@@ -92,12 +92,6 @@
     <t>GN125</t>
   </si>
   <si>
-    <t>enviado</t>
-  </si>
-  <si>
-    <t>leído</t>
-  </si>
-  <si>
     <t>falló envío</t>
   </si>
   <si>
@@ -320,24 +314,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Joana</t>
-  </si>
-  <si>
     <t>Joselin</t>
   </si>
   <si>
     <t>Vendedores</t>
   </si>
   <si>
-    <t>vendedor8</t>
-  </si>
-  <si>
-    <t>vendedor9</t>
-  </si>
-  <si>
-    <t>vendedor10</t>
-  </si>
-  <si>
     <t>Gustavo_Glunz</t>
   </si>
   <si>
@@ -375,13 +357,40 @@
   </si>
   <si>
     <t>CAMPOS MODIFICABLES</t>
+  </si>
+  <si>
+    <t>flow enviado</t>
+  </si>
+  <si>
+    <t>flow leído</t>
+  </si>
+  <si>
+    <t>flow recibido</t>
+  </si>
+  <si>
+    <t>No sé</t>
+  </si>
+  <si>
+    <t>Reina</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Lautaro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +425,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -478,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -511,203 +532,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -745,6 +582,24 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -821,6 +676,30 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -916,6 +795,30 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1104,6 +1007,132 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1118,21 +1147,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
-    <sortCondition ref="A2:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="9" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,72 +1177,72 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="7" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="10" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H2:H8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H2:H9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="8" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1543,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1559,7 +1588,7 @@
     <col min="8" max="8" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" style="6" customWidth="1"/>
     <col min="10" max="10" width="30.453125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="6" customWidth="1"/>
     <col min="12" max="15" width="20" style="6" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.08984375" style="6" customWidth="1"/>
@@ -1596,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -1605,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>10</v>
@@ -1617,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>13</v>
@@ -1626,22 +1655,22 @@
         <v>14</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -3891,10 +3920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:A17"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3902,85 +3931,107 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
+      <c r="D18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9285CA4-E8DB-44F5-9704-AF6AF747F2C9}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4021,71 +4072,71 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -4094,162 +4145,165 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4272,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA047D9D-19AB-47C2-AB7E-C4F46EFA7C95}">
-  <dimension ref="A2:A11"/>
+  <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4285,52 +4339,57 @@
   <sheetData>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
+      <c r="A9" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4354,17 +4413,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DBC6A-7A6B-4C2E-92C2-C29B28D5C6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CB548-48DB-4E1A-AEC7-7C20101BEB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Orígen" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$S$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>Nombre</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Lautaro</t>
+  </si>
+  <si>
+    <t>Crédito</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,8 +541,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA508"/>
+  <dimension ref="A1:AB508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,18 +1589,18 @@
     <col min="8" max="8" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" style="6" customWidth="1"/>
     <col min="10" max="10" width="30.453125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="6" customWidth="1"/>
-    <col min="12" max="15" width="20" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.08984375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="20.81640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="6.54296875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="6"/>
+    <col min="11" max="12" width="10.90625" style="6" customWidth="1"/>
+    <col min="13" max="16" width="20" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.08984375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.54296875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1633,1990 +1634,2399 @@
       <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="H2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="R2" s="6" t="s">
+      <c r="L2" s="12"/>
+      <c r="S2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="V3" s="5"/>
+      <c r="L3" s="12"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="H4" s="12"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="H5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="H6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L6" s="12"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="H7" s="12"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="H8" s="12"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="H9" s="12"/>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
       <c r="H10" s="12"/>
       <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="H11" s="12"/>
       <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="H12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="H13" s="12"/>
       <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="H14" s="12"/>
       <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="H15" s="12"/>
       <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="H16" s="12"/>
       <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
       <c r="H17" s="12"/>
       <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="H18" s="12"/>
       <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="H19" s="12"/>
       <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="H20" s="12"/>
       <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="H21" s="12"/>
       <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="H22" s="12"/>
       <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="H23" s="12"/>
       <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
       <c r="H24" s="12"/>
       <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="H25" s="12"/>
       <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="H26" s="12"/>
       <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="H27" s="12"/>
       <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="H28" s="12"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="H29" s="12"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="H30" s="12"/>
       <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="H31" s="12"/>
       <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="H32" s="12"/>
       <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="H33" s="12"/>
       <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="H34" s="12"/>
       <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="H35" s="12"/>
       <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
       <c r="H36" s="12"/>
       <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
       <c r="H37" s="12"/>
       <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
       <c r="H38" s="12"/>
       <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
       <c r="H39" s="12"/>
       <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="H40" s="12"/>
       <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
       <c r="H41" s="12"/>
       <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
       <c r="H42" s="12"/>
       <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
       <c r="H43" s="12"/>
       <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
       <c r="H44" s="12"/>
       <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
       <c r="H45" s="12"/>
       <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="7"/>
       <c r="H46" s="12"/>
       <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
       <c r="H47" s="12"/>
       <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" s="7"/>
       <c r="H48" s="12"/>
       <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" s="7"/>
       <c r="H49" s="12"/>
       <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="7"/>
       <c r="H50" s="12"/>
       <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" s="7"/>
       <c r="H51" s="12"/>
       <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="7"/>
       <c r="H52" s="12"/>
       <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="7"/>
       <c r="H53" s="12"/>
       <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
       <c r="H54" s="12"/>
       <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="7"/>
       <c r="H55" s="12"/>
       <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" s="7"/>
       <c r="H56" s="12"/>
       <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="7"/>
       <c r="H57" s="12"/>
       <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" s="7"/>
       <c r="H58" s="12"/>
       <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="7"/>
       <c r="H59" s="12"/>
       <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="7"/>
       <c r="H60" s="12"/>
       <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="7"/>
       <c r="H61" s="12"/>
       <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="7"/>
       <c r="H62" s="12"/>
       <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="7"/>
       <c r="H63" s="12"/>
       <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="7"/>
       <c r="H64" s="12"/>
       <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="7"/>
       <c r="H65" s="12"/>
       <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="7"/>
       <c r="H66" s="12"/>
       <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" s="7"/>
       <c r="H67" s="12"/>
       <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
       <c r="H68" s="12"/>
       <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
       <c r="H69" s="12"/>
       <c r="K69" s="12"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
       <c r="H70" s="12"/>
       <c r="K70" s="12"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
       <c r="H71" s="12"/>
       <c r="K71" s="12"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
       <c r="H72" s="12"/>
       <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
       <c r="H73" s="12"/>
       <c r="K73" s="12"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
       <c r="H74" s="12"/>
       <c r="K74" s="12"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
       <c r="H75" s="12"/>
       <c r="K75" s="12"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" s="7"/>
       <c r="H76" s="12"/>
       <c r="K76" s="12"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="7"/>
       <c r="H77" s="12"/>
       <c r="K77" s="12"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
       <c r="H78" s="12"/>
       <c r="K78" s="12"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" s="7"/>
       <c r="H79" s="12"/>
       <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
       <c r="H80" s="12"/>
       <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" s="7"/>
       <c r="H81" s="12"/>
       <c r="K81" s="12"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="7"/>
       <c r="H82" s="12"/>
       <c r="K82" s="12"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" s="7"/>
       <c r="H83" s="12"/>
       <c r="K83" s="12"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" s="7"/>
       <c r="H84" s="12"/>
       <c r="K84" s="12"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="7"/>
       <c r="H85" s="12"/>
       <c r="K85" s="12"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="7"/>
       <c r="H86" s="12"/>
       <c r="K86" s="12"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" s="7"/>
       <c r="H87" s="12"/>
       <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="7"/>
       <c r="H88" s="12"/>
       <c r="K88" s="12"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="7"/>
       <c r="H89" s="12"/>
       <c r="K89" s="12"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" s="7"/>
       <c r="H90" s="12"/>
       <c r="K90" s="12"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" s="7"/>
       <c r="H91" s="12"/>
       <c r="K91" s="12"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L91" s="12"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" s="7"/>
       <c r="H92" s="12"/>
       <c r="K92" s="12"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" s="7"/>
       <c r="H93" s="12"/>
       <c r="K93" s="12"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="7"/>
       <c r="H94" s="12"/>
       <c r="K94" s="12"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
       <c r="H95" s="12"/>
       <c r="K95" s="12"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
       <c r="H96" s="12"/>
       <c r="K96" s="12"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
       <c r="H97" s="12"/>
       <c r="K97" s="12"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L97" s="12"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
       <c r="H98" s="12"/>
       <c r="K98" s="12"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L98" s="12"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
       <c r="H99" s="12"/>
       <c r="K99" s="12"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
       <c r="H100" s="12"/>
       <c r="K100" s="12"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
       <c r="H101" s="12"/>
       <c r="K101" s="12"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
       <c r="H102" s="12"/>
       <c r="K102" s="12"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
       <c r="H103" s="12"/>
       <c r="K103" s="12"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
       <c r="H104" s="12"/>
       <c r="K104" s="12"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
       <c r="H105" s="12"/>
       <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L105" s="12"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
       <c r="H106" s="12"/>
       <c r="K106" s="12"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
       <c r="H107" s="12"/>
       <c r="K107" s="12"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L107" s="12"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
       <c r="H108" s="12"/>
       <c r="K108" s="12"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L108" s="12"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
       <c r="H109" s="12"/>
       <c r="K109" s="12"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L109" s="12"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
       <c r="H110" s="12"/>
       <c r="K110" s="12"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L110" s="12"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
       <c r="H111" s="12"/>
       <c r="K111" s="12"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L111" s="12"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
       <c r="H112" s="12"/>
       <c r="K112" s="12"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L112" s="12"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="7"/>
       <c r="H113" s="12"/>
       <c r="K113" s="12"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L113" s="12"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="7"/>
       <c r="H114" s="12"/>
       <c r="K114" s="12"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L114" s="12"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" s="7"/>
       <c r="H115" s="12"/>
       <c r="K115" s="12"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L115" s="12"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
       <c r="H116" s="12"/>
       <c r="K116" s="12"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L116" s="12"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
       <c r="H117" s="12"/>
       <c r="K117" s="12"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L117" s="12"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
       <c r="H118" s="12"/>
       <c r="K118" s="12"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L118" s="12"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
       <c r="H119" s="12"/>
       <c r="K119" s="12"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L119" s="12"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
       <c r="H120" s="12"/>
       <c r="K120" s="12"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L120" s="12"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
       <c r="H121" s="12"/>
       <c r="K121" s="12"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L121" s="12"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" s="7"/>
       <c r="H122" s="12"/>
       <c r="K122" s="12"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L122" s="12"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
       <c r="H123" s="12"/>
       <c r="K123" s="12"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L123" s="12"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
       <c r="H124" s="12"/>
       <c r="K124" s="12"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L124" s="12"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" s="7"/>
       <c r="H125" s="12"/>
       <c r="K125" s="12"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L125" s="12"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" s="7"/>
       <c r="H126" s="12"/>
       <c r="K126" s="12"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L126" s="12"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" s="7"/>
       <c r="H127" s="12"/>
       <c r="K127" s="12"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L127" s="12"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" s="7"/>
       <c r="H128" s="12"/>
       <c r="K128" s="12"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L128" s="12"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129" s="7"/>
       <c r="H129" s="12"/>
       <c r="K129" s="12"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L129" s="12"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130" s="7"/>
       <c r="H130" s="12"/>
       <c r="K130" s="12"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L130" s="12"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131" s="7"/>
       <c r="H131" s="12"/>
       <c r="K131" s="12"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L131" s="12"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132" s="7"/>
       <c r="H132" s="12"/>
       <c r="K132" s="12"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L132" s="12"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133" s="7"/>
       <c r="H133" s="12"/>
       <c r="K133" s="12"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L133" s="12"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134" s="7"/>
       <c r="H134" s="12"/>
       <c r="K134" s="12"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L134" s="12"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135" s="7"/>
       <c r="H135" s="12"/>
       <c r="K135" s="12"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L135" s="12"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136" s="7"/>
       <c r="H136" s="12"/>
       <c r="K136" s="12"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L136" s="12"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137" s="7"/>
       <c r="H137" s="12"/>
       <c r="K137" s="12"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L137" s="12"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138" s="7"/>
       <c r="H138" s="12"/>
       <c r="K138" s="12"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L138" s="12"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139" s="7"/>
       <c r="H139" s="12"/>
       <c r="K139" s="12"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L139" s="12"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140" s="7"/>
       <c r="H140" s="12"/>
       <c r="K140" s="12"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L140" s="12"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141" s="7"/>
       <c r="H141" s="12"/>
       <c r="K141" s="12"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L141" s="12"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142" s="7"/>
       <c r="H142" s="12"/>
       <c r="K142" s="12"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L142" s="12"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143" s="7"/>
       <c r="H143" s="12"/>
       <c r="K143" s="12"/>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L143" s="12"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144" s="7"/>
       <c r="H144" s="12"/>
       <c r="K144" s="12"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L144" s="12"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145" s="7"/>
       <c r="H145" s="12"/>
       <c r="K145" s="12"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L145" s="12"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146" s="7"/>
       <c r="H146" s="12"/>
       <c r="K146" s="12"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L146" s="12"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147" s="7"/>
       <c r="H147" s="12"/>
       <c r="K147" s="12"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L147" s="12"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148" s="7"/>
       <c r="H148" s="12"/>
       <c r="K148" s="12"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L148" s="12"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149" s="7"/>
       <c r="H149" s="12"/>
       <c r="K149" s="12"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L149" s="12"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150" s="7"/>
       <c r="H150" s="12"/>
       <c r="K150" s="12"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L150" s="12"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151" s="7"/>
       <c r="H151" s="12"/>
       <c r="K151" s="12"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L151" s="12"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152" s="7"/>
       <c r="H152" s="12"/>
       <c r="K152" s="12"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L152" s="12"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153" s="7"/>
       <c r="H153" s="12"/>
       <c r="K153" s="12"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L153" s="12"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154" s="7"/>
       <c r="H154" s="12"/>
       <c r="K154" s="12"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L154" s="12"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155" s="7"/>
       <c r="H155" s="12"/>
       <c r="K155" s="12"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L155" s="12"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156" s="7"/>
       <c r="H156" s="12"/>
       <c r="K156" s="12"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L156" s="12"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157" s="7"/>
       <c r="H157" s="12"/>
       <c r="K157" s="12"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L157" s="12"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158" s="7"/>
       <c r="H158" s="12"/>
       <c r="K158" s="12"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L158" s="12"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159" s="7"/>
       <c r="H159" s="12"/>
       <c r="K159" s="12"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L159" s="12"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160" s="7"/>
       <c r="H160" s="12"/>
       <c r="K160" s="12"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L160" s="12"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161" s="7"/>
       <c r="H161" s="12"/>
       <c r="K161" s="12"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L161" s="12"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162" s="7"/>
       <c r="H162" s="12"/>
       <c r="K162" s="12"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L162" s="12"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163" s="7"/>
       <c r="H163" s="12"/>
       <c r="K163" s="12"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L163" s="12"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164" s="7"/>
       <c r="H164" s="12"/>
       <c r="K164" s="12"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L164" s="12"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165" s="7"/>
       <c r="H165" s="12"/>
       <c r="K165" s="12"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L165" s="12"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166" s="7"/>
       <c r="H166" s="12"/>
       <c r="K166" s="12"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L166" s="12"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167" s="7"/>
       <c r="H167" s="12"/>
       <c r="K167" s="12"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L167" s="12"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168" s="7"/>
       <c r="H168" s="12"/>
       <c r="K168" s="12"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L168" s="12"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169" s="7"/>
       <c r="H169" s="12"/>
       <c r="K169" s="12"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L169" s="12"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170" s="7"/>
       <c r="H170" s="12"/>
       <c r="K170" s="12"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L170" s="12"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171" s="7"/>
       <c r="H171" s="12"/>
       <c r="K171" s="12"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L171" s="12"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172" s="7"/>
       <c r="H172" s="12"/>
       <c r="K172" s="12"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L172" s="12"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173" s="7"/>
       <c r="H173" s="12"/>
       <c r="K173" s="12"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L173" s="12"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174" s="7"/>
       <c r="H174" s="12"/>
       <c r="K174" s="12"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L174" s="12"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175" s="7"/>
       <c r="H175" s="12"/>
       <c r="K175" s="12"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L175" s="12"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176" s="7"/>
       <c r="H176" s="12"/>
       <c r="K176" s="12"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L176" s="12"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177" s="7"/>
       <c r="H177" s="12"/>
       <c r="K177" s="12"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L177" s="12"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178" s="7"/>
       <c r="H178" s="12"/>
       <c r="K178" s="12"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L178" s="12"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179" s="7"/>
       <c r="H179" s="12"/>
       <c r="K179" s="12"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L179" s="12"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180" s="7"/>
       <c r="H180" s="12"/>
       <c r="K180" s="12"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L180" s="12"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181" s="7"/>
       <c r="H181" s="12"/>
       <c r="K181" s="12"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L181" s="12"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182" s="7"/>
       <c r="H182" s="12"/>
       <c r="K182" s="12"/>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L182" s="12"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183" s="7"/>
       <c r="H183" s="12"/>
       <c r="K183" s="12"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L183" s="12"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184" s="7"/>
       <c r="H184" s="12"/>
       <c r="K184" s="12"/>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L184" s="12"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185" s="7"/>
       <c r="H185" s="12"/>
       <c r="K185" s="12"/>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L185" s="12"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186" s="7"/>
       <c r="H186" s="12"/>
       <c r="K186" s="12"/>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L186" s="12"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187" s="7"/>
       <c r="H187" s="12"/>
       <c r="K187" s="12"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L187" s="12"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188" s="7"/>
       <c r="H188" s="12"/>
       <c r="K188" s="12"/>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L188" s="12"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189" s="7"/>
       <c r="H189" s="12"/>
       <c r="K189" s="12"/>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L189" s="12"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190" s="7"/>
       <c r="H190" s="12"/>
       <c r="K190" s="12"/>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L190" s="12"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191" s="7"/>
       <c r="H191" s="12"/>
       <c r="K191" s="12"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L191" s="12"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192" s="7"/>
       <c r="H192" s="12"/>
       <c r="K192" s="12"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L192" s="12"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193" s="7"/>
       <c r="H193" s="12"/>
       <c r="K193" s="12"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L193" s="12"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194" s="7"/>
       <c r="H194" s="12"/>
       <c r="K194" s="12"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L194" s="12"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195" s="7"/>
       <c r="H195" s="12"/>
       <c r="K195" s="12"/>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L195" s="12"/>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196" s="7"/>
       <c r="H196" s="12"/>
       <c r="K196" s="12"/>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L196" s="12"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197" s="7"/>
       <c r="H197" s="12"/>
       <c r="K197" s="12"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L197" s="12"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198" s="7"/>
       <c r="H198" s="12"/>
       <c r="K198" s="12"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L198" s="12"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199" s="7"/>
       <c r="H199" s="12"/>
       <c r="K199" s="12"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L199" s="12"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200" s="7"/>
       <c r="H200" s="12"/>
       <c r="K200" s="12"/>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L200" s="12"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201" s="7"/>
       <c r="H201" s="12"/>
       <c r="K201" s="12"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L201" s="12"/>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202" s="7"/>
       <c r="H202" s="12"/>
       <c r="K202" s="12"/>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L202" s="12"/>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B203" s="7"/>
       <c r="H203" s="12"/>
       <c r="K203" s="12"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L203" s="12"/>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B204" s="7"/>
       <c r="H204" s="12"/>
       <c r="K204" s="12"/>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L204" s="12"/>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B205" s="7"/>
       <c r="H205" s="12"/>
       <c r="K205" s="12"/>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L205" s="12"/>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B206" s="7"/>
       <c r="H206" s="12"/>
       <c r="K206" s="12"/>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L206" s="12"/>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B207" s="7"/>
       <c r="H207" s="12"/>
       <c r="K207" s="12"/>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L207" s="12"/>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B208" s="7"/>
       <c r="H208" s="12"/>
       <c r="K208" s="12"/>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L208" s="12"/>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B209" s="7"/>
       <c r="H209" s="12"/>
       <c r="K209" s="12"/>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L209" s="12"/>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B210" s="7"/>
       <c r="H210" s="12"/>
       <c r="K210" s="12"/>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L210" s="12"/>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B211" s="7"/>
       <c r="H211" s="12"/>
       <c r="K211" s="12"/>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L211" s="12"/>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B212" s="7"/>
       <c r="H212" s="12"/>
       <c r="K212" s="12"/>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L212" s="12"/>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B213" s="7"/>
       <c r="H213" s="12"/>
       <c r="K213" s="12"/>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L213" s="12"/>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B214" s="7"/>
       <c r="H214" s="12"/>
       <c r="K214" s="12"/>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L214" s="12"/>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B215" s="7"/>
       <c r="H215" s="12"/>
       <c r="K215" s="12"/>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L215" s="12"/>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B216" s="7"/>
       <c r="H216" s="12"/>
       <c r="K216" s="12"/>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L216" s="12"/>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B217" s="7"/>
       <c r="H217" s="12"/>
       <c r="K217" s="12"/>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L217" s="12"/>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B218" s="7"/>
       <c r="H218" s="12"/>
       <c r="K218" s="12"/>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L218" s="12"/>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B219" s="7"/>
       <c r="H219" s="12"/>
       <c r="K219" s="12"/>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L219" s="12"/>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B220" s="7"/>
       <c r="H220" s="12"/>
       <c r="K220" s="12"/>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L220" s="12"/>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B221" s="7"/>
       <c r="H221" s="12"/>
       <c r="K221" s="12"/>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L221" s="12"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B222" s="7"/>
       <c r="H222" s="12"/>
       <c r="K222" s="12"/>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L222" s="12"/>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B223" s="7"/>
       <c r="H223" s="12"/>
       <c r="K223" s="12"/>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L223" s="12"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B224" s="7"/>
       <c r="H224" s="12"/>
       <c r="K224" s="12"/>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L224" s="12"/>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B225" s="7"/>
       <c r="H225" s="12"/>
       <c r="K225" s="12"/>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L225" s="12"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B226" s="7"/>
       <c r="H226" s="12"/>
       <c r="K226" s="12"/>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L226" s="12"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B227" s="7"/>
       <c r="H227" s="12"/>
       <c r="K227" s="12"/>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L227" s="12"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B228" s="7"/>
       <c r="H228" s="12"/>
       <c r="K228" s="12"/>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L228" s="12"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B229" s="7"/>
       <c r="H229" s="12"/>
       <c r="K229" s="12"/>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L229" s="12"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B230" s="7"/>
       <c r="H230" s="12"/>
       <c r="K230" s="12"/>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L230" s="12"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B231" s="7"/>
       <c r="H231" s="12"/>
       <c r="K231" s="12"/>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L231" s="12"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B232" s="7"/>
       <c r="H232" s="12"/>
       <c r="K232" s="12"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L232" s="12"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B233" s="7"/>
       <c r="H233" s="12"/>
       <c r="K233" s="12"/>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L233" s="12"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B234" s="7"/>
       <c r="H234" s="12"/>
       <c r="K234" s="12"/>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L234" s="12"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B235" s="7"/>
       <c r="H235" s="12"/>
       <c r="K235" s="12"/>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L235" s="12"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B236" s="7"/>
       <c r="H236" s="12"/>
       <c r="K236" s="12"/>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L236" s="12"/>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B237" s="7"/>
       <c r="H237" s="12"/>
       <c r="K237" s="12"/>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L237" s="12"/>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B238" s="7"/>
       <c r="H238" s="12"/>
       <c r="K238" s="12"/>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L238" s="12"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B239" s="7"/>
       <c r="H239" s="12"/>
       <c r="K239" s="12"/>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L239" s="12"/>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B240" s="7"/>
       <c r="H240" s="12"/>
       <c r="K240" s="12"/>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L240" s="12"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B241" s="7"/>
       <c r="H241" s="12"/>
       <c r="K241" s="12"/>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L241" s="12"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B242" s="7"/>
       <c r="H242" s="12"/>
       <c r="K242" s="12"/>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L242" s="12"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B243" s="7"/>
       <c r="H243" s="12"/>
       <c r="K243" s="12"/>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L243" s="12"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B244" s="7"/>
       <c r="H244" s="12"/>
       <c r="K244" s="12"/>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L244" s="12"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B245" s="7"/>
       <c r="H245" s="12"/>
       <c r="K245" s="12"/>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L245" s="12"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B246" s="7"/>
       <c r="H246" s="12"/>
       <c r="K246" s="12"/>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L246" s="12"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B247" s="7"/>
       <c r="H247" s="12"/>
       <c r="K247" s="12"/>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L247" s="12"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B248" s="7"/>
       <c r="H248" s="12"/>
       <c r="K248" s="12"/>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L248" s="12"/>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B249" s="7"/>
       <c r="H249" s="12"/>
       <c r="K249" s="12"/>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L249" s="12"/>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B250" s="7"/>
       <c r="H250" s="12"/>
       <c r="K250" s="12"/>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L250" s="12"/>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B251" s="7"/>
       <c r="H251" s="12"/>
       <c r="K251" s="12"/>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L251" s="12"/>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B252" s="7"/>
       <c r="H252" s="12"/>
       <c r="K252" s="12"/>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L252" s="12"/>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B253" s="7"/>
       <c r="H253" s="12"/>
       <c r="K253" s="12"/>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L253" s="12"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B254" s="7"/>
       <c r="H254" s="12"/>
       <c r="K254" s="12"/>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L254" s="12"/>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B255" s="7"/>
       <c r="H255" s="12"/>
       <c r="K255" s="12"/>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L255" s="12"/>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B256" s="7"/>
       <c r="H256" s="12"/>
       <c r="K256" s="12"/>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L256" s="12"/>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B257" s="7"/>
       <c r="H257" s="12"/>
       <c r="K257" s="12"/>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L257" s="12"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B258" s="7"/>
       <c r="H258" s="12"/>
       <c r="K258" s="12"/>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L258" s="12"/>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B259" s="7"/>
       <c r="H259" s="12"/>
       <c r="K259" s="12"/>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L259" s="12"/>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B260" s="7"/>
       <c r="H260" s="12"/>
       <c r="K260" s="12"/>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L260" s="12"/>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B261" s="7"/>
       <c r="H261" s="12"/>
       <c r="K261" s="12"/>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L261" s="12"/>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B262" s="7"/>
       <c r="H262" s="12"/>
       <c r="K262" s="12"/>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L262" s="12"/>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B263" s="7"/>
       <c r="H263" s="12"/>
       <c r="K263" s="12"/>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L263" s="12"/>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B264" s="7"/>
       <c r="H264" s="12"/>
       <c r="K264" s="12"/>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L264" s="12"/>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B265" s="7"/>
       <c r="H265" s="12"/>
       <c r="K265" s="12"/>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L265" s="12"/>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B266" s="7"/>
       <c r="H266" s="12"/>
       <c r="K266" s="12"/>
-    </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L266" s="12"/>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B267" s="7"/>
       <c r="H267" s="12"/>
       <c r="K267" s="12"/>
-    </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L267" s="12"/>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B268" s="7"/>
       <c r="H268" s="12"/>
       <c r="K268" s="12"/>
-    </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L268" s="12"/>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B269" s="7"/>
       <c r="H269" s="12"/>
       <c r="K269" s="12"/>
-    </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L269" s="12"/>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B270" s="7"/>
       <c r="H270" s="12"/>
       <c r="K270" s="12"/>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L270" s="12"/>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B271" s="7"/>
       <c r="H271" s="12"/>
       <c r="K271" s="12"/>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L271" s="12"/>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B272" s="7"/>
       <c r="H272" s="12"/>
       <c r="K272" s="12"/>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L272" s="12"/>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B273" s="7"/>
       <c r="H273" s="12"/>
       <c r="K273" s="12"/>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L273" s="12"/>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B274" s="7"/>
       <c r="H274" s="12"/>
       <c r="K274" s="12"/>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L274" s="12"/>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B275" s="7"/>
       <c r="H275" s="12"/>
       <c r="K275" s="12"/>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L275" s="12"/>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B276" s="7"/>
       <c r="H276" s="12"/>
       <c r="K276" s="12"/>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L276" s="12"/>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B277" s="7"/>
       <c r="H277" s="12"/>
       <c r="K277" s="12"/>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L277" s="12"/>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B278" s="7"/>
       <c r="H278" s="12"/>
       <c r="K278" s="12"/>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L278" s="12"/>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B279" s="7"/>
       <c r="H279" s="12"/>
       <c r="K279" s="12"/>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L279" s="12"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B280" s="7"/>
       <c r="H280" s="12"/>
       <c r="K280" s="12"/>
-    </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L280" s="12"/>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B281" s="7"/>
       <c r="H281" s="12"/>
       <c r="K281" s="12"/>
-    </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L281" s="12"/>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B282" s="7"/>
       <c r="H282" s="12"/>
       <c r="K282" s="12"/>
-    </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L282" s="12"/>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B283" s="7"/>
       <c r="H283" s="12"/>
       <c r="K283" s="12"/>
-    </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L283" s="12"/>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B284" s="7"/>
       <c r="H284" s="12"/>
       <c r="K284" s="12"/>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L284" s="12"/>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B285" s="7"/>
       <c r="H285" s="12"/>
       <c r="K285" s="12"/>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L285" s="12"/>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B286" s="7"/>
       <c r="H286" s="12"/>
       <c r="K286" s="12"/>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L286" s="12"/>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B287" s="7"/>
       <c r="H287" s="12"/>
       <c r="K287" s="12"/>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L287" s="12"/>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H288" s="12"/>
       <c r="K288" s="12"/>
-    </row>
-    <row r="289" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L288" s="12"/>
+    </row>
+    <row r="289" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H289" s="12"/>
       <c r="K289" s="12"/>
-    </row>
-    <row r="290" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L289" s="12"/>
+    </row>
+    <row r="290" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H290" s="12"/>
       <c r="K290" s="12"/>
-    </row>
-    <row r="291" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L290" s="12"/>
+    </row>
+    <row r="291" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H291" s="12"/>
       <c r="K291" s="12"/>
-    </row>
-    <row r="292" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L291" s="12"/>
+    </row>
+    <row r="292" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H292" s="12"/>
       <c r="K292" s="12"/>
-    </row>
-    <row r="293" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L292" s="12"/>
+    </row>
+    <row r="293" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H293" s="12"/>
       <c r="K293" s="12"/>
-    </row>
-    <row r="294" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L293" s="12"/>
+    </row>
+    <row r="294" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H294" s="12"/>
       <c r="K294" s="12"/>
-    </row>
-    <row r="295" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L294" s="12"/>
+    </row>
+    <row r="295" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H295" s="12"/>
       <c r="K295" s="12"/>
-    </row>
-    <row r="296" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L295" s="12"/>
+    </row>
+    <row r="296" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H296" s="12"/>
       <c r="K296" s="12"/>
-    </row>
-    <row r="297" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L296" s="12"/>
+    </row>
+    <row r="297" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H297" s="12"/>
       <c r="K297" s="12"/>
-    </row>
-    <row r="298" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L297" s="12"/>
+    </row>
+    <row r="298" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H298" s="12"/>
       <c r="K298" s="12"/>
-    </row>
-    <row r="299" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L298" s="12"/>
+    </row>
+    <row r="299" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H299" s="12"/>
       <c r="K299" s="12"/>
-    </row>
-    <row r="300" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L299" s="12"/>
+    </row>
+    <row r="300" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H300" s="12"/>
       <c r="K300" s="12"/>
-    </row>
-    <row r="301" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L300" s="12"/>
+    </row>
+    <row r="301" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H301" s="12"/>
       <c r="K301" s="12"/>
-    </row>
-    <row r="302" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L301" s="12"/>
+    </row>
+    <row r="302" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H302" s="12"/>
       <c r="K302" s="12"/>
-    </row>
-    <row r="303" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L302" s="12"/>
+    </row>
+    <row r="303" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H303" s="12"/>
       <c r="K303" s="12"/>
-    </row>
-    <row r="304" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L303" s="12"/>
+    </row>
+    <row r="304" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H304" s="12"/>
       <c r="K304" s="12"/>
-    </row>
-    <row r="305" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L304" s="12"/>
+    </row>
+    <row r="305" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H305" s="12"/>
       <c r="K305" s="12"/>
-    </row>
-    <row r="306" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L305" s="12"/>
+    </row>
+    <row r="306" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H306" s="12"/>
       <c r="K306" s="12"/>
-    </row>
-    <row r="307" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L306" s="12"/>
+    </row>
+    <row r="307" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H307" s="12"/>
       <c r="K307" s="12"/>
-    </row>
-    <row r="308" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L307" s="12"/>
+    </row>
+    <row r="308" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H308" s="12"/>
       <c r="K308" s="12"/>
-    </row>
-    <row r="309" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L308" s="12"/>
+    </row>
+    <row r="309" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H309" s="12"/>
       <c r="K309" s="12"/>
-    </row>
-    <row r="310" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L309" s="12"/>
+    </row>
+    <row r="310" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H310" s="12"/>
       <c r="K310" s="12"/>
-    </row>
-    <row r="311" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L310" s="12"/>
+    </row>
+    <row r="311" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H311" s="12"/>
       <c r="K311" s="12"/>
-    </row>
-    <row r="312" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L311" s="12"/>
+    </row>
+    <row r="312" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H312" s="12"/>
       <c r="K312" s="12"/>
-    </row>
-    <row r="313" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L312" s="12"/>
+    </row>
+    <row r="313" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H313" s="12"/>
       <c r="K313" s="12"/>
-    </row>
-    <row r="314" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L313" s="12"/>
+    </row>
+    <row r="314" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H314" s="12"/>
       <c r="K314" s="12"/>
-    </row>
-    <row r="315" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L314" s="12"/>
+    </row>
+    <row r="315" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H315" s="12"/>
       <c r="K315" s="12"/>
-    </row>
-    <row r="316" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L315" s="12"/>
+    </row>
+    <row r="316" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H316" s="12"/>
       <c r="K316" s="12"/>
-    </row>
-    <row r="317" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L316" s="12"/>
+    </row>
+    <row r="317" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H317" s="12"/>
       <c r="K317" s="12"/>
-    </row>
-    <row r="318" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L317" s="12"/>
+    </row>
+    <row r="318" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H318" s="12"/>
       <c r="K318" s="12"/>
-    </row>
-    <row r="319" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L318" s="12"/>
+    </row>
+    <row r="319" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H319" s="12"/>
       <c r="K319" s="12"/>
-    </row>
-    <row r="320" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L319" s="12"/>
+    </row>
+    <row r="320" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H320" s="12"/>
       <c r="K320" s="12"/>
-    </row>
-    <row r="321" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L320" s="12"/>
+    </row>
+    <row r="321" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H321" s="12"/>
       <c r="K321" s="12"/>
-    </row>
-    <row r="322" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L321" s="12"/>
+    </row>
+    <row r="322" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H322" s="12"/>
       <c r="K322" s="12"/>
-    </row>
-    <row r="323" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L322" s="12"/>
+    </row>
+    <row r="323" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H323" s="12"/>
       <c r="K323" s="12"/>
-    </row>
-    <row r="324" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L323" s="12"/>
+    </row>
+    <row r="324" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H324" s="12"/>
       <c r="K324" s="12"/>
-    </row>
-    <row r="325" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L324" s="12"/>
+    </row>
+    <row r="325" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H325" s="12"/>
       <c r="K325" s="12"/>
-    </row>
-    <row r="326" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L325" s="12"/>
+    </row>
+    <row r="326" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H326" s="12"/>
       <c r="K326" s="12"/>
-    </row>
-    <row r="327" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L326" s="12"/>
+    </row>
+    <row r="327" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H327" s="12"/>
       <c r="K327" s="12"/>
-    </row>
-    <row r="328" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L327" s="12"/>
+    </row>
+    <row r="328" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H328" s="12"/>
       <c r="K328" s="12"/>
-    </row>
-    <row r="329" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L328" s="12"/>
+    </row>
+    <row r="329" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H329" s="12"/>
       <c r="K329" s="12"/>
-    </row>
-    <row r="330" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L329" s="12"/>
+    </row>
+    <row r="330" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H330" s="12"/>
       <c r="K330" s="12"/>
-    </row>
-    <row r="331" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L330" s="12"/>
+    </row>
+    <row r="331" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H331" s="12"/>
       <c r="K331" s="12"/>
-    </row>
-    <row r="332" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L331" s="12"/>
+    </row>
+    <row r="332" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H332" s="12"/>
       <c r="K332" s="12"/>
-    </row>
-    <row r="333" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L332" s="12"/>
+    </row>
+    <row r="333" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H333" s="12"/>
       <c r="K333" s="12"/>
-    </row>
-    <row r="334" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L333" s="12"/>
+    </row>
+    <row r="334" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H334" s="12"/>
       <c r="K334" s="12"/>
-    </row>
-    <row r="335" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L334" s="12"/>
+    </row>
+    <row r="335" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H335" s="12"/>
       <c r="K335" s="12"/>
-    </row>
-    <row r="336" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L335" s="12"/>
+    </row>
+    <row r="336" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H336" s="12"/>
       <c r="K336" s="12"/>
-    </row>
-    <row r="337" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L336" s="12"/>
+    </row>
+    <row r="337" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H337" s="12"/>
       <c r="K337" s="12"/>
-    </row>
-    <row r="338" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L337" s="12"/>
+    </row>
+    <row r="338" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H338" s="12"/>
       <c r="K338" s="12"/>
-    </row>
-    <row r="339" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L338" s="12"/>
+    </row>
+    <row r="339" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H339" s="12"/>
       <c r="K339" s="12"/>
-    </row>
-    <row r="340" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L339" s="12"/>
+    </row>
+    <row r="340" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H340" s="12"/>
       <c r="K340" s="12"/>
-    </row>
-    <row r="341" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L340" s="12"/>
+    </row>
+    <row r="341" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H341" s="12"/>
       <c r="K341" s="12"/>
-    </row>
-    <row r="342" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L341" s="12"/>
+    </row>
+    <row r="342" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H342" s="12"/>
       <c r="K342" s="12"/>
-    </row>
-    <row r="343" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L342" s="12"/>
+    </row>
+    <row r="343" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H343" s="12"/>
       <c r="K343" s="12"/>
-    </row>
-    <row r="344" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L343" s="12"/>
+    </row>
+    <row r="344" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H344" s="12"/>
       <c r="K344" s="12"/>
-    </row>
-    <row r="345" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L344" s="12"/>
+    </row>
+    <row r="345" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H345" s="12"/>
       <c r="K345" s="12"/>
-    </row>
-    <row r="346" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L345" s="12"/>
+    </row>
+    <row r="346" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H346" s="12"/>
       <c r="K346" s="12"/>
-    </row>
-    <row r="347" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L346" s="12"/>
+    </row>
+    <row r="347" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H347" s="12"/>
       <c r="K347" s="12"/>
-    </row>
-    <row r="348" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L347" s="12"/>
+    </row>
+    <row r="348" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H348" s="12"/>
       <c r="K348" s="12"/>
-    </row>
-    <row r="349" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L348" s="12"/>
+    </row>
+    <row r="349" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H349" s="12"/>
       <c r="K349" s="12"/>
-    </row>
-    <row r="350" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L349" s="12"/>
+    </row>
+    <row r="350" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H350" s="12"/>
       <c r="K350" s="12"/>
-    </row>
-    <row r="351" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L350" s="12"/>
+    </row>
+    <row r="351" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H351" s="12"/>
       <c r="K351" s="12"/>
-    </row>
-    <row r="352" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L351" s="12"/>
+    </row>
+    <row r="352" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H352" s="12"/>
       <c r="K352" s="12"/>
-    </row>
-    <row r="353" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L352" s="12"/>
+    </row>
+    <row r="353" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H353" s="12"/>
       <c r="K353" s="12"/>
-    </row>
-    <row r="354" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L353" s="12"/>
+    </row>
+    <row r="354" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H354" s="12"/>
       <c r="K354" s="12"/>
-    </row>
-    <row r="355" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L354" s="12"/>
+    </row>
+    <row r="355" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H355" s="12"/>
       <c r="K355" s="12"/>
-    </row>
-    <row r="356" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L355" s="12"/>
+    </row>
+    <row r="356" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H356" s="12"/>
       <c r="K356" s="12"/>
-    </row>
-    <row r="357" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L356" s="12"/>
+    </row>
+    <row r="357" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H357" s="12"/>
       <c r="K357" s="12"/>
-    </row>
-    <row r="358" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L357" s="12"/>
+    </row>
+    <row r="358" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H358" s="12"/>
       <c r="K358" s="12"/>
-    </row>
-    <row r="359" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L358" s="12"/>
+    </row>
+    <row r="359" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H359" s="12"/>
       <c r="K359" s="12"/>
-    </row>
-    <row r="360" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L359" s="12"/>
+    </row>
+    <row r="360" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H360" s="12"/>
       <c r="K360" s="12"/>
-    </row>
-    <row r="361" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L360" s="12"/>
+    </row>
+    <row r="361" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H361" s="12"/>
       <c r="K361" s="12"/>
-    </row>
-    <row r="362" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L361" s="12"/>
+    </row>
+    <row r="362" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H362" s="12"/>
       <c r="K362" s="12"/>
-    </row>
-    <row r="363" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L362" s="12"/>
+    </row>
+    <row r="363" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H363" s="12"/>
       <c r="K363" s="12"/>
-    </row>
-    <row r="364" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L363" s="12"/>
+    </row>
+    <row r="364" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H364" s="12"/>
       <c r="K364" s="12"/>
-    </row>
-    <row r="365" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L364" s="12"/>
+    </row>
+    <row r="365" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H365" s="12"/>
       <c r="K365" s="12"/>
-    </row>
-    <row r="366" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L365" s="12"/>
+    </row>
+    <row r="366" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H366" s="12"/>
       <c r="K366" s="12"/>
-    </row>
-    <row r="367" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L366" s="12"/>
+    </row>
+    <row r="367" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H367" s="12"/>
       <c r="K367" s="12"/>
-    </row>
-    <row r="368" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L367" s="12"/>
+    </row>
+    <row r="368" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H368" s="12"/>
       <c r="K368" s="12"/>
-    </row>
-    <row r="369" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L368" s="12"/>
+    </row>
+    <row r="369" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H369" s="12"/>
       <c r="K369" s="12"/>
-    </row>
-    <row r="370" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L369" s="12"/>
+    </row>
+    <row r="370" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H370" s="12"/>
       <c r="K370" s="12"/>
-    </row>
-    <row r="371" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L370" s="12"/>
+    </row>
+    <row r="371" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H371" s="12"/>
       <c r="K371" s="12"/>
-    </row>
-    <row r="372" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L371" s="12"/>
+    </row>
+    <row r="372" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H372" s="12"/>
       <c r="K372" s="12"/>
-    </row>
-    <row r="373" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L372" s="12"/>
+    </row>
+    <row r="373" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H373" s="12"/>
       <c r="K373" s="12"/>
-    </row>
-    <row r="374" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L373" s="12"/>
+    </row>
+    <row r="374" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H374" s="12"/>
       <c r="K374" s="12"/>
-    </row>
-    <row r="375" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L374" s="12"/>
+    </row>
+    <row r="375" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H375" s="12"/>
       <c r="K375" s="12"/>
-    </row>
-    <row r="376" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L375" s="12"/>
+    </row>
+    <row r="376" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H376" s="12"/>
       <c r="K376" s="12"/>
-    </row>
-    <row r="377" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L376" s="12"/>
+    </row>
+    <row r="377" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H377" s="12"/>
       <c r="K377" s="12"/>
-    </row>
-    <row r="378" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L377" s="12"/>
+    </row>
+    <row r="378" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H378" s="12"/>
       <c r="K378" s="12"/>
-    </row>
-    <row r="379" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L378" s="12"/>
+    </row>
+    <row r="379" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H379" s="12"/>
       <c r="K379" s="12"/>
-    </row>
-    <row r="380" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L379" s="12"/>
+    </row>
+    <row r="380" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H380" s="12"/>
       <c r="K380" s="12"/>
-    </row>
-    <row r="381" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L380" s="12"/>
+    </row>
+    <row r="381" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H381" s="12"/>
       <c r="K381" s="12"/>
-    </row>
-    <row r="382" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L381" s="12"/>
+    </row>
+    <row r="382" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H382" s="12"/>
       <c r="K382" s="12"/>
-    </row>
-    <row r="383" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L382" s="12"/>
+    </row>
+    <row r="383" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H383" s="12"/>
       <c r="K383" s="12"/>
-    </row>
-    <row r="384" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L383" s="12"/>
+    </row>
+    <row r="384" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H384" s="12"/>
       <c r="K384" s="12"/>
-    </row>
-    <row r="385" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L384" s="12"/>
+    </row>
+    <row r="385" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H385" s="12"/>
       <c r="K385" s="12"/>
-    </row>
-    <row r="386" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L385" s="12"/>
+    </row>
+    <row r="386" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H386" s="12"/>
       <c r="K386" s="12"/>
-    </row>
-    <row r="387" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L386" s="12"/>
+    </row>
+    <row r="387" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H387" s="12"/>
       <c r="K387" s="12"/>
-    </row>
-    <row r="388" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L387" s="12"/>
+    </row>
+    <row r="388" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H388" s="12"/>
       <c r="K388" s="12"/>
-    </row>
-    <row r="389" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L388" s="12"/>
+    </row>
+    <row r="389" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H389" s="12"/>
       <c r="K389" s="12"/>
-    </row>
-    <row r="390" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L389" s="12"/>
+    </row>
+    <row r="390" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H390" s="12"/>
       <c r="K390" s="12"/>
-    </row>
-    <row r="391" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L390" s="12"/>
+    </row>
+    <row r="391" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H391" s="12"/>
       <c r="K391" s="12"/>
-    </row>
-    <row r="392" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L391" s="12"/>
+    </row>
+    <row r="392" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H392" s="12"/>
       <c r="K392" s="12"/>
-    </row>
-    <row r="393" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L392" s="12"/>
+    </row>
+    <row r="393" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H393" s="12"/>
       <c r="K393" s="12"/>
-    </row>
-    <row r="394" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L393" s="12"/>
+    </row>
+    <row r="394" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H394" s="12"/>
       <c r="K394" s="12"/>
-    </row>
-    <row r="395" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L394" s="12"/>
+    </row>
+    <row r="395" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H395" s="12"/>
       <c r="K395" s="12"/>
-    </row>
-    <row r="396" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L395" s="12"/>
+    </row>
+    <row r="396" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H396" s="12"/>
       <c r="K396" s="12"/>
-    </row>
-    <row r="397" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L396" s="12"/>
+    </row>
+    <row r="397" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H397" s="12"/>
       <c r="K397" s="12"/>
-    </row>
-    <row r="398" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L397" s="12"/>
+    </row>
+    <row r="398" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H398" s="12"/>
       <c r="K398" s="12"/>
-    </row>
-    <row r="399" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L398" s="12"/>
+    </row>
+    <row r="399" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H399" s="12"/>
       <c r="K399" s="12"/>
-    </row>
-    <row r="400" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L399" s="12"/>
+    </row>
+    <row r="400" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H400" s="12"/>
       <c r="K400" s="12"/>
-    </row>
-    <row r="401" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L400" s="12"/>
+    </row>
+    <row r="401" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H401" s="12"/>
       <c r="K401" s="12"/>
-    </row>
-    <row r="402" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L401" s="12"/>
+    </row>
+    <row r="402" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H402" s="12"/>
       <c r="K402" s="12"/>
-    </row>
-    <row r="403" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L402" s="12"/>
+    </row>
+    <row r="403" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H403" s="12"/>
       <c r="K403" s="12"/>
-    </row>
-    <row r="404" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L403" s="12"/>
+    </row>
+    <row r="404" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H404" s="12"/>
       <c r="K404" s="12"/>
-    </row>
-    <row r="405" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L404" s="12"/>
+    </row>
+    <row r="405" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H405" s="12"/>
       <c r="K405" s="12"/>
-    </row>
-    <row r="406" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L405" s="12"/>
+    </row>
+    <row r="406" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H406" s="12"/>
       <c r="K406" s="12"/>
-    </row>
-    <row r="407" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L406" s="12"/>
+    </row>
+    <row r="407" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H407" s="12"/>
       <c r="K407" s="12"/>
-    </row>
-    <row r="408" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="L407" s="12"/>
+    </row>
+    <row r="408" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H408" s="12"/>
     </row>
-    <row r="409" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="409" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H409" s="12"/>
     </row>
-    <row r="410" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="410" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H410" s="12"/>
     </row>
-    <row r="411" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="411" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H411" s="12"/>
     </row>
-    <row r="412" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="412" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H412" s="12"/>
     </row>
-    <row r="413" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="413" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H413" s="12"/>
     </row>
-    <row r="414" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="414" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H414" s="12"/>
     </row>
-    <row r="415" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="415" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H415" s="12"/>
     </row>
-    <row r="416" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="416" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H416" s="12"/>
     </row>
     <row r="417" spans="8:8" x14ac:dyDescent="0.35">
@@ -3900,17 +4310,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
       <formula1>INDIRECT("orígen")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6CDAF01B-F445-4E94-939C-DE3C30974269}">
-      <formula1>INDIRECT($V$1)</formula1>
+      <formula1>INDIRECT($W$1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
-      <formula1>INDIRECT($W$1)</formula1>
+      <formula1>INDIRECT($X$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
-      <formula1>INDIRECT($X$1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+      <formula1>INDIRECT($Y$1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4210,7 +4620,7 @@
       <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4373,7 +4783,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
     </row>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CB548-48DB-4E1A-AEC7-7C20101BEB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159D28E7-8DEA-4A0F-8D10-7A9A245D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Orígen" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$T$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Nombre</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Crédito</t>
+  </si>
+  <si>
+    <t>Mensajes</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -540,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB508"/>
+  <dimension ref="A1:AC508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1584,23 +1593,24 @@
     <col min="3" max="3" width="17.08984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="20" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="10.90625" style="6" customWidth="1"/>
-    <col min="13" max="16" width="20" style="6" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.08984375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.81640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.54296875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="6"/>
+    <col min="6" max="6" width="29.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="10.90625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="20" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.08984375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.81640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.54296875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1616,2711 +1626,2847 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
-      <c r="H2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="F2" s="17"/>
+      <c r="I2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="S2" s="6" t="s">
+      <c r="M2" s="12"/>
+      <c r="T2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H3" s="12"/>
-      <c r="K3" s="12"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="F3" s="17"/>
+      <c r="I3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="W3" s="5"/>
+      <c r="M3" s="12"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
-      <c r="H4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="F4" s="17"/>
+      <c r="I4" s="12"/>
       <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
-      <c r="H5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="F5" s="17"/>
+      <c r="I5" s="12"/>
       <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
-      <c r="H6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="I6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M6" s="12"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="H7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="F7" s="17"/>
+      <c r="I7" s="12"/>
       <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
-      <c r="H8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="F8" s="17"/>
+      <c r="I8" s="12"/>
       <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="H9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="I9" s="12"/>
       <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
-      <c r="H10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="F10" s="17"/>
+      <c r="I10" s="12"/>
       <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="H11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="F11" s="17"/>
+      <c r="I11" s="12"/>
       <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="H12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="F12" s="17"/>
+      <c r="I12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="H13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="F13" s="17"/>
+      <c r="I13" s="12"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
-      <c r="H14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="F14" s="17"/>
+      <c r="I14" s="12"/>
       <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
-      <c r="H15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="F15" s="17"/>
+      <c r="I15" s="12"/>
       <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
-      <c r="H16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="I16" s="12"/>
       <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="H17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="F17" s="17"/>
+      <c r="I17" s="12"/>
       <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
-      <c r="H18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="F18" s="17"/>
+      <c r="I18" s="12"/>
       <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
-      <c r="H19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="F19" s="17"/>
+      <c r="I19" s="12"/>
       <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
-      <c r="H20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="F20" s="17"/>
+      <c r="I20" s="12"/>
       <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="H21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="F21" s="17"/>
+      <c r="I21" s="12"/>
       <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="F22" s="17"/>
+      <c r="I22" s="12"/>
       <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="H23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="F23" s="17"/>
+      <c r="I23" s="12"/>
       <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
-      <c r="H24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="F24" s="17"/>
+      <c r="I24" s="12"/>
       <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
-      <c r="H25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="F25" s="17"/>
+      <c r="I25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
-      <c r="H26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="F26" s="17"/>
+      <c r="I26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
-      <c r="H27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="F27" s="17"/>
+      <c r="I27" s="12"/>
       <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
-      <c r="H28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="I28" s="12"/>
       <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
-      <c r="H29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="F29" s="17"/>
+      <c r="I29" s="12"/>
       <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
-      <c r="H30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="F30" s="17"/>
+      <c r="I30" s="12"/>
       <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
-      <c r="H31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="F31" s="17"/>
+      <c r="I31" s="12"/>
       <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
-      <c r="H32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="F32" s="17"/>
+      <c r="I32" s="12"/>
       <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
-      <c r="H33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="F33" s="17"/>
+      <c r="I33" s="12"/>
       <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
-      <c r="H34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="F34" s="17"/>
+      <c r="I34" s="12"/>
       <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
-      <c r="H35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="F35" s="17"/>
+      <c r="I35" s="12"/>
       <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
-      <c r="H36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="F36" s="17"/>
+      <c r="I36" s="12"/>
       <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
-      <c r="H37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="F37" s="17"/>
+      <c r="I37" s="12"/>
       <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
-      <c r="H38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="F38" s="17"/>
+      <c r="I38" s="12"/>
       <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
-      <c r="H39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="F39" s="17"/>
+      <c r="I39" s="12"/>
       <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
-      <c r="H40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="F40" s="17"/>
+      <c r="I40" s="12"/>
       <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
-      <c r="H41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="F41" s="17"/>
+      <c r="I41" s="12"/>
       <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
-      <c r="H42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="F42" s="17"/>
+      <c r="I42" s="12"/>
       <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="H43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="F43" s="17"/>
+      <c r="I43" s="12"/>
       <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
-      <c r="H44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="F44" s="17"/>
+      <c r="I44" s="12"/>
       <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
-      <c r="H45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="F45" s="17"/>
+      <c r="I45" s="12"/>
       <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="7"/>
-      <c r="H46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="F46" s="17"/>
+      <c r="I46" s="12"/>
       <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
-      <c r="H47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="F47" s="17"/>
+      <c r="I47" s="12"/>
       <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="7"/>
-      <c r="H48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="F48" s="17"/>
+      <c r="I48" s="12"/>
       <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="7"/>
-      <c r="H49" s="12"/>
-      <c r="K49" s="12"/>
+      <c r="F49" s="17"/>
+      <c r="I49" s="12"/>
       <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="7"/>
-      <c r="H50" s="12"/>
-      <c r="K50" s="12"/>
+      <c r="F50" s="17"/>
+      <c r="I50" s="12"/>
       <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="7"/>
-      <c r="H51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="F51" s="17"/>
+      <c r="I51" s="12"/>
       <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="7"/>
-      <c r="H52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="F52" s="17"/>
+      <c r="I52" s="12"/>
       <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="7"/>
-      <c r="H53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="F53" s="17"/>
+      <c r="I53" s="12"/>
       <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
-      <c r="H54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="F54" s="17"/>
+      <c r="I54" s="12"/>
       <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="7"/>
-      <c r="H55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="F55" s="17"/>
+      <c r="I55" s="12"/>
       <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="7"/>
-      <c r="H56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="F56" s="17"/>
+      <c r="I56" s="12"/>
       <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="7"/>
-      <c r="H57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="F57" s="17"/>
+      <c r="I57" s="12"/>
       <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="7"/>
-      <c r="H58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="F58" s="17"/>
+      <c r="I58" s="12"/>
       <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="7"/>
-      <c r="H59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="F59" s="17"/>
+      <c r="I59" s="12"/>
       <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="7"/>
-      <c r="H60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="F60" s="17"/>
+      <c r="I60" s="12"/>
       <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="7"/>
-      <c r="H61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="F61" s="17"/>
+      <c r="I61" s="12"/>
       <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="7"/>
-      <c r="H62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="F62" s="17"/>
+      <c r="I62" s="12"/>
       <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="7"/>
-      <c r="H63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="F63" s="17"/>
+      <c r="I63" s="12"/>
       <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="7"/>
-      <c r="H64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="F64" s="17"/>
+      <c r="I64" s="12"/>
       <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="7"/>
-      <c r="H65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="F65" s="17"/>
+      <c r="I65" s="12"/>
       <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="7"/>
-      <c r="H66" s="12"/>
-      <c r="K66" s="12"/>
+      <c r="F66" s="17"/>
+      <c r="I66" s="12"/>
       <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="7"/>
-      <c r="H67" s="12"/>
-      <c r="K67" s="12"/>
+      <c r="F67" s="17"/>
+      <c r="I67" s="12"/>
       <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
-      <c r="H68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="F68" s="17"/>
+      <c r="I68" s="12"/>
       <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
-      <c r="H69" s="12"/>
-      <c r="K69" s="12"/>
+      <c r="F69" s="17"/>
+      <c r="I69" s="12"/>
       <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
-      <c r="H70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="F70" s="17"/>
+      <c r="I70" s="12"/>
       <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
-      <c r="H71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="F71" s="17"/>
+      <c r="I71" s="12"/>
       <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
-      <c r="H72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="F72" s="17"/>
+      <c r="I72" s="12"/>
       <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
-      <c r="H73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="F73" s="17"/>
+      <c r="I73" s="12"/>
       <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
-      <c r="H74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="F74" s="17"/>
+      <c r="I74" s="12"/>
       <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
-      <c r="H75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="F75" s="17"/>
+      <c r="I75" s="12"/>
       <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="7"/>
-      <c r="H76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="F76" s="17"/>
+      <c r="I76" s="12"/>
       <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="7"/>
-      <c r="H77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="F77" s="17"/>
+      <c r="I77" s="12"/>
       <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
-      <c r="H78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="F78" s="17"/>
+      <c r="I78" s="12"/>
       <c r="L78" s="12"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="7"/>
-      <c r="H79" s="12"/>
-      <c r="K79" s="12"/>
+      <c r="F79" s="17"/>
+      <c r="I79" s="12"/>
       <c r="L79" s="12"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
-      <c r="H80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="F80" s="17"/>
+      <c r="I80" s="12"/>
       <c r="L80" s="12"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="7"/>
-      <c r="H81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="F81" s="17"/>
+      <c r="I81" s="12"/>
       <c r="L81" s="12"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="7"/>
-      <c r="H82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="F82" s="17"/>
+      <c r="I82" s="12"/>
       <c r="L82" s="12"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="7"/>
-      <c r="H83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="F83" s="17"/>
+      <c r="I83" s="12"/>
       <c r="L83" s="12"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="7"/>
-      <c r="H84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="F84" s="17"/>
+      <c r="I84" s="12"/>
       <c r="L84" s="12"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="7"/>
-      <c r="H85" s="12"/>
-      <c r="K85" s="12"/>
+      <c r="F85" s="17"/>
+      <c r="I85" s="12"/>
       <c r="L85" s="12"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M85" s="12"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="7"/>
-      <c r="H86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="F86" s="17"/>
+      <c r="I86" s="12"/>
       <c r="L86" s="12"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M86" s="12"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="7"/>
-      <c r="H87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="F87" s="17"/>
+      <c r="I87" s="12"/>
       <c r="L87" s="12"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M87" s="12"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="7"/>
-      <c r="H88" s="12"/>
-      <c r="K88" s="12"/>
+      <c r="F88" s="17"/>
+      <c r="I88" s="12"/>
       <c r="L88" s="12"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M88" s="12"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="7"/>
-      <c r="H89" s="12"/>
-      <c r="K89" s="12"/>
+      <c r="F89" s="17"/>
+      <c r="I89" s="12"/>
       <c r="L89" s="12"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="7"/>
-      <c r="H90" s="12"/>
-      <c r="K90" s="12"/>
+      <c r="F90" s="17"/>
+      <c r="I90" s="12"/>
       <c r="L90" s="12"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M90" s="12"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="7"/>
-      <c r="H91" s="12"/>
-      <c r="K91" s="12"/>
+      <c r="F91" s="17"/>
+      <c r="I91" s="12"/>
       <c r="L91" s="12"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="7"/>
-      <c r="H92" s="12"/>
-      <c r="K92" s="12"/>
+      <c r="F92" s="17"/>
+      <c r="I92" s="12"/>
       <c r="L92" s="12"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M92" s="12"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="7"/>
-      <c r="H93" s="12"/>
-      <c r="K93" s="12"/>
+      <c r="F93" s="17"/>
+      <c r="I93" s="12"/>
       <c r="L93" s="12"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M93" s="12"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="7"/>
-      <c r="H94" s="12"/>
-      <c r="K94" s="12"/>
+      <c r="F94" s="17"/>
+      <c r="I94" s="12"/>
       <c r="L94" s="12"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M94" s="12"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
-      <c r="H95" s="12"/>
-      <c r="K95" s="12"/>
+      <c r="F95" s="17"/>
+      <c r="I95" s="12"/>
       <c r="L95" s="12"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M95" s="12"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
-      <c r="H96" s="12"/>
-      <c r="K96" s="12"/>
+      <c r="F96" s="17"/>
+      <c r="I96" s="12"/>
       <c r="L96" s="12"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M96" s="12"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
-      <c r="H97" s="12"/>
-      <c r="K97" s="12"/>
+      <c r="F97" s="17"/>
+      <c r="I97" s="12"/>
       <c r="L97" s="12"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M97" s="12"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
-      <c r="H98" s="12"/>
-      <c r="K98" s="12"/>
+      <c r="F98" s="17"/>
+      <c r="I98" s="12"/>
       <c r="L98" s="12"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M98" s="12"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
-      <c r="H99" s="12"/>
-      <c r="K99" s="12"/>
+      <c r="F99" s="17"/>
+      <c r="I99" s="12"/>
       <c r="L99" s="12"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M99" s="12"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
-      <c r="H100" s="12"/>
-      <c r="K100" s="12"/>
+      <c r="F100" s="17"/>
+      <c r="I100" s="12"/>
       <c r="L100" s="12"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M100" s="12"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
-      <c r="H101" s="12"/>
-      <c r="K101" s="12"/>
+      <c r="F101" s="17"/>
+      <c r="I101" s="12"/>
       <c r="L101" s="12"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M101" s="12"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
-      <c r="H102" s="12"/>
-      <c r="K102" s="12"/>
+      <c r="F102" s="17"/>
+      <c r="I102" s="12"/>
       <c r="L102" s="12"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M102" s="12"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
-      <c r="H103" s="12"/>
-      <c r="K103" s="12"/>
+      <c r="F103" s="17"/>
+      <c r="I103" s="12"/>
       <c r="L103" s="12"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M103" s="12"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
-      <c r="H104" s="12"/>
-      <c r="K104" s="12"/>
+      <c r="F104" s="17"/>
+      <c r="I104" s="12"/>
       <c r="L104" s="12"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M104" s="12"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
-      <c r="H105" s="12"/>
-      <c r="K105" s="12"/>
+      <c r="F105" s="17"/>
+      <c r="I105" s="12"/>
       <c r="L105" s="12"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M105" s="12"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
-      <c r="H106" s="12"/>
-      <c r="K106" s="12"/>
+      <c r="F106" s="17"/>
+      <c r="I106" s="12"/>
       <c r="L106" s="12"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M106" s="12"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
-      <c r="H107" s="12"/>
-      <c r="K107" s="12"/>
+      <c r="F107" s="17"/>
+      <c r="I107" s="12"/>
       <c r="L107" s="12"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M107" s="12"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
-      <c r="H108" s="12"/>
-      <c r="K108" s="12"/>
+      <c r="F108" s="17"/>
+      <c r="I108" s="12"/>
       <c r="L108" s="12"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M108" s="12"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
-      <c r="H109" s="12"/>
-      <c r="K109" s="12"/>
+      <c r="F109" s="17"/>
+      <c r="I109" s="12"/>
       <c r="L109" s="12"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M109" s="12"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
-      <c r="H110" s="12"/>
-      <c r="K110" s="12"/>
+      <c r="F110" s="17"/>
+      <c r="I110" s="12"/>
       <c r="L110" s="12"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M110" s="12"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
-      <c r="H111" s="12"/>
-      <c r="K111" s="12"/>
+      <c r="F111" s="17"/>
+      <c r="I111" s="12"/>
       <c r="L111" s="12"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M111" s="12"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
-      <c r="H112" s="12"/>
-      <c r="K112" s="12"/>
+      <c r="F112" s="17"/>
+      <c r="I112" s="12"/>
       <c r="L112" s="12"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M112" s="12"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="7"/>
-      <c r="H113" s="12"/>
-      <c r="K113" s="12"/>
+      <c r="F113" s="17"/>
+      <c r="I113" s="12"/>
       <c r="L113" s="12"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M113" s="12"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="7"/>
-      <c r="H114" s="12"/>
-      <c r="K114" s="12"/>
+      <c r="F114" s="17"/>
+      <c r="I114" s="12"/>
       <c r="L114" s="12"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M114" s="12"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="7"/>
-      <c r="H115" s="12"/>
-      <c r="K115" s="12"/>
+      <c r="F115" s="17"/>
+      <c r="I115" s="12"/>
       <c r="L115" s="12"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M115" s="12"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
-      <c r="H116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="F116" s="17"/>
+      <c r="I116" s="12"/>
       <c r="L116" s="12"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M116" s="12"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
-      <c r="H117" s="12"/>
-      <c r="K117" s="12"/>
+      <c r="F117" s="17"/>
+      <c r="I117" s="12"/>
       <c r="L117" s="12"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M117" s="12"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
-      <c r="H118" s="12"/>
-      <c r="K118" s="12"/>
+      <c r="F118" s="17"/>
+      <c r="I118" s="12"/>
       <c r="L118" s="12"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M118" s="12"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
-      <c r="H119" s="12"/>
-      <c r="K119" s="12"/>
+      <c r="F119" s="17"/>
+      <c r="I119" s="12"/>
       <c r="L119" s="12"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M119" s="12"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
-      <c r="H120" s="12"/>
-      <c r="K120" s="12"/>
+      <c r="F120" s="17"/>
+      <c r="I120" s="12"/>
       <c r="L120" s="12"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M120" s="12"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
-      <c r="H121" s="12"/>
-      <c r="K121" s="12"/>
+      <c r="F121" s="17"/>
+      <c r="I121" s="12"/>
       <c r="L121" s="12"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M121" s="12"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="7"/>
-      <c r="H122" s="12"/>
-      <c r="K122" s="12"/>
+      <c r="F122" s="17"/>
+      <c r="I122" s="12"/>
       <c r="L122" s="12"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M122" s="12"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
-      <c r="H123" s="12"/>
-      <c r="K123" s="12"/>
+      <c r="F123" s="17"/>
+      <c r="I123" s="12"/>
       <c r="L123" s="12"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M123" s="12"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
-      <c r="H124" s="12"/>
-      <c r="K124" s="12"/>
+      <c r="F124" s="17"/>
+      <c r="I124" s="12"/>
       <c r="L124" s="12"/>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M124" s="12"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="7"/>
-      <c r="H125" s="12"/>
-      <c r="K125" s="12"/>
+      <c r="F125" s="17"/>
+      <c r="I125" s="12"/>
       <c r="L125" s="12"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M125" s="12"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="7"/>
-      <c r="H126" s="12"/>
-      <c r="K126" s="12"/>
+      <c r="F126" s="17"/>
+      <c r="I126" s="12"/>
       <c r="L126" s="12"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M126" s="12"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="7"/>
-      <c r="H127" s="12"/>
-      <c r="K127" s="12"/>
+      <c r="F127" s="17"/>
+      <c r="I127" s="12"/>
       <c r="L127" s="12"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M127" s="12"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="7"/>
-      <c r="H128" s="12"/>
-      <c r="K128" s="12"/>
+      <c r="F128" s="17"/>
+      <c r="I128" s="12"/>
       <c r="L128" s="12"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M128" s="12"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="7"/>
-      <c r="H129" s="12"/>
-      <c r="K129" s="12"/>
+      <c r="F129" s="17"/>
+      <c r="I129" s="12"/>
       <c r="L129" s="12"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M129" s="12"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B130" s="7"/>
-      <c r="H130" s="12"/>
-      <c r="K130" s="12"/>
+      <c r="F130" s="17"/>
+      <c r="I130" s="12"/>
       <c r="L130" s="12"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M130" s="12"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B131" s="7"/>
-      <c r="H131" s="12"/>
-      <c r="K131" s="12"/>
+      <c r="F131" s="17"/>
+      <c r="I131" s="12"/>
       <c r="L131" s="12"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M131" s="12"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B132" s="7"/>
-      <c r="H132" s="12"/>
-      <c r="K132" s="12"/>
+      <c r="F132" s="17"/>
+      <c r="I132" s="12"/>
       <c r="L132" s="12"/>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M132" s="12"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B133" s="7"/>
-      <c r="H133" s="12"/>
-      <c r="K133" s="12"/>
+      <c r="F133" s="17"/>
+      <c r="I133" s="12"/>
       <c r="L133" s="12"/>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M133" s="12"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B134" s="7"/>
-      <c r="H134" s="12"/>
-      <c r="K134" s="12"/>
+      <c r="F134" s="17"/>
+      <c r="I134" s="12"/>
       <c r="L134" s="12"/>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M134" s="12"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B135" s="7"/>
-      <c r="H135" s="12"/>
-      <c r="K135" s="12"/>
+      <c r="I135" s="12"/>
       <c r="L135" s="12"/>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M135" s="12"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B136" s="7"/>
-      <c r="H136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="I136" s="12"/>
       <c r="L136" s="12"/>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M136" s="12"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B137" s="7"/>
-      <c r="H137" s="12"/>
-      <c r="K137" s="12"/>
+      <c r="I137" s="12"/>
       <c r="L137" s="12"/>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M137" s="12"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B138" s="7"/>
-      <c r="H138" s="12"/>
-      <c r="K138" s="12"/>
+      <c r="I138" s="12"/>
       <c r="L138" s="12"/>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M138" s="12"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B139" s="7"/>
-      <c r="H139" s="12"/>
-      <c r="K139" s="12"/>
+      <c r="I139" s="12"/>
       <c r="L139" s="12"/>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M139" s="12"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B140" s="7"/>
-      <c r="H140" s="12"/>
-      <c r="K140" s="12"/>
+      <c r="I140" s="12"/>
       <c r="L140" s="12"/>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M140" s="12"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B141" s="7"/>
-      <c r="H141" s="12"/>
-      <c r="K141" s="12"/>
+      <c r="I141" s="12"/>
       <c r="L141" s="12"/>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M141" s="12"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B142" s="7"/>
-      <c r="H142" s="12"/>
-      <c r="K142" s="12"/>
+      <c r="I142" s="12"/>
       <c r="L142" s="12"/>
-    </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M142" s="12"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B143" s="7"/>
-      <c r="H143" s="12"/>
-      <c r="K143" s="12"/>
+      <c r="I143" s="12"/>
       <c r="L143" s="12"/>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M143" s="12"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B144" s="7"/>
-      <c r="H144" s="12"/>
-      <c r="K144" s="12"/>
+      <c r="I144" s="12"/>
       <c r="L144" s="12"/>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M144" s="12"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B145" s="7"/>
-      <c r="H145" s="12"/>
-      <c r="K145" s="12"/>
+      <c r="I145" s="12"/>
       <c r="L145" s="12"/>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M145" s="12"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B146" s="7"/>
-      <c r="H146" s="12"/>
-      <c r="K146" s="12"/>
+      <c r="I146" s="12"/>
       <c r="L146" s="12"/>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M146" s="12"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B147" s="7"/>
-      <c r="H147" s="12"/>
-      <c r="K147" s="12"/>
+      <c r="I147" s="12"/>
       <c r="L147" s="12"/>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M147" s="12"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B148" s="7"/>
-      <c r="H148" s="12"/>
-      <c r="K148" s="12"/>
+      <c r="I148" s="12"/>
       <c r="L148" s="12"/>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M148" s="12"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B149" s="7"/>
-      <c r="H149" s="12"/>
-      <c r="K149" s="12"/>
+      <c r="I149" s="12"/>
       <c r="L149" s="12"/>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M149" s="12"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B150" s="7"/>
-      <c r="H150" s="12"/>
-      <c r="K150" s="12"/>
+      <c r="I150" s="12"/>
       <c r="L150" s="12"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M150" s="12"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B151" s="7"/>
-      <c r="H151" s="12"/>
-      <c r="K151" s="12"/>
+      <c r="I151" s="12"/>
       <c r="L151" s="12"/>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M151" s="12"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B152" s="7"/>
-      <c r="H152" s="12"/>
-      <c r="K152" s="12"/>
+      <c r="I152" s="12"/>
       <c r="L152" s="12"/>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M152" s="12"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B153" s="7"/>
-      <c r="H153" s="12"/>
-      <c r="K153" s="12"/>
+      <c r="I153" s="12"/>
       <c r="L153" s="12"/>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M153" s="12"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B154" s="7"/>
-      <c r="H154" s="12"/>
-      <c r="K154" s="12"/>
+      <c r="I154" s="12"/>
       <c r="L154" s="12"/>
-    </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M154" s="12"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B155" s="7"/>
-      <c r="H155" s="12"/>
-      <c r="K155" s="12"/>
+      <c r="I155" s="12"/>
       <c r="L155" s="12"/>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M155" s="12"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B156" s="7"/>
-      <c r="H156" s="12"/>
-      <c r="K156" s="12"/>
+      <c r="I156" s="12"/>
       <c r="L156" s="12"/>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M156" s="12"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B157" s="7"/>
-      <c r="H157" s="12"/>
-      <c r="K157" s="12"/>
+      <c r="I157" s="12"/>
       <c r="L157" s="12"/>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M157" s="12"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B158" s="7"/>
-      <c r="H158" s="12"/>
-      <c r="K158" s="12"/>
+      <c r="I158" s="12"/>
       <c r="L158" s="12"/>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M158" s="12"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B159" s="7"/>
-      <c r="H159" s="12"/>
-      <c r="K159" s="12"/>
+      <c r="I159" s="12"/>
       <c r="L159" s="12"/>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M159" s="12"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B160" s="7"/>
-      <c r="H160" s="12"/>
-      <c r="K160" s="12"/>
+      <c r="I160" s="12"/>
       <c r="L160" s="12"/>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M160" s="12"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B161" s="7"/>
-      <c r="H161" s="12"/>
-      <c r="K161" s="12"/>
+      <c r="I161" s="12"/>
       <c r="L161" s="12"/>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M161" s="12"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B162" s="7"/>
-      <c r="H162" s="12"/>
-      <c r="K162" s="12"/>
+      <c r="I162" s="12"/>
       <c r="L162" s="12"/>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M162" s="12"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B163" s="7"/>
-      <c r="H163" s="12"/>
-      <c r="K163" s="12"/>
+      <c r="I163" s="12"/>
       <c r="L163" s="12"/>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M163" s="12"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B164" s="7"/>
-      <c r="H164" s="12"/>
-      <c r="K164" s="12"/>
+      <c r="I164" s="12"/>
       <c r="L164" s="12"/>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M164" s="12"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B165" s="7"/>
-      <c r="H165" s="12"/>
-      <c r="K165" s="12"/>
+      <c r="I165" s="12"/>
       <c r="L165" s="12"/>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M165" s="12"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B166" s="7"/>
-      <c r="H166" s="12"/>
-      <c r="K166" s="12"/>
+      <c r="I166" s="12"/>
       <c r="L166" s="12"/>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M166" s="12"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B167" s="7"/>
-      <c r="H167" s="12"/>
-      <c r="K167" s="12"/>
+      <c r="I167" s="12"/>
       <c r="L167" s="12"/>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M167" s="12"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B168" s="7"/>
-      <c r="H168" s="12"/>
-      <c r="K168" s="12"/>
+      <c r="I168" s="12"/>
       <c r="L168" s="12"/>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M168" s="12"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B169" s="7"/>
-      <c r="H169" s="12"/>
-      <c r="K169" s="12"/>
+      <c r="I169" s="12"/>
       <c r="L169" s="12"/>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M169" s="12"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B170" s="7"/>
-      <c r="H170" s="12"/>
-      <c r="K170" s="12"/>
+      <c r="I170" s="12"/>
       <c r="L170" s="12"/>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M170" s="12"/>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B171" s="7"/>
-      <c r="H171" s="12"/>
-      <c r="K171" s="12"/>
+      <c r="I171" s="12"/>
       <c r="L171" s="12"/>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M171" s="12"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B172" s="7"/>
-      <c r="H172" s="12"/>
-      <c r="K172" s="12"/>
+      <c r="I172" s="12"/>
       <c r="L172" s="12"/>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M172" s="12"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B173" s="7"/>
-      <c r="H173" s="12"/>
-      <c r="K173" s="12"/>
+      <c r="I173" s="12"/>
       <c r="L173" s="12"/>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M173" s="12"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B174" s="7"/>
-      <c r="H174" s="12"/>
-      <c r="K174" s="12"/>
+      <c r="I174" s="12"/>
       <c r="L174" s="12"/>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M174" s="12"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B175" s="7"/>
-      <c r="H175" s="12"/>
-      <c r="K175" s="12"/>
+      <c r="I175" s="12"/>
       <c r="L175" s="12"/>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M175" s="12"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B176" s="7"/>
-      <c r="H176" s="12"/>
-      <c r="K176" s="12"/>
+      <c r="I176" s="12"/>
       <c r="L176" s="12"/>
-    </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M176" s="12"/>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B177" s="7"/>
-      <c r="H177" s="12"/>
-      <c r="K177" s="12"/>
+      <c r="I177" s="12"/>
       <c r="L177" s="12"/>
-    </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M177" s="12"/>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B178" s="7"/>
-      <c r="H178" s="12"/>
-      <c r="K178" s="12"/>
+      <c r="I178" s="12"/>
       <c r="L178" s="12"/>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M178" s="12"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B179" s="7"/>
-      <c r="H179" s="12"/>
-      <c r="K179" s="12"/>
+      <c r="I179" s="12"/>
       <c r="L179" s="12"/>
-    </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M179" s="12"/>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B180" s="7"/>
-      <c r="H180" s="12"/>
-      <c r="K180" s="12"/>
+      <c r="I180" s="12"/>
       <c r="L180" s="12"/>
-    </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M180" s="12"/>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B181" s="7"/>
-      <c r="H181" s="12"/>
-      <c r="K181" s="12"/>
+      <c r="I181" s="12"/>
       <c r="L181" s="12"/>
-    </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M181" s="12"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B182" s="7"/>
-      <c r="H182" s="12"/>
-      <c r="K182" s="12"/>
+      <c r="I182" s="12"/>
       <c r="L182" s="12"/>
-    </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M182" s="12"/>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B183" s="7"/>
-      <c r="H183" s="12"/>
-      <c r="K183" s="12"/>
+      <c r="I183" s="12"/>
       <c r="L183" s="12"/>
-    </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M183" s="12"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B184" s="7"/>
-      <c r="H184" s="12"/>
-      <c r="K184" s="12"/>
+      <c r="I184" s="12"/>
       <c r="L184" s="12"/>
-    </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M184" s="12"/>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B185" s="7"/>
-      <c r="H185" s="12"/>
-      <c r="K185" s="12"/>
+      <c r="I185" s="12"/>
       <c r="L185" s="12"/>
-    </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M185" s="12"/>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B186" s="7"/>
-      <c r="H186" s="12"/>
-      <c r="K186" s="12"/>
+      <c r="I186" s="12"/>
       <c r="L186" s="12"/>
-    </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M186" s="12"/>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B187" s="7"/>
-      <c r="H187" s="12"/>
-      <c r="K187" s="12"/>
+      <c r="I187" s="12"/>
       <c r="L187" s="12"/>
-    </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M187" s="12"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B188" s="7"/>
-      <c r="H188" s="12"/>
-      <c r="K188" s="12"/>
+      <c r="I188" s="12"/>
       <c r="L188" s="12"/>
-    </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M188" s="12"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B189" s="7"/>
-      <c r="H189" s="12"/>
-      <c r="K189" s="12"/>
+      <c r="I189" s="12"/>
       <c r="L189" s="12"/>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M189" s="12"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B190" s="7"/>
-      <c r="H190" s="12"/>
-      <c r="K190" s="12"/>
+      <c r="I190" s="12"/>
       <c r="L190" s="12"/>
-    </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M190" s="12"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B191" s="7"/>
-      <c r="H191" s="12"/>
-      <c r="K191" s="12"/>
+      <c r="I191" s="12"/>
       <c r="L191" s="12"/>
-    </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M191" s="12"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B192" s="7"/>
-      <c r="H192" s="12"/>
-      <c r="K192" s="12"/>
+      <c r="I192" s="12"/>
       <c r="L192" s="12"/>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M192" s="12"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B193" s="7"/>
-      <c r="H193" s="12"/>
-      <c r="K193" s="12"/>
+      <c r="I193" s="12"/>
       <c r="L193" s="12"/>
-    </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M193" s="12"/>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B194" s="7"/>
-      <c r="H194" s="12"/>
-      <c r="K194" s="12"/>
+      <c r="I194" s="12"/>
       <c r="L194" s="12"/>
-    </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M194" s="12"/>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B195" s="7"/>
-      <c r="H195" s="12"/>
-      <c r="K195" s="12"/>
+      <c r="I195" s="12"/>
       <c r="L195" s="12"/>
-    </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M195" s="12"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B196" s="7"/>
-      <c r="H196" s="12"/>
-      <c r="K196" s="12"/>
+      <c r="I196" s="12"/>
       <c r="L196" s="12"/>
-    </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M196" s="12"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B197" s="7"/>
-      <c r="H197" s="12"/>
-      <c r="K197" s="12"/>
+      <c r="I197" s="12"/>
       <c r="L197" s="12"/>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M197" s="12"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B198" s="7"/>
-      <c r="H198" s="12"/>
-      <c r="K198" s="12"/>
+      <c r="I198" s="12"/>
       <c r="L198" s="12"/>
-    </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M198" s="12"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B199" s="7"/>
-      <c r="H199" s="12"/>
-      <c r="K199" s="12"/>
+      <c r="I199" s="12"/>
       <c r="L199" s="12"/>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M199" s="12"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B200" s="7"/>
-      <c r="H200" s="12"/>
-      <c r="K200" s="12"/>
+      <c r="I200" s="12"/>
       <c r="L200" s="12"/>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M200" s="12"/>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B201" s="7"/>
-      <c r="H201" s="12"/>
-      <c r="K201" s="12"/>
+      <c r="I201" s="12"/>
       <c r="L201" s="12"/>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M201" s="12"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B202" s="7"/>
-      <c r="H202" s="12"/>
-      <c r="K202" s="12"/>
+      <c r="I202" s="12"/>
       <c r="L202" s="12"/>
-    </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M202" s="12"/>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B203" s="7"/>
-      <c r="H203" s="12"/>
-      <c r="K203" s="12"/>
+      <c r="I203" s="12"/>
       <c r="L203" s="12"/>
-    </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M203" s="12"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B204" s="7"/>
-      <c r="H204" s="12"/>
-      <c r="K204" s="12"/>
+      <c r="I204" s="12"/>
       <c r="L204" s="12"/>
-    </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M204" s="12"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B205" s="7"/>
-      <c r="H205" s="12"/>
-      <c r="K205" s="12"/>
+      <c r="I205" s="12"/>
       <c r="L205" s="12"/>
-    </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M205" s="12"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B206" s="7"/>
-      <c r="H206" s="12"/>
-      <c r="K206" s="12"/>
+      <c r="I206" s="12"/>
       <c r="L206" s="12"/>
-    </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M206" s="12"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B207" s="7"/>
-      <c r="H207" s="12"/>
-      <c r="K207" s="12"/>
+      <c r="I207" s="12"/>
       <c r="L207" s="12"/>
-    </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M207" s="12"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B208" s="7"/>
-      <c r="H208" s="12"/>
-      <c r="K208" s="12"/>
+      <c r="I208" s="12"/>
       <c r="L208" s="12"/>
-    </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M208" s="12"/>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B209" s="7"/>
-      <c r="H209" s="12"/>
-      <c r="K209" s="12"/>
+      <c r="I209" s="12"/>
       <c r="L209" s="12"/>
-    </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M209" s="12"/>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B210" s="7"/>
-      <c r="H210" s="12"/>
-      <c r="K210" s="12"/>
+      <c r="I210" s="12"/>
       <c r="L210" s="12"/>
-    </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M210" s="12"/>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B211" s="7"/>
-      <c r="H211" s="12"/>
-      <c r="K211" s="12"/>
+      <c r="I211" s="12"/>
       <c r="L211" s="12"/>
-    </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M211" s="12"/>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B212" s="7"/>
-      <c r="H212" s="12"/>
-      <c r="K212" s="12"/>
+      <c r="I212" s="12"/>
       <c r="L212" s="12"/>
-    </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M212" s="12"/>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B213" s="7"/>
-      <c r="H213" s="12"/>
-      <c r="K213" s="12"/>
+      <c r="I213" s="12"/>
       <c r="L213" s="12"/>
-    </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M213" s="12"/>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B214" s="7"/>
-      <c r="H214" s="12"/>
-      <c r="K214" s="12"/>
+      <c r="I214" s="12"/>
       <c r="L214" s="12"/>
-    </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M214" s="12"/>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B215" s="7"/>
-      <c r="H215" s="12"/>
-      <c r="K215" s="12"/>
+      <c r="I215" s="12"/>
       <c r="L215" s="12"/>
-    </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M215" s="12"/>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B216" s="7"/>
-      <c r="H216" s="12"/>
-      <c r="K216" s="12"/>
+      <c r="I216" s="12"/>
       <c r="L216" s="12"/>
-    </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M216" s="12"/>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B217" s="7"/>
-      <c r="H217" s="12"/>
-      <c r="K217" s="12"/>
+      <c r="I217" s="12"/>
       <c r="L217" s="12"/>
-    </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M217" s="12"/>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B218" s="7"/>
-      <c r="H218" s="12"/>
-      <c r="K218" s="12"/>
+      <c r="I218" s="12"/>
       <c r="L218" s="12"/>
-    </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M218" s="12"/>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B219" s="7"/>
-      <c r="H219" s="12"/>
-      <c r="K219" s="12"/>
+      <c r="I219" s="12"/>
       <c r="L219" s="12"/>
-    </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M219" s="12"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B220" s="7"/>
-      <c r="H220" s="12"/>
-      <c r="K220" s="12"/>
+      <c r="I220" s="12"/>
       <c r="L220" s="12"/>
-    </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M220" s="12"/>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B221" s="7"/>
-      <c r="H221" s="12"/>
-      <c r="K221" s="12"/>
+      <c r="I221" s="12"/>
       <c r="L221" s="12"/>
-    </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M221" s="12"/>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B222" s="7"/>
-      <c r="H222" s="12"/>
-      <c r="K222" s="12"/>
+      <c r="I222" s="12"/>
       <c r="L222" s="12"/>
-    </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M222" s="12"/>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B223" s="7"/>
-      <c r="H223" s="12"/>
-      <c r="K223" s="12"/>
+      <c r="I223" s="12"/>
       <c r="L223" s="12"/>
-    </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M223" s="12"/>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B224" s="7"/>
-      <c r="H224" s="12"/>
-      <c r="K224" s="12"/>
+      <c r="I224" s="12"/>
       <c r="L224" s="12"/>
-    </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M224" s="12"/>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B225" s="7"/>
-      <c r="H225" s="12"/>
-      <c r="K225" s="12"/>
+      <c r="I225" s="12"/>
       <c r="L225" s="12"/>
-    </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M225" s="12"/>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B226" s="7"/>
-      <c r="H226" s="12"/>
-      <c r="K226" s="12"/>
+      <c r="I226" s="12"/>
       <c r="L226" s="12"/>
-    </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M226" s="12"/>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B227" s="7"/>
-      <c r="H227" s="12"/>
-      <c r="K227" s="12"/>
+      <c r="I227" s="12"/>
       <c r="L227" s="12"/>
-    </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M227" s="12"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B228" s="7"/>
-      <c r="H228" s="12"/>
-      <c r="K228" s="12"/>
+      <c r="I228" s="12"/>
       <c r="L228" s="12"/>
-    </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M228" s="12"/>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B229" s="7"/>
-      <c r="H229" s="12"/>
-      <c r="K229" s="12"/>
+      <c r="I229" s="12"/>
       <c r="L229" s="12"/>
-    </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M229" s="12"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B230" s="7"/>
-      <c r="H230" s="12"/>
-      <c r="K230" s="12"/>
+      <c r="I230" s="12"/>
       <c r="L230" s="12"/>
-    </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M230" s="12"/>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B231" s="7"/>
-      <c r="H231" s="12"/>
-      <c r="K231" s="12"/>
+      <c r="I231" s="12"/>
       <c r="L231" s="12"/>
-    </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M231" s="12"/>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B232" s="7"/>
-      <c r="H232" s="12"/>
-      <c r="K232" s="12"/>
+      <c r="I232" s="12"/>
       <c r="L232" s="12"/>
-    </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M232" s="12"/>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B233" s="7"/>
-      <c r="H233" s="12"/>
-      <c r="K233" s="12"/>
+      <c r="I233" s="12"/>
       <c r="L233" s="12"/>
-    </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M233" s="12"/>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B234" s="7"/>
-      <c r="H234" s="12"/>
-      <c r="K234" s="12"/>
+      <c r="I234" s="12"/>
       <c r="L234" s="12"/>
-    </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M234" s="12"/>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B235" s="7"/>
-      <c r="H235" s="12"/>
-      <c r="K235" s="12"/>
+      <c r="I235" s="12"/>
       <c r="L235" s="12"/>
-    </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M235" s="12"/>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B236" s="7"/>
-      <c r="H236" s="12"/>
-      <c r="K236" s="12"/>
+      <c r="I236" s="12"/>
       <c r="L236" s="12"/>
-    </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M236" s="12"/>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B237" s="7"/>
-      <c r="H237" s="12"/>
-      <c r="K237" s="12"/>
+      <c r="I237" s="12"/>
       <c r="L237" s="12"/>
-    </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M237" s="12"/>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B238" s="7"/>
-      <c r="H238" s="12"/>
-      <c r="K238" s="12"/>
+      <c r="I238" s="12"/>
       <c r="L238" s="12"/>
-    </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M238" s="12"/>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B239" s="7"/>
-      <c r="H239" s="12"/>
-      <c r="K239" s="12"/>
+      <c r="I239" s="12"/>
       <c r="L239" s="12"/>
-    </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M239" s="12"/>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B240" s="7"/>
-      <c r="H240" s="12"/>
-      <c r="K240" s="12"/>
+      <c r="I240" s="12"/>
       <c r="L240" s="12"/>
-    </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M240" s="12"/>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B241" s="7"/>
-      <c r="H241" s="12"/>
-      <c r="K241" s="12"/>
+      <c r="I241" s="12"/>
       <c r="L241" s="12"/>
-    </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M241" s="12"/>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B242" s="7"/>
-      <c r="H242" s="12"/>
-      <c r="K242" s="12"/>
+      <c r="I242" s="12"/>
       <c r="L242" s="12"/>
-    </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M242" s="12"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B243" s="7"/>
-      <c r="H243" s="12"/>
-      <c r="K243" s="12"/>
+      <c r="I243" s="12"/>
       <c r="L243" s="12"/>
-    </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M243" s="12"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B244" s="7"/>
-      <c r="H244" s="12"/>
-      <c r="K244" s="12"/>
+      <c r="I244" s="12"/>
       <c r="L244" s="12"/>
-    </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M244" s="12"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B245" s="7"/>
-      <c r="H245" s="12"/>
-      <c r="K245" s="12"/>
+      <c r="I245" s="12"/>
       <c r="L245" s="12"/>
-    </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M245" s="12"/>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B246" s="7"/>
-      <c r="H246" s="12"/>
-      <c r="K246" s="12"/>
+      <c r="I246" s="12"/>
       <c r="L246" s="12"/>
-    </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M246" s="12"/>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B247" s="7"/>
-      <c r="H247" s="12"/>
-      <c r="K247" s="12"/>
+      <c r="I247" s="12"/>
       <c r="L247" s="12"/>
-    </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M247" s="12"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B248" s="7"/>
-      <c r="H248" s="12"/>
-      <c r="K248" s="12"/>
+      <c r="I248" s="12"/>
       <c r="L248" s="12"/>
-    </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M248" s="12"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B249" s="7"/>
-      <c r="H249" s="12"/>
-      <c r="K249" s="12"/>
+      <c r="I249" s="12"/>
       <c r="L249" s="12"/>
-    </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M249" s="12"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B250" s="7"/>
-      <c r="H250" s="12"/>
-      <c r="K250" s="12"/>
+      <c r="I250" s="12"/>
       <c r="L250" s="12"/>
-    </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M250" s="12"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B251" s="7"/>
-      <c r="H251" s="12"/>
-      <c r="K251" s="12"/>
+      <c r="I251" s="12"/>
       <c r="L251" s="12"/>
-    </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M251" s="12"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B252" s="7"/>
-      <c r="H252" s="12"/>
-      <c r="K252" s="12"/>
+      <c r="I252" s="12"/>
       <c r="L252" s="12"/>
-    </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M252" s="12"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B253" s="7"/>
-      <c r="H253" s="12"/>
-      <c r="K253" s="12"/>
+      <c r="I253" s="12"/>
       <c r="L253" s="12"/>
-    </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M253" s="12"/>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B254" s="7"/>
-      <c r="H254" s="12"/>
-      <c r="K254" s="12"/>
+      <c r="I254" s="12"/>
       <c r="L254" s="12"/>
-    </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M254" s="12"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B255" s="7"/>
-      <c r="H255" s="12"/>
-      <c r="K255" s="12"/>
+      <c r="I255" s="12"/>
       <c r="L255" s="12"/>
-    </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M255" s="12"/>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B256" s="7"/>
-      <c r="H256" s="12"/>
-      <c r="K256" s="12"/>
+      <c r="I256" s="12"/>
       <c r="L256" s="12"/>
-    </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M256" s="12"/>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B257" s="7"/>
-      <c r="H257" s="12"/>
-      <c r="K257" s="12"/>
+      <c r="I257" s="12"/>
       <c r="L257" s="12"/>
-    </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M257" s="12"/>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B258" s="7"/>
-      <c r="H258" s="12"/>
-      <c r="K258" s="12"/>
+      <c r="I258" s="12"/>
       <c r="L258" s="12"/>
-    </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M258" s="12"/>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B259" s="7"/>
-      <c r="H259" s="12"/>
-      <c r="K259" s="12"/>
+      <c r="I259" s="12"/>
       <c r="L259" s="12"/>
-    </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M259" s="12"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B260" s="7"/>
-      <c r="H260" s="12"/>
-      <c r="K260" s="12"/>
+      <c r="I260" s="12"/>
       <c r="L260" s="12"/>
-    </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M260" s="12"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B261" s="7"/>
-      <c r="H261" s="12"/>
-      <c r="K261" s="12"/>
+      <c r="I261" s="12"/>
       <c r="L261" s="12"/>
-    </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M261" s="12"/>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B262" s="7"/>
-      <c r="H262" s="12"/>
-      <c r="K262" s="12"/>
+      <c r="I262" s="12"/>
       <c r="L262" s="12"/>
-    </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M262" s="12"/>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B263" s="7"/>
-      <c r="H263" s="12"/>
-      <c r="K263" s="12"/>
+      <c r="I263" s="12"/>
       <c r="L263" s="12"/>
-    </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M263" s="12"/>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B264" s="7"/>
-      <c r="H264" s="12"/>
-      <c r="K264" s="12"/>
+      <c r="I264" s="12"/>
       <c r="L264" s="12"/>
-    </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M264" s="12"/>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B265" s="7"/>
-      <c r="H265" s="12"/>
-      <c r="K265" s="12"/>
+      <c r="I265" s="12"/>
       <c r="L265" s="12"/>
-    </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M265" s="12"/>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B266" s="7"/>
-      <c r="H266" s="12"/>
-      <c r="K266" s="12"/>
+      <c r="I266" s="12"/>
       <c r="L266" s="12"/>
-    </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M266" s="12"/>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B267" s="7"/>
-      <c r="H267" s="12"/>
-      <c r="K267" s="12"/>
+      <c r="I267" s="12"/>
       <c r="L267" s="12"/>
-    </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M267" s="12"/>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B268" s="7"/>
-      <c r="H268" s="12"/>
-      <c r="K268" s="12"/>
+      <c r="I268" s="12"/>
       <c r="L268" s="12"/>
-    </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M268" s="12"/>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B269" s="7"/>
-      <c r="H269" s="12"/>
-      <c r="K269" s="12"/>
+      <c r="I269" s="12"/>
       <c r="L269" s="12"/>
-    </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M269" s="12"/>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B270" s="7"/>
-      <c r="H270" s="12"/>
-      <c r="K270" s="12"/>
+      <c r="I270" s="12"/>
       <c r="L270" s="12"/>
-    </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M270" s="12"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B271" s="7"/>
-      <c r="H271" s="12"/>
-      <c r="K271" s="12"/>
+      <c r="I271" s="12"/>
       <c r="L271" s="12"/>
-    </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M271" s="12"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B272" s="7"/>
-      <c r="H272" s="12"/>
-      <c r="K272" s="12"/>
+      <c r="I272" s="12"/>
       <c r="L272" s="12"/>
-    </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M272" s="12"/>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B273" s="7"/>
-      <c r="H273" s="12"/>
-      <c r="K273" s="12"/>
+      <c r="I273" s="12"/>
       <c r="L273" s="12"/>
-    </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M273" s="12"/>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B274" s="7"/>
-      <c r="H274" s="12"/>
-      <c r="K274" s="12"/>
+      <c r="I274" s="12"/>
       <c r="L274" s="12"/>
-    </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M274" s="12"/>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B275" s="7"/>
-      <c r="H275" s="12"/>
-      <c r="K275" s="12"/>
+      <c r="I275" s="12"/>
       <c r="L275" s="12"/>
-    </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M275" s="12"/>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B276" s="7"/>
-      <c r="H276" s="12"/>
-      <c r="K276" s="12"/>
+      <c r="I276" s="12"/>
       <c r="L276" s="12"/>
-    </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M276" s="12"/>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B277" s="7"/>
-      <c r="H277" s="12"/>
-      <c r="K277" s="12"/>
+      <c r="I277" s="12"/>
       <c r="L277" s="12"/>
-    </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M277" s="12"/>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B278" s="7"/>
-      <c r="H278" s="12"/>
-      <c r="K278" s="12"/>
+      <c r="I278" s="12"/>
       <c r="L278" s="12"/>
-    </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M278" s="12"/>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B279" s="7"/>
-      <c r="H279" s="12"/>
-      <c r="K279" s="12"/>
+      <c r="I279" s="12"/>
       <c r="L279" s="12"/>
-    </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M279" s="12"/>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B280" s="7"/>
-      <c r="H280" s="12"/>
-      <c r="K280" s="12"/>
+      <c r="I280" s="12"/>
       <c r="L280" s="12"/>
-    </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M280" s="12"/>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B281" s="7"/>
-      <c r="H281" s="12"/>
-      <c r="K281" s="12"/>
+      <c r="I281" s="12"/>
       <c r="L281" s="12"/>
-    </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M281" s="12"/>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B282" s="7"/>
-      <c r="H282" s="12"/>
-      <c r="K282" s="12"/>
+      <c r="I282" s="12"/>
       <c r="L282" s="12"/>
-    </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M282" s="12"/>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B283" s="7"/>
-      <c r="H283" s="12"/>
-      <c r="K283" s="12"/>
+      <c r="I283" s="12"/>
       <c r="L283" s="12"/>
-    </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M283" s="12"/>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B284" s="7"/>
-      <c r="H284" s="12"/>
-      <c r="K284" s="12"/>
+      <c r="I284" s="12"/>
       <c r="L284" s="12"/>
-    </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M284" s="12"/>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B285" s="7"/>
-      <c r="H285" s="12"/>
-      <c r="K285" s="12"/>
+      <c r="I285" s="12"/>
       <c r="L285" s="12"/>
-    </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M285" s="12"/>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B286" s="7"/>
-      <c r="H286" s="12"/>
-      <c r="K286" s="12"/>
+      <c r="I286" s="12"/>
       <c r="L286" s="12"/>
-    </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M286" s="12"/>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B287" s="7"/>
-      <c r="H287" s="12"/>
-      <c r="K287" s="12"/>
+      <c r="I287" s="12"/>
       <c r="L287" s="12"/>
-    </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H288" s="12"/>
-      <c r="K288" s="12"/>
+      <c r="M287" s="12"/>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I288" s="12"/>
       <c r="L288" s="12"/>
-    </row>
-    <row r="289" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H289" s="12"/>
-      <c r="K289" s="12"/>
+      <c r="M288" s="12"/>
+    </row>
+    <row r="289" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I289" s="12"/>
       <c r="L289" s="12"/>
-    </row>
-    <row r="290" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H290" s="12"/>
-      <c r="K290" s="12"/>
+      <c r="M289" s="12"/>
+    </row>
+    <row r="290" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I290" s="12"/>
       <c r="L290" s="12"/>
-    </row>
-    <row r="291" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H291" s="12"/>
-      <c r="K291" s="12"/>
+      <c r="M290" s="12"/>
+    </row>
+    <row r="291" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I291" s="12"/>
       <c r="L291" s="12"/>
-    </row>
-    <row r="292" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H292" s="12"/>
-      <c r="K292" s="12"/>
+      <c r="M291" s="12"/>
+    </row>
+    <row r="292" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I292" s="12"/>
       <c r="L292" s="12"/>
-    </row>
-    <row r="293" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H293" s="12"/>
-      <c r="K293" s="12"/>
+      <c r="M292" s="12"/>
+    </row>
+    <row r="293" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I293" s="12"/>
       <c r="L293" s="12"/>
-    </row>
-    <row r="294" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H294" s="12"/>
-      <c r="K294" s="12"/>
+      <c r="M293" s="12"/>
+    </row>
+    <row r="294" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I294" s="12"/>
       <c r="L294" s="12"/>
-    </row>
-    <row r="295" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H295" s="12"/>
-      <c r="K295" s="12"/>
+      <c r="M294" s="12"/>
+    </row>
+    <row r="295" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I295" s="12"/>
       <c r="L295" s="12"/>
-    </row>
-    <row r="296" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H296" s="12"/>
-      <c r="K296" s="12"/>
+      <c r="M295" s="12"/>
+    </row>
+    <row r="296" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I296" s="12"/>
       <c r="L296" s="12"/>
-    </row>
-    <row r="297" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H297" s="12"/>
-      <c r="K297" s="12"/>
+      <c r="M296" s="12"/>
+    </row>
+    <row r="297" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I297" s="12"/>
       <c r="L297" s="12"/>
-    </row>
-    <row r="298" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H298" s="12"/>
-      <c r="K298" s="12"/>
+      <c r="M297" s="12"/>
+    </row>
+    <row r="298" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I298" s="12"/>
       <c r="L298" s="12"/>
-    </row>
-    <row r="299" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H299" s="12"/>
-      <c r="K299" s="12"/>
+      <c r="M298" s="12"/>
+    </row>
+    <row r="299" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I299" s="12"/>
       <c r="L299" s="12"/>
-    </row>
-    <row r="300" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H300" s="12"/>
-      <c r="K300" s="12"/>
+      <c r="M299" s="12"/>
+    </row>
+    <row r="300" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I300" s="12"/>
       <c r="L300" s="12"/>
-    </row>
-    <row r="301" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H301" s="12"/>
-      <c r="K301" s="12"/>
+      <c r="M300" s="12"/>
+    </row>
+    <row r="301" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I301" s="12"/>
       <c r="L301" s="12"/>
-    </row>
-    <row r="302" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H302" s="12"/>
-      <c r="K302" s="12"/>
+      <c r="M301" s="12"/>
+    </row>
+    <row r="302" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I302" s="12"/>
       <c r="L302" s="12"/>
-    </row>
-    <row r="303" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H303" s="12"/>
-      <c r="K303" s="12"/>
+      <c r="M302" s="12"/>
+    </row>
+    <row r="303" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I303" s="12"/>
       <c r="L303" s="12"/>
-    </row>
-    <row r="304" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H304" s="12"/>
-      <c r="K304" s="12"/>
+      <c r="M303" s="12"/>
+    </row>
+    <row r="304" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I304" s="12"/>
       <c r="L304" s="12"/>
-    </row>
-    <row r="305" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H305" s="12"/>
-      <c r="K305" s="12"/>
+      <c r="M304" s="12"/>
+    </row>
+    <row r="305" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I305" s="12"/>
       <c r="L305" s="12"/>
-    </row>
-    <row r="306" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H306" s="12"/>
-      <c r="K306" s="12"/>
+      <c r="M305" s="12"/>
+    </row>
+    <row r="306" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I306" s="12"/>
       <c r="L306" s="12"/>
-    </row>
-    <row r="307" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H307" s="12"/>
-      <c r="K307" s="12"/>
+      <c r="M306" s="12"/>
+    </row>
+    <row r="307" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I307" s="12"/>
       <c r="L307" s="12"/>
-    </row>
-    <row r="308" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H308" s="12"/>
-      <c r="K308" s="12"/>
+      <c r="M307" s="12"/>
+    </row>
+    <row r="308" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I308" s="12"/>
       <c r="L308" s="12"/>
-    </row>
-    <row r="309" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H309" s="12"/>
-      <c r="K309" s="12"/>
+      <c r="M308" s="12"/>
+    </row>
+    <row r="309" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I309" s="12"/>
       <c r="L309" s="12"/>
-    </row>
-    <row r="310" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H310" s="12"/>
-      <c r="K310" s="12"/>
+      <c r="M309" s="12"/>
+    </row>
+    <row r="310" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I310" s="12"/>
       <c r="L310" s="12"/>
-    </row>
-    <row r="311" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H311" s="12"/>
-      <c r="K311" s="12"/>
+      <c r="M310" s="12"/>
+    </row>
+    <row r="311" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I311" s="12"/>
       <c r="L311" s="12"/>
-    </row>
-    <row r="312" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H312" s="12"/>
-      <c r="K312" s="12"/>
+      <c r="M311" s="12"/>
+    </row>
+    <row r="312" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I312" s="12"/>
       <c r="L312" s="12"/>
-    </row>
-    <row r="313" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H313" s="12"/>
-      <c r="K313" s="12"/>
+      <c r="M312" s="12"/>
+    </row>
+    <row r="313" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I313" s="12"/>
       <c r="L313" s="12"/>
-    </row>
-    <row r="314" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H314" s="12"/>
-      <c r="K314" s="12"/>
+      <c r="M313" s="12"/>
+    </row>
+    <row r="314" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I314" s="12"/>
       <c r="L314" s="12"/>
-    </row>
-    <row r="315" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H315" s="12"/>
-      <c r="K315" s="12"/>
+      <c r="M314" s="12"/>
+    </row>
+    <row r="315" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I315" s="12"/>
       <c r="L315" s="12"/>
-    </row>
-    <row r="316" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H316" s="12"/>
-      <c r="K316" s="12"/>
+      <c r="M315" s="12"/>
+    </row>
+    <row r="316" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I316" s="12"/>
       <c r="L316" s="12"/>
-    </row>
-    <row r="317" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H317" s="12"/>
-      <c r="K317" s="12"/>
+      <c r="M316" s="12"/>
+    </row>
+    <row r="317" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I317" s="12"/>
       <c r="L317" s="12"/>
-    </row>
-    <row r="318" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H318" s="12"/>
-      <c r="K318" s="12"/>
+      <c r="M317" s="12"/>
+    </row>
+    <row r="318" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I318" s="12"/>
       <c r="L318" s="12"/>
-    </row>
-    <row r="319" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H319" s="12"/>
-      <c r="K319" s="12"/>
+      <c r="M318" s="12"/>
+    </row>
+    <row r="319" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I319" s="12"/>
       <c r="L319" s="12"/>
-    </row>
-    <row r="320" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H320" s="12"/>
-      <c r="K320" s="12"/>
+      <c r="M319" s="12"/>
+    </row>
+    <row r="320" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I320" s="12"/>
       <c r="L320" s="12"/>
-    </row>
-    <row r="321" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H321" s="12"/>
-      <c r="K321" s="12"/>
+      <c r="M320" s="12"/>
+    </row>
+    <row r="321" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I321" s="12"/>
       <c r="L321" s="12"/>
-    </row>
-    <row r="322" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H322" s="12"/>
-      <c r="K322" s="12"/>
+      <c r="M321" s="12"/>
+    </row>
+    <row r="322" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I322" s="12"/>
       <c r="L322" s="12"/>
-    </row>
-    <row r="323" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H323" s="12"/>
-      <c r="K323" s="12"/>
+      <c r="M322" s="12"/>
+    </row>
+    <row r="323" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I323" s="12"/>
       <c r="L323" s="12"/>
-    </row>
-    <row r="324" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H324" s="12"/>
-      <c r="K324" s="12"/>
+      <c r="M323" s="12"/>
+    </row>
+    <row r="324" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I324" s="12"/>
       <c r="L324" s="12"/>
-    </row>
-    <row r="325" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H325" s="12"/>
-      <c r="K325" s="12"/>
+      <c r="M324" s="12"/>
+    </row>
+    <row r="325" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I325" s="12"/>
       <c r="L325" s="12"/>
-    </row>
-    <row r="326" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H326" s="12"/>
-      <c r="K326" s="12"/>
+      <c r="M325" s="12"/>
+    </row>
+    <row r="326" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I326" s="12"/>
       <c r="L326" s="12"/>
-    </row>
-    <row r="327" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H327" s="12"/>
-      <c r="K327" s="12"/>
+      <c r="M326" s="12"/>
+    </row>
+    <row r="327" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I327" s="12"/>
       <c r="L327" s="12"/>
-    </row>
-    <row r="328" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H328" s="12"/>
-      <c r="K328" s="12"/>
+      <c r="M327" s="12"/>
+    </row>
+    <row r="328" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I328" s="12"/>
       <c r="L328" s="12"/>
-    </row>
-    <row r="329" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H329" s="12"/>
-      <c r="K329" s="12"/>
+      <c r="M328" s="12"/>
+    </row>
+    <row r="329" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I329" s="12"/>
       <c r="L329" s="12"/>
-    </row>
-    <row r="330" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H330" s="12"/>
-      <c r="K330" s="12"/>
+      <c r="M329" s="12"/>
+    </row>
+    <row r="330" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I330" s="12"/>
       <c r="L330" s="12"/>
-    </row>
-    <row r="331" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H331" s="12"/>
-      <c r="K331" s="12"/>
+      <c r="M330" s="12"/>
+    </row>
+    <row r="331" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I331" s="12"/>
       <c r="L331" s="12"/>
-    </row>
-    <row r="332" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H332" s="12"/>
-      <c r="K332" s="12"/>
+      <c r="M331" s="12"/>
+    </row>
+    <row r="332" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I332" s="12"/>
       <c r="L332" s="12"/>
-    </row>
-    <row r="333" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H333" s="12"/>
-      <c r="K333" s="12"/>
+      <c r="M332" s="12"/>
+    </row>
+    <row r="333" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I333" s="12"/>
       <c r="L333" s="12"/>
-    </row>
-    <row r="334" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H334" s="12"/>
-      <c r="K334" s="12"/>
+      <c r="M333" s="12"/>
+    </row>
+    <row r="334" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I334" s="12"/>
       <c r="L334" s="12"/>
-    </row>
-    <row r="335" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H335" s="12"/>
-      <c r="K335" s="12"/>
+      <c r="M334" s="12"/>
+    </row>
+    <row r="335" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I335" s="12"/>
       <c r="L335" s="12"/>
-    </row>
-    <row r="336" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H336" s="12"/>
-      <c r="K336" s="12"/>
+      <c r="M335" s="12"/>
+    </row>
+    <row r="336" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I336" s="12"/>
       <c r="L336" s="12"/>
-    </row>
-    <row r="337" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H337" s="12"/>
-      <c r="K337" s="12"/>
+      <c r="M336" s="12"/>
+    </row>
+    <row r="337" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I337" s="12"/>
       <c r="L337" s="12"/>
-    </row>
-    <row r="338" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H338" s="12"/>
-      <c r="K338" s="12"/>
+      <c r="M337" s="12"/>
+    </row>
+    <row r="338" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I338" s="12"/>
       <c r="L338" s="12"/>
-    </row>
-    <row r="339" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H339" s="12"/>
-      <c r="K339" s="12"/>
+      <c r="M338" s="12"/>
+    </row>
+    <row r="339" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I339" s="12"/>
       <c r="L339" s="12"/>
-    </row>
-    <row r="340" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H340" s="12"/>
-      <c r="K340" s="12"/>
+      <c r="M339" s="12"/>
+    </row>
+    <row r="340" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I340" s="12"/>
       <c r="L340" s="12"/>
-    </row>
-    <row r="341" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H341" s="12"/>
-      <c r="K341" s="12"/>
+      <c r="M340" s="12"/>
+    </row>
+    <row r="341" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I341" s="12"/>
       <c r="L341" s="12"/>
-    </row>
-    <row r="342" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H342" s="12"/>
-      <c r="K342" s="12"/>
+      <c r="M341" s="12"/>
+    </row>
+    <row r="342" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I342" s="12"/>
       <c r="L342" s="12"/>
-    </row>
-    <row r="343" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H343" s="12"/>
-      <c r="K343" s="12"/>
+      <c r="M342" s="12"/>
+    </row>
+    <row r="343" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I343" s="12"/>
       <c r="L343" s="12"/>
-    </row>
-    <row r="344" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H344" s="12"/>
-      <c r="K344" s="12"/>
+      <c r="M343" s="12"/>
+    </row>
+    <row r="344" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I344" s="12"/>
       <c r="L344" s="12"/>
-    </row>
-    <row r="345" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H345" s="12"/>
-      <c r="K345" s="12"/>
+      <c r="M344" s="12"/>
+    </row>
+    <row r="345" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I345" s="12"/>
       <c r="L345" s="12"/>
-    </row>
-    <row r="346" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H346" s="12"/>
-      <c r="K346" s="12"/>
+      <c r="M345" s="12"/>
+    </row>
+    <row r="346" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I346" s="12"/>
       <c r="L346" s="12"/>
-    </row>
-    <row r="347" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H347" s="12"/>
-      <c r="K347" s="12"/>
+      <c r="M346" s="12"/>
+    </row>
+    <row r="347" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I347" s="12"/>
       <c r="L347" s="12"/>
-    </row>
-    <row r="348" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H348" s="12"/>
-      <c r="K348" s="12"/>
+      <c r="M347" s="12"/>
+    </row>
+    <row r="348" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I348" s="12"/>
       <c r="L348" s="12"/>
-    </row>
-    <row r="349" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H349" s="12"/>
-      <c r="K349" s="12"/>
+      <c r="M348" s="12"/>
+    </row>
+    <row r="349" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I349" s="12"/>
       <c r="L349" s="12"/>
-    </row>
-    <row r="350" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H350" s="12"/>
-      <c r="K350" s="12"/>
+      <c r="M349" s="12"/>
+    </row>
+    <row r="350" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I350" s="12"/>
       <c r="L350" s="12"/>
-    </row>
-    <row r="351" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H351" s="12"/>
-      <c r="K351" s="12"/>
+      <c r="M350" s="12"/>
+    </row>
+    <row r="351" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I351" s="12"/>
       <c r="L351" s="12"/>
-    </row>
-    <row r="352" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H352" s="12"/>
-      <c r="K352" s="12"/>
+      <c r="M351" s="12"/>
+    </row>
+    <row r="352" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I352" s="12"/>
       <c r="L352" s="12"/>
-    </row>
-    <row r="353" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H353" s="12"/>
-      <c r="K353" s="12"/>
+      <c r="M352" s="12"/>
+    </row>
+    <row r="353" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I353" s="12"/>
       <c r="L353" s="12"/>
-    </row>
-    <row r="354" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H354" s="12"/>
-      <c r="K354" s="12"/>
+      <c r="M353" s="12"/>
+    </row>
+    <row r="354" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I354" s="12"/>
       <c r="L354" s="12"/>
-    </row>
-    <row r="355" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H355" s="12"/>
-      <c r="K355" s="12"/>
+      <c r="M354" s="12"/>
+    </row>
+    <row r="355" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I355" s="12"/>
       <c r="L355" s="12"/>
-    </row>
-    <row r="356" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H356" s="12"/>
-      <c r="K356" s="12"/>
+      <c r="M355" s="12"/>
+    </row>
+    <row r="356" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I356" s="12"/>
       <c r="L356" s="12"/>
-    </row>
-    <row r="357" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H357" s="12"/>
-      <c r="K357" s="12"/>
+      <c r="M356" s="12"/>
+    </row>
+    <row r="357" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I357" s="12"/>
       <c r="L357" s="12"/>
-    </row>
-    <row r="358" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H358" s="12"/>
-      <c r="K358" s="12"/>
+      <c r="M357" s="12"/>
+    </row>
+    <row r="358" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I358" s="12"/>
       <c r="L358" s="12"/>
-    </row>
-    <row r="359" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H359" s="12"/>
-      <c r="K359" s="12"/>
+      <c r="M358" s="12"/>
+    </row>
+    <row r="359" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I359" s="12"/>
       <c r="L359" s="12"/>
-    </row>
-    <row r="360" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H360" s="12"/>
-      <c r="K360" s="12"/>
+      <c r="M359" s="12"/>
+    </row>
+    <row r="360" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I360" s="12"/>
       <c r="L360" s="12"/>
-    </row>
-    <row r="361" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H361" s="12"/>
-      <c r="K361" s="12"/>
+      <c r="M360" s="12"/>
+    </row>
+    <row r="361" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I361" s="12"/>
       <c r="L361" s="12"/>
-    </row>
-    <row r="362" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H362" s="12"/>
-      <c r="K362" s="12"/>
+      <c r="M361" s="12"/>
+    </row>
+    <row r="362" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I362" s="12"/>
       <c r="L362" s="12"/>
-    </row>
-    <row r="363" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H363" s="12"/>
-      <c r="K363" s="12"/>
+      <c r="M362" s="12"/>
+    </row>
+    <row r="363" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I363" s="12"/>
       <c r="L363" s="12"/>
-    </row>
-    <row r="364" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H364" s="12"/>
-      <c r="K364" s="12"/>
+      <c r="M363" s="12"/>
+    </row>
+    <row r="364" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I364" s="12"/>
       <c r="L364" s="12"/>
-    </row>
-    <row r="365" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H365" s="12"/>
-      <c r="K365" s="12"/>
+      <c r="M364" s="12"/>
+    </row>
+    <row r="365" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I365" s="12"/>
       <c r="L365" s="12"/>
-    </row>
-    <row r="366" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H366" s="12"/>
-      <c r="K366" s="12"/>
+      <c r="M365" s="12"/>
+    </row>
+    <row r="366" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I366" s="12"/>
       <c r="L366" s="12"/>
-    </row>
-    <row r="367" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H367" s="12"/>
-      <c r="K367" s="12"/>
+      <c r="M366" s="12"/>
+    </row>
+    <row r="367" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I367" s="12"/>
       <c r="L367" s="12"/>
-    </row>
-    <row r="368" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H368" s="12"/>
-      <c r="K368" s="12"/>
+      <c r="M367" s="12"/>
+    </row>
+    <row r="368" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I368" s="12"/>
       <c r="L368" s="12"/>
-    </row>
-    <row r="369" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H369" s="12"/>
-      <c r="K369" s="12"/>
+      <c r="M368" s="12"/>
+    </row>
+    <row r="369" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I369" s="12"/>
       <c r="L369" s="12"/>
-    </row>
-    <row r="370" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H370" s="12"/>
-      <c r="K370" s="12"/>
+      <c r="M369" s="12"/>
+    </row>
+    <row r="370" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I370" s="12"/>
       <c r="L370" s="12"/>
-    </row>
-    <row r="371" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H371" s="12"/>
-      <c r="K371" s="12"/>
+      <c r="M370" s="12"/>
+    </row>
+    <row r="371" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I371" s="12"/>
       <c r="L371" s="12"/>
-    </row>
-    <row r="372" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H372" s="12"/>
-      <c r="K372" s="12"/>
+      <c r="M371" s="12"/>
+    </row>
+    <row r="372" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I372" s="12"/>
       <c r="L372" s="12"/>
-    </row>
-    <row r="373" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H373" s="12"/>
-      <c r="K373" s="12"/>
+      <c r="M372" s="12"/>
+    </row>
+    <row r="373" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I373" s="12"/>
       <c r="L373" s="12"/>
-    </row>
-    <row r="374" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H374" s="12"/>
-      <c r="K374" s="12"/>
+      <c r="M373" s="12"/>
+    </row>
+    <row r="374" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I374" s="12"/>
       <c r="L374" s="12"/>
-    </row>
-    <row r="375" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H375" s="12"/>
-      <c r="K375" s="12"/>
+      <c r="M374" s="12"/>
+    </row>
+    <row r="375" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I375" s="12"/>
       <c r="L375" s="12"/>
-    </row>
-    <row r="376" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H376" s="12"/>
-      <c r="K376" s="12"/>
+      <c r="M375" s="12"/>
+    </row>
+    <row r="376" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I376" s="12"/>
       <c r="L376" s="12"/>
-    </row>
-    <row r="377" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H377" s="12"/>
-      <c r="K377" s="12"/>
+      <c r="M376" s="12"/>
+    </row>
+    <row r="377" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I377" s="12"/>
       <c r="L377" s="12"/>
-    </row>
-    <row r="378" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H378" s="12"/>
-      <c r="K378" s="12"/>
+      <c r="M377" s="12"/>
+    </row>
+    <row r="378" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I378" s="12"/>
       <c r="L378" s="12"/>
-    </row>
-    <row r="379" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H379" s="12"/>
-      <c r="K379" s="12"/>
+      <c r="M378" s="12"/>
+    </row>
+    <row r="379" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I379" s="12"/>
       <c r="L379" s="12"/>
-    </row>
-    <row r="380" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H380" s="12"/>
-      <c r="K380" s="12"/>
+      <c r="M379" s="12"/>
+    </row>
+    <row r="380" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I380" s="12"/>
       <c r="L380" s="12"/>
-    </row>
-    <row r="381" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H381" s="12"/>
-      <c r="K381" s="12"/>
+      <c r="M380" s="12"/>
+    </row>
+    <row r="381" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I381" s="12"/>
       <c r="L381" s="12"/>
-    </row>
-    <row r="382" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H382" s="12"/>
-      <c r="K382" s="12"/>
+      <c r="M381" s="12"/>
+    </row>
+    <row r="382" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I382" s="12"/>
       <c r="L382" s="12"/>
-    </row>
-    <row r="383" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H383" s="12"/>
-      <c r="K383" s="12"/>
+      <c r="M382" s="12"/>
+    </row>
+    <row r="383" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I383" s="12"/>
       <c r="L383" s="12"/>
-    </row>
-    <row r="384" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H384" s="12"/>
-      <c r="K384" s="12"/>
+      <c r="M383" s="12"/>
+    </row>
+    <row r="384" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I384" s="12"/>
       <c r="L384" s="12"/>
-    </row>
-    <row r="385" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H385" s="12"/>
-      <c r="K385" s="12"/>
+      <c r="M384" s="12"/>
+    </row>
+    <row r="385" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I385" s="12"/>
       <c r="L385" s="12"/>
-    </row>
-    <row r="386" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H386" s="12"/>
-      <c r="K386" s="12"/>
+      <c r="M385" s="12"/>
+    </row>
+    <row r="386" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I386" s="12"/>
       <c r="L386" s="12"/>
-    </row>
-    <row r="387" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H387" s="12"/>
-      <c r="K387" s="12"/>
+      <c r="M386" s="12"/>
+    </row>
+    <row r="387" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I387" s="12"/>
       <c r="L387" s="12"/>
-    </row>
-    <row r="388" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H388" s="12"/>
-      <c r="K388" s="12"/>
+      <c r="M387" s="12"/>
+    </row>
+    <row r="388" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I388" s="12"/>
       <c r="L388" s="12"/>
-    </row>
-    <row r="389" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H389" s="12"/>
-      <c r="K389" s="12"/>
+      <c r="M388" s="12"/>
+    </row>
+    <row r="389" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I389" s="12"/>
       <c r="L389" s="12"/>
-    </row>
-    <row r="390" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H390" s="12"/>
-      <c r="K390" s="12"/>
+      <c r="M389" s="12"/>
+    </row>
+    <row r="390" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I390" s="12"/>
       <c r="L390" s="12"/>
-    </row>
-    <row r="391" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H391" s="12"/>
-      <c r="K391" s="12"/>
+      <c r="M390" s="12"/>
+    </row>
+    <row r="391" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I391" s="12"/>
       <c r="L391" s="12"/>
-    </row>
-    <row r="392" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H392" s="12"/>
-      <c r="K392" s="12"/>
+      <c r="M391" s="12"/>
+    </row>
+    <row r="392" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I392" s="12"/>
       <c r="L392" s="12"/>
-    </row>
-    <row r="393" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H393" s="12"/>
-      <c r="K393" s="12"/>
+      <c r="M392" s="12"/>
+    </row>
+    <row r="393" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I393" s="12"/>
       <c r="L393" s="12"/>
-    </row>
-    <row r="394" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H394" s="12"/>
-      <c r="K394" s="12"/>
+      <c r="M393" s="12"/>
+    </row>
+    <row r="394" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I394" s="12"/>
       <c r="L394" s="12"/>
-    </row>
-    <row r="395" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H395" s="12"/>
-      <c r="K395" s="12"/>
+      <c r="M394" s="12"/>
+    </row>
+    <row r="395" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I395" s="12"/>
       <c r="L395" s="12"/>
-    </row>
-    <row r="396" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H396" s="12"/>
-      <c r="K396" s="12"/>
+      <c r="M395" s="12"/>
+    </row>
+    <row r="396" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I396" s="12"/>
       <c r="L396" s="12"/>
-    </row>
-    <row r="397" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H397" s="12"/>
-      <c r="K397" s="12"/>
+      <c r="M396" s="12"/>
+    </row>
+    <row r="397" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I397" s="12"/>
       <c r="L397" s="12"/>
-    </row>
-    <row r="398" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H398" s="12"/>
-      <c r="K398" s="12"/>
+      <c r="M397" s="12"/>
+    </row>
+    <row r="398" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I398" s="12"/>
       <c r="L398" s="12"/>
-    </row>
-    <row r="399" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H399" s="12"/>
-      <c r="K399" s="12"/>
+      <c r="M398" s="12"/>
+    </row>
+    <row r="399" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I399" s="12"/>
       <c r="L399" s="12"/>
-    </row>
-    <row r="400" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H400" s="12"/>
-      <c r="K400" s="12"/>
+      <c r="M399" s="12"/>
+    </row>
+    <row r="400" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I400" s="12"/>
       <c r="L400" s="12"/>
-    </row>
-    <row r="401" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H401" s="12"/>
-      <c r="K401" s="12"/>
+      <c r="M400" s="12"/>
+    </row>
+    <row r="401" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I401" s="12"/>
       <c r="L401" s="12"/>
-    </row>
-    <row r="402" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H402" s="12"/>
-      <c r="K402" s="12"/>
+      <c r="M401" s="12"/>
+    </row>
+    <row r="402" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I402" s="12"/>
       <c r="L402" s="12"/>
-    </row>
-    <row r="403" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H403" s="12"/>
-      <c r="K403" s="12"/>
+      <c r="M402" s="12"/>
+    </row>
+    <row r="403" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I403" s="12"/>
       <c r="L403" s="12"/>
-    </row>
-    <row r="404" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H404" s="12"/>
-      <c r="K404" s="12"/>
+      <c r="M403" s="12"/>
+    </row>
+    <row r="404" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I404" s="12"/>
       <c r="L404" s="12"/>
-    </row>
-    <row r="405" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H405" s="12"/>
-      <c r="K405" s="12"/>
+      <c r="M404" s="12"/>
+    </row>
+    <row r="405" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I405" s="12"/>
       <c r="L405" s="12"/>
-    </row>
-    <row r="406" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H406" s="12"/>
-      <c r="K406" s="12"/>
+      <c r="M405" s="12"/>
+    </row>
+    <row r="406" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I406" s="12"/>
       <c r="L406" s="12"/>
-    </row>
-    <row r="407" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H407" s="12"/>
-      <c r="K407" s="12"/>
+      <c r="M406" s="12"/>
+    </row>
+    <row r="407" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I407" s="12"/>
       <c r="L407" s="12"/>
-    </row>
-    <row r="408" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H408" s="12"/>
-    </row>
-    <row r="409" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H409" s="12"/>
-    </row>
-    <row r="410" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H410" s="12"/>
-    </row>
-    <row r="411" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H411" s="12"/>
-    </row>
-    <row r="412" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H412" s="12"/>
-    </row>
-    <row r="413" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H413" s="12"/>
-    </row>
-    <row r="414" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H414" s="12"/>
-    </row>
-    <row r="415" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H415" s="12"/>
-    </row>
-    <row r="416" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H416" s="12"/>
-    </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H417" s="12"/>
-    </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H418" s="12"/>
-    </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H419" s="12"/>
-    </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H420" s="12"/>
-    </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H421" s="12"/>
-    </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H422" s="12"/>
-    </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H423" s="12"/>
-    </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H424" s="12"/>
-    </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H425" s="12"/>
-    </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H426" s="12"/>
-    </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H427" s="12"/>
-    </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H428" s="12"/>
-    </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H429" s="12"/>
-    </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H430" s="12"/>
-    </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H431" s="12"/>
-    </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H432" s="12"/>
-    </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H433" s="12"/>
-    </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H434" s="12"/>
-    </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H435" s="12"/>
-    </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H436" s="12"/>
-    </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H437" s="12"/>
-    </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H438" s="12"/>
-    </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H439" s="12"/>
-    </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H440" s="12"/>
-    </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H441" s="12"/>
-    </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H442" s="12"/>
-    </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H443" s="12"/>
-    </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H444" s="12"/>
-    </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H445" s="12"/>
-    </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H446" s="12"/>
-    </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H447" s="12"/>
-    </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H448" s="12"/>
-    </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H449" s="12"/>
-    </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H450" s="12"/>
-    </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H451" s="12"/>
-    </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H452" s="12"/>
-    </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H453" s="12"/>
-    </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H454" s="12"/>
-    </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H455" s="12"/>
-    </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H456" s="12"/>
-    </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H457" s="12"/>
-    </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H458" s="12"/>
-    </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H459" s="12"/>
-    </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H460" s="12"/>
-    </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H461" s="12"/>
-    </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H462" s="12"/>
-    </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H463" s="12"/>
-    </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H464" s="12"/>
-    </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H465" s="12"/>
-    </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H466" s="12"/>
-    </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H467" s="12"/>
-    </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H468" s="12"/>
-    </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H469" s="12"/>
-    </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H470" s="12"/>
-    </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H471" s="12"/>
-    </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H472" s="12"/>
-    </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H473" s="12"/>
-    </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H474" s="12"/>
-    </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H475" s="12"/>
-    </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H476" s="12"/>
-    </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H477" s="12"/>
-    </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H478" s="12"/>
-    </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H479" s="12"/>
-    </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H480" s="12"/>
-    </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H481" s="12"/>
-    </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H482" s="12"/>
-    </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H483" s="12"/>
-    </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H484" s="12"/>
-    </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H485" s="12"/>
-    </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H486" s="12"/>
-    </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H487" s="12"/>
-    </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H488" s="12"/>
-    </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H489" s="12"/>
-    </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H490" s="12"/>
-    </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H491" s="12"/>
-    </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H492" s="12"/>
-    </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H493" s="12"/>
-    </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H494" s="12"/>
-    </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H495" s="12"/>
-    </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H496" s="12"/>
-    </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H497" s="12"/>
-    </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H498" s="12"/>
-    </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H499" s="12"/>
-    </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H500" s="12"/>
-    </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H501" s="12"/>
-    </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H502" s="12"/>
-    </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H503" s="12"/>
-    </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H504" s="12"/>
-    </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H505" s="12"/>
-    </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H506" s="12"/>
-    </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H507" s="12"/>
-    </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H508" s="12"/>
+      <c r="M407" s="12"/>
+    </row>
+    <row r="408" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I408" s="12"/>
+    </row>
+    <row r="409" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I409" s="12"/>
+    </row>
+    <row r="410" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I410" s="12"/>
+    </row>
+    <row r="411" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I411" s="12"/>
+    </row>
+    <row r="412" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I412" s="12"/>
+    </row>
+    <row r="413" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I413" s="12"/>
+    </row>
+    <row r="414" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I414" s="12"/>
+    </row>
+    <row r="415" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I415" s="12"/>
+    </row>
+    <row r="416" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I416" s="12"/>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I417" s="12"/>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I418" s="12"/>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I419" s="12"/>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I420" s="12"/>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I421" s="12"/>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I422" s="12"/>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I423" s="12"/>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I424" s="12"/>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I425" s="12"/>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I426" s="12"/>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I427" s="12"/>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I428" s="12"/>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I429" s="12"/>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I430" s="12"/>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I431" s="12"/>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I432" s="12"/>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I433" s="12"/>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I434" s="12"/>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I435" s="12"/>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I436" s="12"/>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I437" s="12"/>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I438" s="12"/>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I439" s="12"/>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I440" s="12"/>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I441" s="12"/>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I442" s="12"/>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I443" s="12"/>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I444" s="12"/>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I445" s="12"/>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I446" s="12"/>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I447" s="12"/>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I448" s="12"/>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I449" s="12"/>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I450" s="12"/>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I451" s="12"/>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I452" s="12"/>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I453" s="12"/>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I454" s="12"/>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I455" s="12"/>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I456" s="12"/>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I457" s="12"/>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I458" s="12"/>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I459" s="12"/>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I460" s="12"/>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I461" s="12"/>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I462" s="12"/>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I463" s="12"/>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I464" s="12"/>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I465" s="12"/>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I466" s="12"/>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I467" s="12"/>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I468" s="12"/>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I469" s="12"/>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I470" s="12"/>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I471" s="12"/>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I472" s="12"/>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I473" s="12"/>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I474" s="12"/>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I475" s="12"/>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I476" s="12"/>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I477" s="12"/>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I478" s="12"/>
+    </row>
+    <row r="479" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I479" s="12"/>
+    </row>
+    <row r="480" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I480" s="12"/>
+    </row>
+    <row r="481" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I481" s="12"/>
+    </row>
+    <row r="482" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I482" s="12"/>
+    </row>
+    <row r="483" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I483" s="12"/>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I484" s="12"/>
+    </row>
+    <row r="485" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I485" s="12"/>
+    </row>
+    <row r="486" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I486" s="12"/>
+    </row>
+    <row r="487" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I487" s="12"/>
+    </row>
+    <row r="488" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I488" s="12"/>
+    </row>
+    <row r="489" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I489" s="12"/>
+    </row>
+    <row r="490" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I490" s="12"/>
+    </row>
+    <row r="491" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I491" s="12"/>
+    </row>
+    <row r="492" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I492" s="12"/>
+    </row>
+    <row r="493" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I493" s="12"/>
+    </row>
+    <row r="494" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I494" s="12"/>
+    </row>
+    <row r="495" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I495" s="12"/>
+    </row>
+    <row r="496" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I496" s="12"/>
+    </row>
+    <row r="497" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I497" s="12"/>
+    </row>
+    <row r="498" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I498" s="12"/>
+    </row>
+    <row r="499" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I499" s="12"/>
+    </row>
+    <row r="500" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I500" s="12"/>
+    </row>
+    <row r="501" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I501" s="12"/>
+    </row>
+    <row r="502" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I502" s="12"/>
+    </row>
+    <row r="503" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I503" s="12"/>
+    </row>
+    <row r="504" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I504" s="12"/>
+    </row>
+    <row r="505" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I505" s="12"/>
+    </row>
+    <row r="506" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I506" s="12"/>
+    </row>
+    <row r="507" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I507" s="12"/>
+    </row>
+    <row r="508" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I508" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
-      <formula1>INDIRECT(F2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H200" xr:uid="{6D21BB7A-7E55-452C-B36E-F21A3CC16C1C}">
+      <formula1>INDIRECT(G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R201" xr:uid="{8F14BE46-AA93-4B70-B131-365D5E930CAD}">
       <formula1>INDIRECT("orígen")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6CDAF01B-F445-4E94-939C-DE3C30974269}">
-      <formula1>INDIRECT($W$1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
       <formula1>INDIRECT($X$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G201" xr:uid="{25480719-5A6D-4C06-BF50-D7617C2DF36E}">
       <formula1>INDIRECT($Y$1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O201" xr:uid="{5730877A-68B6-4259-99AE-57BB636BF522}">
+      <formula1>INDIRECT($Z$1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159D28E7-8DEA-4A0F-8D10-7A9A245D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CE531-FF40-4D49-A85B-14B5EB083988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,9 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1582,9 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1611,7 +1606,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -1626,7 +1621,7 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1692,7 +1687,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="I2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -1701,7 +1696,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="I3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -1714,21 +1709,21 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="I4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="I5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="I6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -1736,896 +1731,896 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="I7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="16"/>
       <c r="I8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="I9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="I10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="I11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="I12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="I13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="I14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="I15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
       <c r="I16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
       <c r="I17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
       <c r="I18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
       <c r="I19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="16"/>
       <c r="I20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="16"/>
       <c r="I21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="16"/>
       <c r="I22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="16"/>
       <c r="I23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="16"/>
       <c r="I24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="I25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="16"/>
       <c r="I26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
       <c r="I27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
       <c r="I28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
       <c r="I29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16"/>
       <c r="I30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16"/>
       <c r="I31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="16"/>
       <c r="I32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16"/>
       <c r="I33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16"/>
       <c r="I34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
       <c r="I35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="16"/>
       <c r="I36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
       <c r="I37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="I38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
       <c r="I39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="16"/>
       <c r="I40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="16"/>
       <c r="I41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="16"/>
       <c r="I42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="16"/>
       <c r="I43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
       <c r="I44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="16"/>
       <c r="I45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="7"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="16"/>
       <c r="I46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="I47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="7"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="16"/>
       <c r="I48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="7"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="16"/>
       <c r="I49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="7"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16"/>
       <c r="I50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="7"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="16"/>
       <c r="I51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="7"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16"/>
       <c r="I52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="7"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="16"/>
       <c r="I53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16"/>
       <c r="I54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="7"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="16"/>
       <c r="I55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="7"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="16"/>
       <c r="I56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="7"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="16"/>
       <c r="I57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="7"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="16"/>
       <c r="I58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="7"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="16"/>
       <c r="I59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="7"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="16"/>
       <c r="I60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="7"/>
-      <c r="F61" s="17"/>
+      <c r="F61" s="16"/>
       <c r="I61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="7"/>
-      <c r="F62" s="17"/>
+      <c r="F62" s="16"/>
       <c r="I62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="7"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="16"/>
       <c r="I63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="7"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="16"/>
       <c r="I64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="7"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="16"/>
       <c r="I65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="7"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="16"/>
       <c r="I66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="7"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="16"/>
       <c r="I67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="16"/>
       <c r="I68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
-      <c r="F69" s="17"/>
+      <c r="F69" s="16"/>
       <c r="I69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="16"/>
       <c r="I70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
-      <c r="F71" s="17"/>
+      <c r="F71" s="16"/>
       <c r="I71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
-      <c r="F72" s="17"/>
+      <c r="F72" s="16"/>
       <c r="I72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="16"/>
       <c r="I73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="16"/>
       <c r="I74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="16"/>
       <c r="I75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="7"/>
-      <c r="F76" s="17"/>
+      <c r="F76" s="16"/>
       <c r="I76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="7"/>
-      <c r="F77" s="17"/>
+      <c r="F77" s="16"/>
       <c r="I77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="16"/>
       <c r="I78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="7"/>
-      <c r="F79" s="17"/>
+      <c r="F79" s="16"/>
       <c r="I79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
-      <c r="F80" s="17"/>
+      <c r="F80" s="16"/>
       <c r="I80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="7"/>
-      <c r="F81" s="17"/>
+      <c r="F81" s="16"/>
       <c r="I81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="7"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="16"/>
       <c r="I82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="7"/>
-      <c r="F83" s="17"/>
+      <c r="F83" s="16"/>
       <c r="I83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="7"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="16"/>
       <c r="I84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="7"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="16"/>
       <c r="I85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="7"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="16"/>
       <c r="I86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="7"/>
-      <c r="F87" s="17"/>
+      <c r="F87" s="16"/>
       <c r="I87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="7"/>
-      <c r="F88" s="17"/>
+      <c r="F88" s="16"/>
       <c r="I88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="7"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="16"/>
       <c r="I89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="7"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="16"/>
       <c r="I90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="7"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="16"/>
       <c r="I91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="7"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="16"/>
       <c r="I92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="7"/>
-      <c r="F93" s="17"/>
+      <c r="F93" s="16"/>
       <c r="I93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="7"/>
-      <c r="F94" s="17"/>
+      <c r="F94" s="16"/>
       <c r="I94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="16"/>
       <c r="I95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
-      <c r="F96" s="17"/>
+      <c r="F96" s="16"/>
       <c r="I96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
-      <c r="F97" s="17"/>
+      <c r="F97" s="16"/>
       <c r="I97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
-      <c r="F98" s="17"/>
+      <c r="F98" s="16"/>
       <c r="I98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
-      <c r="F99" s="17"/>
+      <c r="F99" s="16"/>
       <c r="I99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
-      <c r="F100" s="17"/>
+      <c r="F100" s="16"/>
       <c r="I100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
-      <c r="F101" s="17"/>
+      <c r="F101" s="16"/>
       <c r="I101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
-      <c r="F102" s="17"/>
+      <c r="F102" s="16"/>
       <c r="I102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
-      <c r="F103" s="17"/>
+      <c r="F103" s="16"/>
       <c r="I103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
-      <c r="F104" s="17"/>
+      <c r="F104" s="16"/>
       <c r="I104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
-      <c r="F105" s="17"/>
+      <c r="F105" s="16"/>
       <c r="I105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
-      <c r="F106" s="17"/>
+      <c r="F106" s="16"/>
       <c r="I106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
-      <c r="F107" s="17"/>
+      <c r="F107" s="16"/>
       <c r="I107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
-      <c r="F108" s="17"/>
+      <c r="F108" s="16"/>
       <c r="I108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
-      <c r="F109" s="17"/>
+      <c r="F109" s="16"/>
       <c r="I109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
-      <c r="F110" s="17"/>
+      <c r="F110" s="16"/>
       <c r="I110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
-      <c r="F111" s="17"/>
+      <c r="F111" s="16"/>
       <c r="I111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
-      <c r="F112" s="17"/>
+      <c r="F112" s="16"/>
       <c r="I112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="7"/>
-      <c r="F113" s="17"/>
+      <c r="F113" s="16"/>
       <c r="I113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="7"/>
-      <c r="F114" s="17"/>
+      <c r="F114" s="16"/>
       <c r="I114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="7"/>
-      <c r="F115" s="17"/>
+      <c r="F115" s="16"/>
       <c r="I115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
-      <c r="F116" s="17"/>
+      <c r="F116" s="16"/>
       <c r="I116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
-      <c r="F117" s="17"/>
+      <c r="F117" s="16"/>
       <c r="I117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
-      <c r="F118" s="17"/>
+      <c r="F118" s="16"/>
       <c r="I118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
-      <c r="F119" s="17"/>
+      <c r="F119" s="16"/>
       <c r="I119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
-      <c r="F120" s="17"/>
+      <c r="F120" s="16"/>
       <c r="I120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
-      <c r="F121" s="17"/>
+      <c r="F121" s="16"/>
       <c r="I121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="7"/>
-      <c r="F122" s="17"/>
+      <c r="F122" s="16"/>
       <c r="I122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
-      <c r="F123" s="17"/>
+      <c r="F123" s="16"/>
       <c r="I123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
-      <c r="F124" s="17"/>
+      <c r="F124" s="16"/>
       <c r="I124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="7"/>
-      <c r="F125" s="17"/>
+      <c r="F125" s="16"/>
       <c r="I125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="7"/>
-      <c r="F126" s="17"/>
+      <c r="F126" s="16"/>
       <c r="I126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="7"/>
-      <c r="F127" s="17"/>
+      <c r="F127" s="16"/>
       <c r="I127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="7"/>
-      <c r="F128" s="17"/>
+      <c r="F128" s="16"/>
       <c r="I128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="7"/>
-      <c r="F129" s="17"/>
+      <c r="F129" s="16"/>
       <c r="I129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B130" s="7"/>
-      <c r="F130" s="17"/>
+      <c r="F130" s="16"/>
       <c r="I130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B131" s="7"/>
-      <c r="F131" s="17"/>
+      <c r="F131" s="16"/>
       <c r="I131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B132" s="7"/>
-      <c r="F132" s="17"/>
+      <c r="F132" s="16"/>
       <c r="I132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B133" s="7"/>
-      <c r="F133" s="17"/>
+      <c r="F133" s="16"/>
       <c r="I133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B134" s="7"/>
-      <c r="F134" s="17"/>
+      <c r="F134" s="16"/>
       <c r="I134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CE531-FF40-4D49-A85B-14B5EB083988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269B7DE-5315-40C8-AB95-0823F81B9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leads!$A$1:$T$2</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>Nombre</t>
   </si>
@@ -287,9 +300,6 @@
     <t>CITYCOM 300 i</t>
   </si>
   <si>
-    <t>NEO XR 110</t>
-  </si>
-  <si>
     <t>NTORQ 125</t>
   </si>
   <si>
@@ -390,6 +400,39 @@
   </si>
   <si>
     <t>Mensajes</t>
+  </si>
+  <si>
+    <t>IKA</t>
+  </si>
+  <si>
+    <t>SLALOM BASE</t>
+  </si>
+  <si>
+    <t>SLALOM FULL</t>
+  </si>
+  <si>
+    <t>DURBAN 150</t>
+  </si>
+  <si>
+    <t>JET 14</t>
+  </si>
+  <si>
+    <t>ORBIT III 125</t>
+  </si>
+  <si>
+    <t>JOYRIDE 16 300</t>
+  </si>
+  <si>
+    <t>MAXSYM TL 508</t>
+  </si>
+  <si>
+    <t>MOTOCARGO 200 CC NEW</t>
+  </si>
+  <si>
+    <t>NEO X 110</t>
+  </si>
+  <si>
+    <t>NEO X 110 FULL</t>
   </si>
 </sst>
 </file>
@@ -505,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,11 +590,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1154,27 +1206,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B431A8AA-2DB0-45CF-9C66-91BE99848A3A}" name="IKA" displayName="IKA" ref="H2:H5" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5E440D62-D785-444D-B015-9C647F85F493}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="2" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A2:A4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Columna1"/>
@@ -1184,72 +1245,72 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="Teknial" displayName="Teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="teknial" displayName="teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="11" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="H2:H9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="I2:I10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1579,7 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1622,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -1634,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>8</v>
@@ -1643,10 +1706,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>10</v>
@@ -1667,19 +1730,19 @@
         <v>14</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>31</v>
@@ -4484,25 +4547,25 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15"/>
     </row>
@@ -4595,11 +4658,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9285CA4-E8DB-44F5-9704-AF6AF747F2C9}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4609,9 +4670,10 @@
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -4620,241 +4682,278 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4961,7 @@
     <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4871,6 +4970,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4890,57 +4990,57 @@
   <sheetData>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4964,17 +5064,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/PlantillaLeads.xlsx
+++ b/public/temp/PlantillaLeads.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269B7DE-5315-40C8-AB95-0823F81B9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31C494B-B41B-429D-A562-B4FEE285CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>Nombre</t>
   </si>
@@ -429,10 +429,43 @@
     <t>MOTOCARGO 200 CC NEW</t>
   </si>
   <si>
-    <t>NEO X 110</t>
-  </si>
-  <si>
-    <t>NEO X 110 FULL</t>
+    <t>Morbidelli</t>
+  </si>
+  <si>
+    <t>SPOT 150</t>
+  </si>
+  <si>
+    <t>SPOT 150 FULL</t>
+  </si>
+  <si>
+    <t>MBP SC150RE</t>
+  </si>
+  <si>
+    <t>MBP N300</t>
+  </si>
+  <si>
+    <t>MBP M 502N</t>
+  </si>
+  <si>
+    <t>MBP T1002VX</t>
+  </si>
+  <si>
+    <t>MBP T250X</t>
+  </si>
+  <si>
+    <t>NEO XR 110</t>
+  </si>
+  <si>
+    <t>NEO XR 110 FULL</t>
+  </si>
+  <si>
+    <t>RTR 160 ABS</t>
+  </si>
+  <si>
+    <t>RTR 200 ABS</t>
+  </si>
+  <si>
+    <t>RR 310</t>
   </si>
 </sst>
 </file>
@@ -548,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -592,21 +625,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -615,31 +642,38 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Verdana"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -653,54 +687,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -820,6 +819,184 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1206,36 +1383,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C32B2172-4D0C-457F-95DD-BE06DFB3AC09}" name="Status" displayName="Status" ref="A2:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{E77B413C-3350-42C8-B594-016604D1100C}" name="Status" headerRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B431A8AA-2DB0-45CF-9C66-91BE99848A3A}" name="IKA" displayName="IKA" ref="H2:H5" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B431A8AA-2DB0-45CF-9C66-91BE99848A3A}" name="IKA" displayName="IKA" ref="H2:H6" headerRowCount="0" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="10">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5E440D62-D785-444D-B015-9C647F85F493}" name="Columna1"/>
+    <tableColumn id="1" xr3:uid="{5E440D62-D785-444D-B015-9C647F85F493}" name="Columna1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{46F23CED-B0CC-4B20-9363-3A34D74ECDA5}" name="Morbidelli" displayName="Morbidelli" ref="I2:I6" headerRowCount="0" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9BB58A7B-3279-426E-80DC-5F1C7A694805}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{64BB8385-926C-4FCD-A809-3D32AA4793EB}" name="Vendedores" displayName="Vendedores" ref="A2:A12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8E9453B1-03D3-487C-A47C-51EB1339EE24}" name="Vendedores" headerRowDxfId="13" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{85384A7D-511F-4A68-B51F-D9986BE8C534}" name="Orígen" displayName="Orígen" ref="A2:A4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F7B12E0-DD6B-4C11-94F1-DA881634B9A3}" name="Columna1"/>
@@ -1245,72 +1431,72 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{968862D3-BB44-4D99-BA07-9983A92B8433}" name="Motomel" displayName="Motomel" ref="A2:A23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{10C6DA09-3FE9-4902-B611-33405D3E0C36}" name="Motomel" headerRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E00C072-FC9A-4E1B-8404-2AA57D35C43A}" name="Benelli" displayName="Benelli" ref="B2:B18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{1E57A23B-6312-449C-AED3-F619ACCB21FE}" name="Benelli" headerRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3EDBA8B1-4B7D-4D5A-B373-ABD1D6A8CA6E}" name="Suzuki" displayName="Suzuki" ref="C2:C5" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{B4E6ED58-D224-4C20-BF18-DE3E048DFEE1}" name="Suzuki" headerRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92C0A63D-2F1E-40A2-8B16-6FA244D8AF88}" name="TVS" displayName="TVS" ref="D2:D11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{74AE52A7-0649-4DA6-8AA6-A11DB55712A1}" name="TVS" headerRowDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF6609D6-4154-4522-B7D6-DFBFC11BF7E0}" name="SYM" displayName="SYM" ref="E2:E7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="24">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{15003756-CD6C-480A-942D-E7147F7CD9A8}" name="SYM" headerRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98FB12DE-9ACD-4CB3-9CBC-8E4386593EF4}" name="Keeway" displayName="Keeway" ref="F2:F4" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{CD5727EF-2DC0-4C90-8B17-D941DB85108E}" name="Keeway" headerRowDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="teknial" displayName="teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56C0E0EF-1433-44C9-9A8A-8D1954C4C3C4}" name="teknial" displayName="teknial" ref="G2:G8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E59C64F3-D2FD-4CD1-89DA-BFAF183D4D3B}" name="Teknial" headerRowDxfId="17" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="I2:I10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C60F64A2-1F8B-4EED-9283-820A4D142AE9}" name="Marca" displayName="Marca" ref="J2:J11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B1261B45-3425-4C68-B74C-E890B264F97B}" name="Marca" headerRowDxfId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1640,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4658,9 +4844,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9285CA4-E8DB-44F5-9704-AF6AF747F2C9}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4670,10 +4858,10 @@
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -4683,8 +4871,9 @@
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4695,7 +4884,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
@@ -4706,14 +4895,17 @@
       <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4724,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>122</v>
@@ -4735,14 +4927,17 @@
       <c r="G3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>120</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4762,14 +4957,17 @@
         <v>76</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>121</v>
+      <c r="H4" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4786,12 +4984,17 @@
         <v>124</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4805,12 +5008,17 @@
         <v>83</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="18"/>
+      <c r="H6" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4818,18 +5026,19 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>125</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -4837,45 +5046,58 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4883,7 +5105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4891,7 +5113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4899,7 +5121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -4907,7 +5129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4961,7 +5183,7 @@
     <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4971,6 +5193,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
